--- a/tareas.xlsx
+++ b/tareas.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAAlvaradoR\Documents\GitHub\CHN_listado_tareas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE00F33-F5C5-4473-AA99-D7D4008342EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCF281B0-D89F-4C6C-B680-40DC6923B782}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15492" windowHeight="4128" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7524"/>
   </bookViews>
   <sheets>
-    <sheet name="tasks" sheetId="1" r:id="rId1"/>
+    <sheet name="tasks (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="259">
   <si>
     <t>ID</t>
   </si>
@@ -109,6 +109,15 @@
     <t>Ticket</t>
   </si>
   <si>
+    <t>EDT</t>
+  </si>
+  <si>
+    <t>Avance Esperado</t>
+  </si>
+  <si>
+    <t>Avance Completado</t>
+  </si>
+  <si>
     <t>Email: Requisitos para renovación de contrato año 2024</t>
   </si>
   <si>
@@ -160,6 +169,15 @@
     <t>Y</t>
   </si>
   <si>
+    <t>Traslado de contratos</t>
+  </si>
+  <si>
+    <t>Estimados agradeceré que me puedan trasladar por medio de correo electrónico los siguientes documentos.  1. Contrato  2. Fianza  3. RGAE Lo anterior, debido a que en mi ausencia no se registro en el archivo electrónico que llevo. </t>
+  </si>
+  <si>
+    <t>Javier Navarro, Erick Mendoza</t>
+  </si>
+  <si>
     <t>Trasladar flujo de datos de Carlos Alvarado a plantilla oficial</t>
   </si>
   <si>
@@ -172,6 +190,33 @@
     <t>Oficina de Datos</t>
   </si>
   <si>
+    <t>Tablero de Indicadores Institucionales Mockup Post-Fase 1</t>
+  </si>
+  <si>
+    <t>Presentación de ideas para el Tablero de Indicadores Institucionales Mockup Post-Fase 1.</t>
+  </si>
+  <si>
+    <t>Alexander Alvarado</t>
+  </si>
+  <si>
+    <t>Supuestamente completada</t>
+  </si>
+  <si>
+    <t>Tablero de Indicadores Institucionales</t>
+  </si>
+  <si>
+    <t>Tablero de indicadores institucionales</t>
+  </si>
+  <si>
+    <t>Lluvia de ideas para definir las siguientes fases del tablero de indicadores institucionales.</t>
+  </si>
+  <si>
+    <t>Cristian Castañeda</t>
+  </si>
+  <si>
+    <t>Luis Mack, Gabriel Orellana, Luis Alvarado, Alexander Alvarado</t>
+  </si>
+  <si>
     <t>Tablero CDPs: Pestaña Seguros</t>
   </si>
   <si>
@@ -205,12 +250,57 @@
     <t>Análisis Exploratorio RRHH</t>
   </si>
   <si>
+    <t>Revisión de EDA PreCreditPro</t>
+  </si>
+  <si>
+    <t>Revisar a profundidad el EDA realizado por Alexander Alvarado</t>
+  </si>
+  <si>
+    <t>Análisis Exploratorio Precredit</t>
+  </si>
+  <si>
     <t>Reunión Seguimiento Proyectos Analítica de Datos</t>
   </si>
   <si>
     <t>Gabriel Orellana, Alexander Alvarado, Cristian Castañeda</t>
   </si>
   <si>
+    <t>Reunion Proceso de mantenimiento y errores de base de datos de asesores de Gerencia de Canales</t>
+  </si>
+  <si>
+    <t>Lourdes Flores</t>
+  </si>
+  <si>
+    <t>Javier Navarro, Héctor González, Luis Mack, Luis Alvarado</t>
+  </si>
+  <si>
+    <t>Reunión Dudas sistema VHUR</t>
+  </si>
+  <si>
+    <t>Reunión Proceso de mantenimiento y errores de base de datos de asesores de Gerencia de Tarjeta de Crédito</t>
+  </si>
+  <si>
+    <t>entender el proceso de mantenimiento de asesores de la Gerencia de Tarjeta de Crédito</t>
+  </si>
+  <si>
+    <t>Jorge Matheu, Javier Navarro, Héctor González, Luis Alvarado</t>
+  </si>
+  <si>
+    <t>reunión Proceso de mantenimiento y errores de base de datos de asesores de Gerencia de Banca de Bienes Raíces</t>
+  </si>
+  <si>
+    <t>Conocer el Proceso de mantenimiento y errores de base de datos de asesores de Gerencia de Banca de Bienes Raíces</t>
+  </si>
+  <si>
+    <t>Reunión Proceso de mantenimiento y errores de base de datos de asesores de Gerencia Comercial</t>
+  </si>
+  <si>
+    <t>Redacción de Informe EDA VHUR</t>
+  </si>
+  <si>
+    <t>Informe final del EDA de la base de datos VHUR.</t>
+  </si>
+  <si>
     <t>Redacción de Documento de Descripción de Campos Tablero CDPs</t>
   </si>
   <si>
@@ -220,15 +310,18 @@
     <t>Realizar diagrama resumen del procedimiento FLU-GITD-003</t>
   </si>
   <si>
+    <t>Pruebas Psicométrica</t>
+  </si>
+  <si>
+    <t>Estimados, por instrucciones del Ing. Javier Navarro, favor a proceder a realizarse una prueba psicométrica en el siguiente enlace.  Ingresar a:                 https://www.psicotestevalua.com/ Contraseña:               meeVHwBA</t>
+  </si>
+  <si>
     <t>Proyecto flujo de datos: lista de verificación para la calidad de datos recopilados</t>
   </si>
   <si>
     <t>Entregable: borrador de la lista de verificación </t>
   </si>
   <si>
-    <t>Alexander Alvarado</t>
-  </si>
-  <si>
     <t>Erick Mendoza, Luis Mack, Gabriel Orellana, Luis Alvarado, Cristian Castañeda</t>
   </si>
   <si>
@@ -244,21 +337,36 @@
     <t>Asistencia a la charla Marketing Mix Modelling (Grupo Coppel).</t>
   </si>
   <si>
-    <t>Cristian Castañeda</t>
+    <t>Planificación Estratégica Oficina de Datos</t>
+  </si>
+  <si>
+    <t>Identificar proyectos a mediano, corto y largo plazo para la Oficina de Datos, en el caso particular de los datos del sistema de RRHH VHUR y Data Mart de la Captación de El Crédito.</t>
+  </si>
+  <si>
+    <t>Erick Mendoza</t>
   </si>
   <si>
     <t>Planificación del análisis exploratorio de la base de datos VHRU</t>
   </si>
   <si>
+    <t>OCR Jurídico</t>
+  </si>
+  <si>
+    <t>Explorar la implementación de un OCR para el análisis comparativo de una plantilla y su versión oficializada por un notario. </t>
+  </si>
+  <si>
+    <t>Modificar Plantilla de Requerimientos 005</t>
+  </si>
+  <si>
+    <t>Se modificarán las plantillas de requerimientos tipo 005 junto con el anexo que suele acompañarlas. Además, se hará la plantilla para requerimientos dirigidos hacia nuestra gerencia.</t>
+  </si>
+  <si>
     <t>Mejoras y cambios en el tablero de Power BI</t>
   </si>
   <si>
     <t>Mejoras para el tablero de CDPs.</t>
   </si>
   <si>
-    <t>Supuestamente completada</t>
-  </si>
-  <si>
     <t>Al tablero de seguimiento de CDPs agregar intereses generados por el CDP</t>
   </si>
   <si>
@@ -268,6 +376,12 @@
     <t>Luego de las modificaciones realizadas ayer el flujo quedo algo en redado en la traza de los caminos de decisión y flujo en general.</t>
   </si>
   <si>
+    <t>Mejorar Estructura del Alcance de Tablero de Indicadores Institucionales</t>
+  </si>
+  <si>
+    <t>Mejorar el indice del Alcance, para un mejor storytelling. Ademas de trabajar en la redacción de los requerimientos para este proyecto.</t>
+  </si>
+  <si>
     <t>Marketing Mix Modelling: informe</t>
   </si>
   <si>
@@ -295,6 +409,48 @@
     <t>Javier Navarro, Erick Mendoza, Luis Mack</t>
   </si>
   <si>
+    <t>Investigación sobre LLM mínimo</t>
+  </si>
+  <si>
+    <t>Realizar una investigación de que LLM podría ser el mínimo y suficiente para el proyecto de OCR jurídico.</t>
+  </si>
+  <si>
+    <t>Inventario de datamarts por incluir</t>
+  </si>
+  <si>
+    <t>Agregar al inventario de datamarts por incluir al Data Warehouse (Banco o Seguros) los que consideren según los sistemas y/o bases de datos utilizados para el Análisis Exploratorio de Datos. Los datamarts que consideren no se limitan al sistema por analizar, pueden incluir de otros orígenes (o incluso si no se conoce el origen y consideran que es un excelente candidato a datamart, pueden agregarlo). Así mismo, el el peer review es solamente una sugerencia, pueden apoyarse entre todos. El archivo se encuentra en el grupo de trabajo Data Mart.</t>
+  </si>
+  <si>
+    <t>Data Mart</t>
+  </si>
+  <si>
+    <t>INSTALACION VPN FORTICLIENT GERENCIA DE INNOVACION Y TRANSFORMACION DIGITAL</t>
+  </si>
+  <si>
+    <t>Buenos días estimados, Se solicita que realicen la instalación de VPN FORTICLIENT, esto a más tardar el día de hoy 31 de enero de 2024. Asimismo, por favor retroalimentar a Walter Carrillo de la Gerencia de Tecnología sobre el éxito de esta conexión, recordando que es responsabilidad de todos estar listos para poder trabajar de forma remota ante cualquier eventualidad. Saludos.</t>
+  </si>
+  <si>
+    <t>Yeilyn Vasquez</t>
+  </si>
+  <si>
+    <t>Javier Navarro, Melania Guerra</t>
+  </si>
+  <si>
+    <t>Informe de EDA de VHUR</t>
+  </si>
+  <si>
+    <t>Informe de hallazgos del EDA de la base VHUR.</t>
+  </si>
+  <si>
+    <t>Hermes: investigación sobre aplicación de filtros</t>
+  </si>
+  <si>
+    <t>Gabriel Orellana, Luis Alvarado, Cristian Castañeda</t>
+  </si>
+  <si>
+    <t>Hacer modelo de base de la datos en Power BI para Tablero de Indicadores Institucionales</t>
+  </si>
+  <si>
     <t>Flujo sobre visualización de datos</t>
   </si>
   <si>
@@ -310,7 +466,34 @@
     <t>Luis Alvarado, Alexander Alvarado</t>
   </si>
   <si>
-    <t>Tablero de Indicadores Institucionales</t>
+    <t>Evaluación Ley Orgánica de Banco CHN</t>
+  </si>
+  <si>
+    <t>Evaluación Ley Orgánica del Credito Hipotecario Nacional. https://testmoz.com/q/13352406 código 1523</t>
+  </si>
+  <si>
+    <t>Beberly Muñoz</t>
+  </si>
+  <si>
+    <t>Erick Mendoza, Heidy Ovando, Héctor González, Luis Mack, Aldo Donado, Melania Guerra, Alejandra Castañeda, Lourdes Flores, Gloria Albizú, Mariel Pineda, Gabriel Orellana, Luis Alvarado, Alexander Alvarado, Cristian Castañeda, José Andrés Valenzuela, Jorge Cardona</t>
+  </si>
+  <si>
+    <t>Jorge Matheu</t>
+  </si>
+  <si>
+    <t>Capacitaciones GITD</t>
+  </si>
+  <si>
+    <t>Estudio de Factibilidad de Proyecto OCR Jurídico</t>
+  </si>
+  <si>
+    <t>Realizar un estudio de factibilidad para el proyecto OCR Jurídico, incluyendo Análisis técnico, Análisis financiero, Análisis legal y regulatorio, Análisis operativo, Análisis de riesgos.</t>
+  </si>
+  <si>
+    <t>Entrega de factura por prestación de servicios</t>
+  </si>
+  <si>
+    <t>Trasladar factura y documentación adjunta con fecha de emisión 29/02/2024.  Adicional, a la entrega física de la factura con toda la documentación de soporte, deberán de trasladarla vía electrónica. </t>
   </si>
   <si>
     <t>Jorge Matheu, Javier Navarro, Gabriel Orellana, Luis Alvarado, Alexander Alvarado, Cristian Castañeda</t>
@@ -328,12 +511,6 @@
     <t>Si en dado caso no generará diploma, se deberá de cargar captura que si realizó la capacitación. </t>
   </si>
   <si>
-    <t>Jorge Matheu</t>
-  </si>
-  <si>
-    <t>Capacitaciones GITD</t>
-  </si>
-  <si>
     <t>Email: GC-317-2023 Y ANEXO ABC FINANCIERA</t>
   </si>
   <si>
@@ -346,6 +523,12 @@
     <t>Entregar factura en la fecha establecida para pago por servicios sin excepción alguna.  No se recibirán facturas después de la fecha y hora establecida. </t>
   </si>
   <si>
+    <t>Email: Circular Informativa No. 003-2024 -ACTUALIZACIÓN DE DATOS CONTRALORÍA GENERAL DE CUENTAS-</t>
+  </si>
+  <si>
+    <t>Es importante indicar que es una obligación y responsabilidad personal realizar esta gestión.</t>
+  </si>
+  <si>
     <t>Email: CAPACITACION CUMPLIMIENTO NOVIEMBRE 2023</t>
   </si>
   <si>
@@ -358,12 +541,24 @@
     <t>Se les recuerda que la capacitación es obligatoria para todos. </t>
   </si>
   <si>
+    <t>Email: Capacitación "LEY FATCA"</t>
+  </si>
+  <si>
+    <t>Recordar que las capacitaciones son obligatorias </t>
+  </si>
+  <si>
     <t>Email: Capacitación "GESTIÓN INTEGRAL DE RIESGOS 2023"</t>
   </si>
   <si>
     <t>Buenas tardes, se le comparte la siguiente invitación para la capacitación "GESTIÓN INTEGRAL DE RIESGOS 2023", la misma es de carácter obligatorio para todo el personal.</t>
   </si>
   <si>
+    <t>Email: AMPLIACIÓN A CIRCULAR INFORMATIVA GAD-467-2023 -GAFETE-</t>
+  </si>
+  <si>
+    <t>Favor trasladar la información según correo adjunto. </t>
+  </si>
+  <si>
     <t>Elaboración del tablero de Seguimiento</t>
   </si>
   <si>
@@ -391,6 +586,27 @@
     <t>EDA de la base de datos VHUR</t>
   </si>
   <si>
+    <t>Desarrollo de Interfaz Gráfica Fase Cédula Hipotecaria</t>
+  </si>
+  <si>
+    <t>Desarrollar una interfaz gráfica para contrastar la Cédula Hipotecaria del proyecto OCR jurídico.</t>
+  </si>
+  <si>
+    <t>Desarrollo de Agente usando Langchain</t>
+  </si>
+  <si>
+    <t>Desarrollo del Agente (LLM) que operara en el OCR Jurídico usando el framework Langchain.</t>
+  </si>
+  <si>
+    <t>Cronograma del proyecto</t>
+  </si>
+  <si>
+    <t>compartir el cronograma de Tableros </t>
+  </si>
+  <si>
+    <t>Javier Navarro, Héctor González</t>
+  </si>
+  <si>
     <t>Crear plantilla de planificación para Project 2010</t>
   </si>
   <si>
@@ -400,15 +616,18 @@
     <t>Con la información entrega el día viernes 24/11/2023  se crearan las vistas con la información disponible en el Data Mart Seguros.</t>
   </si>
   <si>
+    <t>Crear mockup de Tablero de Fuerza Laboral (VHUR)</t>
+  </si>
+  <si>
+    <t>Se creara la versión preliminar del tablero que podría ser un proyecto para RRHH.</t>
+  </si>
+  <si>
     <t>Crear firmas del equipo</t>
   </si>
   <si>
     <t>Enseñar a Carlos como crear la firma y Gabriel Orellana deberá apoyar a Cristian Castañeda , Luis Alvarado y Alexander Alvarado </t>
   </si>
   <si>
-    <t>Erick Mendoza</t>
-  </si>
-  <si>
     <t>Luis Alvarado, Alexander Alvarado, Cristian Castañeda</t>
   </si>
   <si>
@@ -418,24 +637,72 @@
     <t>Elaborar una plantilla para reporte de análisis exploratorio para una base de datos particular, con el enfoque principal de la expansión del Data Warehouse justificando con casos de uso de la data.</t>
   </si>
   <si>
+    <t>Correo electrónico: RE: Alcances proyectos de seguros</t>
+  </si>
+  <si>
+    <t>Darle seguimiento a que los compañeros de Seguros compartan los alcances y documentación de los KPIS de Seguros que ya están trabajando, por favor</t>
+  </si>
+  <si>
+    <t>Aldo Donado</t>
+  </si>
+  <si>
+    <t>Jorge Matheu, Javier Navarro, Luis Mack</t>
+  </si>
+  <si>
+    <t>Oficina de Proyectos(PMO)</t>
+  </si>
+  <si>
+    <t>Revisar el alcance de estos proyectos y verificar la forma en que podemos apoyar desde innovación, podríamos verificar si vale la pena que sean proyectos separados o podría se un solo proyecto,  Validar la parte de datos con Luis Alvarado </t>
+  </si>
+  <si>
     <t>Correo electrónico: Hoy iniciamos la Encuesta de Clima Organizacional</t>
   </si>
   <si>
     <t>Se les recuerda que deben de completar la encuesta sobre el clima organizacional </t>
   </si>
   <si>
+    <t>Correo electrónico: CIRCULAR No. 02-2024 -DEPARTAMENTO DE COMPRAS- TRASLADO DE FACTURAS-</t>
+  </si>
+  <si>
+    <t>Javier Navarro, Erick Mendoza, Yeilyn Vasquez</t>
+  </si>
+  <si>
+    <t>Correcciones al Informe EDA VHUR</t>
+  </si>
+  <si>
+    <t>Hacer las correciones realizadas por Alexander Alvarado y Luis Mack al reporte.</t>
+  </si>
+  <si>
+    <t>Realizar correcciones realizadas por Erick Mendoza.</t>
+  </si>
+  <si>
+    <t>Corrección de Documentos de Datos de Seguros</t>
+  </si>
+  <si>
+    <t>Revisar documentos compartidos por Seguros y Fianzas, para brindar retroalimentación. </t>
+  </si>
+  <si>
     <t>Conferencia de Microsoft Fabric</t>
   </si>
   <si>
     <t>Asistir a una conferencia sobre Microsoft Fabric por recomendación de Erick.</t>
   </si>
   <si>
+    <t>Conferencia Amazon AWS - Digi Finance: día final</t>
+  </si>
+  <si>
+    <t>Asistir y redactar informe de la conferencia final de Amazon AWS - Digi Finance.</t>
+  </si>
+  <si>
     <t>Conferencia Amazon AWS - Digi Finance: Día 5</t>
   </si>
   <si>
     <t>Gabriel Orellana, Alexander Alvarado</t>
   </si>
   <si>
+    <t>Conexión de tablas del DW al Tablero de Indicadores Institucionales</t>
+  </si>
+  <si>
     <t>Completar Perfil de Britix</t>
   </si>
   <si>
@@ -484,12 +751,30 @@
     <t>Análisis individual de los objetos de la DB</t>
   </si>
   <si>
+    <t>Análisis de viabilidad de Data Marts del core bancario</t>
+  </si>
+  <si>
+    <t>Dado un listado del contenido del core bancario determinar la viabilidad de que data marts podrían ser extraídos. </t>
+  </si>
+  <si>
     <t>Análisis de Políticas de Seguridad de TI</t>
   </si>
   <si>
     <t>Analisis de fuentes de datos para Tablero Indicadores Institucionales</t>
   </si>
   <si>
+    <t>Análisis de Documentos Tablero KPIs Seguros</t>
+  </si>
+  <si>
+    <t>Realizar una lectura crítica de los cinco documentos proporcionados por Seguros en relación al proyecto de KPIs, con el objetivo de evaluar la necesidad de apoyo por parte de la Oficina de Datos.</t>
+  </si>
+  <si>
+    <t>Análisis de Casos de Usos de facs de Captación de DW</t>
+  </si>
+  <si>
+    <t>Explorar posibles aplicaciones de los datos contenidos en las tablas fac_captacion, fac_movimientos, fac_kpi_captacion y fac_plazo_fijo, como la creación de tableros de control o modelos analíticos.</t>
+  </si>
+  <si>
     <t>Amazon AWS - Digi Finance: Día 1</t>
   </si>
   <si>
@@ -512,18 +797,12 @@
   </si>
   <si>
     <t>Alcance Tableros Institucionales</t>
-  </si>
-  <si>
-    <t>Lourdes Flores</t>
-  </si>
-  <si>
-    <t>Javier Navarro, Héctor González</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1399,22 +1678,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="46.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="46.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
@@ -1432,9 +1708,12 @@
     <col min="27" max="27" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="46.21875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1522,16 +1801,25 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>5598</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2" s="4">
         <v>45238.393877314818</v>
@@ -1540,20 +1828,20 @@
         <v>45238.583333333336</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L2" s="4">
         <v>45236.428784722222</v>
@@ -1569,13 +1857,13 @@
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -1588,19 +1876,22 @@
         <v>5588</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC2" s="2"/>
-    </row>
-    <row r="3" spans="1:29" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+    </row>
+    <row r="3" spans="1:32" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>5550</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" s="4">
         <v>45236.666979166665</v>
@@ -1609,40 +1900,40 @@
         <v>45236.666666666664</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L3" s="4">
         <v>45236.375439814816</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="4">
-        <v>45236.666979166665</v>
+        <v>45295.362881944442</v>
       </c>
       <c r="O3" s="4">
         <v>45236.666979166665</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -1654,58 +1945,61 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
-    </row>
-    <row r="4" spans="1:29" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+    </row>
+    <row r="4" spans="1:32" ht="69" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>5630</v>
+        <v>9746</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4">
-        <v>45238.491226851853</v>
+        <v>45331.394421296296</v>
       </c>
       <c r="E4" s="4">
-        <v>45237.666666666664</v>
+        <v>45331.708333333336</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="L4" s="4">
-        <v>45237.652800925927</v>
+        <v>45329.634618055556</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="4">
-        <v>45238.491226851853</v>
+        <v>45331.394409722219</v>
       </c>
       <c r="O4" s="4">
-        <v>45238.491226851853</v>
+        <v>45331.394409722219</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -1714,59 +2008,68 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+      <c r="AA4" s="3">
+        <v>9736</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="AC4" s="2"/>
-    </row>
-    <row r="5" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+    </row>
+    <row r="5" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>6066</v>
+        <v>5630</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" s="4">
-        <v>45257.512731481482</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>45238.491226851853</v>
+      </c>
+      <c r="E5" s="4">
+        <v>45237.666666666664</v>
+      </c>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L5" s="4">
-        <v>45257.512719907405</v>
+        <v>45237.652800925927</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="4">
-        <v>45257.512719907405</v>
-      </c>
-      <c r="O5" s="2"/>
+        <v>45238.491226851853</v>
+      </c>
+      <c r="O5" s="4">
+        <v>45238.491226851853</v>
+      </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -1778,58 +2081,63 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+    </row>
+    <row r="6" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>5580</v>
+        <v>6416</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="4">
-        <v>45265.575555555559</v>
+        <v>45274.479039351849</v>
       </c>
       <c r="E6" s="4">
-        <v>45239.666666666664</v>
+        <v>45274.708333333336</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="J6" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="L6" s="4">
-        <v>45236.426828703705</v>
+        <v>45271.580810185187</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="4">
-        <v>45265.575543981482</v>
+        <v>45274.479039351849</v>
       </c>
       <c r="O6" s="4">
-        <v>45265.575543981482</v>
+        <v>45274.479039351849</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -1841,56 +2149,61 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
-    </row>
-    <row r="7" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+    </row>
+    <row r="7" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>5564</v>
+        <v>6412</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D7" s="4">
-        <v>45238.488368055558</v>
+        <v>45271.624490740738</v>
       </c>
       <c r="E7" s="4">
-        <v>45236.666666666664</v>
+        <v>45271.75</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>60</v>
       </c>
       <c r="L7" s="4">
-        <v>45236.416967592595</v>
+        <v>45271.577337962961</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="4">
-        <v>45238.48841435185</v>
+        <v>45273.663356481484</v>
       </c>
       <c r="O7" s="4">
-        <v>45238.488368055558</v>
+        <v>45271.624490740738</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -1902,58 +2215,59 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+    </row>
+    <row r="8" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>5868</v>
+        <v>6066</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="D8" s="4">
-        <v>45265.575648148151</v>
-      </c>
-      <c r="E8" s="4">
-        <v>45244.666666666664</v>
-      </c>
+        <v>45257.512731481482</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J8" s="3" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L8" s="4">
-        <v>45244.431018518517</v>
-      </c>
-      <c r="M8" s="4">
-        <v>45244.446331018517</v>
-      </c>
+        <v>45257.512719907405</v>
+      </c>
+      <c r="M8" s="2"/>
       <c r="N8" s="4">
-        <v>45265.575648148151</v>
-      </c>
-      <c r="O8" s="4">
-        <v>45265.575648148151</v>
-      </c>
+        <v>45295.362870370373</v>
+      </c>
+      <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -1965,56 +2279,61 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
-    </row>
-    <row r="9" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>6174</v>
+        <v>5580</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="D9" s="4">
-        <v>45265.575740740744</v>
+        <v>45265.575555555559</v>
       </c>
       <c r="E9" s="4">
-        <v>45261.708333333336</v>
+        <v>45239.666666666664</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L9" s="4">
-        <v>45260.683171296296</v>
+        <v>45236.426828703705</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="4">
-        <v>45265.575740740744</v>
+        <v>45265.575543981482</v>
       </c>
       <c r="O9" s="4">
-        <v>45265.575740740744</v>
+        <v>45265.575543981482</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -2026,56 +2345,59 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+    </row>
+    <row r="10" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>6172</v>
+        <v>5564</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D10" s="4">
-        <v>45265.575972222221</v>
+        <v>45238.488368055558</v>
       </c>
       <c r="E10" s="4">
-        <v>45261.708333333336</v>
+        <v>45236.666666666664</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="L10" s="4">
-        <v>45260.682442129626</v>
+        <v>45236.416967592595</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="4">
-        <v>45265.575972222221</v>
+        <v>45238.48841435185</v>
       </c>
       <c r="O10" s="4">
-        <v>45265.575972222221</v>
+        <v>45238.488368055558</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -2087,54 +2409,61 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
-    </row>
-    <row r="11" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+    </row>
+    <row r="11" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>6014</v>
+        <v>8334</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D11" s="4">
-        <v>45254.425011574072</v>
+        <v>45308.596631944441</v>
       </c>
       <c r="E11" s="4">
-        <v>45254.666666666664</v>
+        <v>45308.708333333336</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="J11" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="L11" s="4">
-        <v>45252.645983796298</v>
+        <v>45300.608368055553</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="4">
-        <v>45254.425000000003</v>
+        <v>45308.596631944441</v>
       </c>
       <c r="O11" s="4">
-        <v>45254.425000000003</v>
+        <v>45308.596631944441</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -2146,58 +2475,61 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
-    </row>
-    <row r="12" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>5930</v>
+        <v>5868</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="4">
-        <v>45265.576365740744</v>
+        <v>45265.575648148151</v>
       </c>
       <c r="E12" s="4">
-        <v>45251.666666666664</v>
+        <v>45244.666666666664</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L12" s="4">
-        <v>45245.561840277776</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>45244.431018518517</v>
+      </c>
+      <c r="M12" s="4">
+        <v>45244.446331018517</v>
+      </c>
       <c r="N12" s="4">
-        <v>45265.57640046296</v>
+        <v>45265.575648148151</v>
       </c>
       <c r="O12" s="4">
-        <v>45265.576354166667</v>
+        <v>45265.575648148151</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -2209,56 +2541,59 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
-    </row>
-    <row r="13" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+    </row>
+    <row r="13" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>5874</v>
+        <v>6458</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="4">
-        <v>45253.844884259262</v>
+        <v>45294.369340277779</v>
       </c>
       <c r="E13" s="4">
-        <v>45252.666666666664</v>
+        <v>45296.708333333336</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="3" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="L13" s="4">
-        <v>45244.439479166664</v>
+        <v>45273.670613425929</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="4">
-        <v>45253.844884259262</v>
+        <v>45294.369421296295</v>
       </c>
       <c r="O13" s="4">
-        <v>45253.844884259262</v>
+        <v>45294.369340277779</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -2270,58 +2605,57 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
-    </row>
-    <row r="14" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+    </row>
+    <row r="14" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>6056</v>
+        <v>6420</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="4">
-        <v>45265.583483796298</v>
+        <v>45273.448217592595</v>
       </c>
       <c r="E14" s="4">
-        <v>45254.708333333336</v>
+        <v>45272.708333333336</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="L14" s="4">
-        <v>45254.408912037034</v>
+        <v>45271.582361111112</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="4">
-        <v>45265.583483796298</v>
+        <v>45274.479317129626</v>
       </c>
       <c r="O14" s="4">
-        <v>45265.583483796298</v>
+        <v>45273.448217592595</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -2333,54 +2667,61 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
-    </row>
-    <row r="15" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+    </row>
+    <row r="15" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>5466</v>
+        <v>6376</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D15" s="4">
-        <v>45252.578530092593</v>
+        <v>45294.369143518517</v>
       </c>
       <c r="E15" s="4">
-        <v>45238.666666666664</v>
+        <v>45296.708333333336</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="L15" s="4">
-        <v>45229.40247685185</v>
+        <v>45268.433125000003</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="4">
-        <v>45252.578518518516</v>
+        <v>45294.369432870371</v>
       </c>
       <c r="O15" s="4">
-        <v>45252.578518518516</v>
+        <v>45294.369143518517</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -2392,62 +2733,61 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+    </row>
+    <row r="16" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>5572</v>
+        <v>6372</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D16" s="4">
-        <v>45240.655821759261</v>
+        <v>45294.369756944441</v>
       </c>
       <c r="E16" s="4">
-        <v>45240.666666666664</v>
+        <v>45296.708333333336</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="H16" s="2"/>
       <c r="I16" s="3" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="L16" s="4">
-        <v>45236.424525462964</v>
-      </c>
-      <c r="M16" s="4">
-        <v>45240.655798611115</v>
-      </c>
+        <v>45268.431909722225</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="4">
-        <v>45240.655833333331</v>
+        <v>45294.369837962964</v>
       </c>
       <c r="O16" s="4">
-        <v>45240.655810185184</v>
+        <v>45294.369756944441</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -2459,58 +2799,59 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
-    </row>
-    <row r="17" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+    </row>
+    <row r="17" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>5816</v>
+        <v>6374</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="4">
-        <v>45244.66710648148</v>
+        <v>45294.36959490741</v>
       </c>
       <c r="E17" s="4">
-        <v>45244.666666666664</v>
+        <v>45296.708333333336</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="J17" s="3" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="L17" s="4">
-        <v>45243.348101851851</v>
+        <v>45268.432326388887</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="4">
-        <v>45244.66715277778</v>
+        <v>45294.369803240741</v>
       </c>
       <c r="O17" s="4">
-        <v>45244.667094907411</v>
+        <v>45294.36959490741</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -2522,58 +2863,61 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
-    </row>
-    <row r="18" spans="1:29" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+    </row>
+    <row r="18" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>5752</v>
+        <v>7378</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D18" s="4">
-        <v>45239.576678240737</v>
+        <v>45282.491365740738</v>
       </c>
       <c r="E18" s="4">
-        <v>45239.666666666664</v>
+        <v>45282.708333333336</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="J18" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="L18" s="4">
-        <v>45239.568819444445</v>
-      </c>
-      <c r="M18" s="4">
-        <v>45239.569027777776</v>
-      </c>
+        <v>45282.489861111113</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="4">
-        <v>45239.600324074076</v>
+        <v>45282.491365740738</v>
       </c>
       <c r="O18" s="4">
-        <v>45239.575868055559</v>
+        <v>45282.491365740738</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -2585,56 +2929,59 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+    </row>
+    <row r="19" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>6238</v>
+        <v>6174</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="4">
-        <v>45266.358298611114</v>
+        <v>45265.575740740744</v>
       </c>
       <c r="E19" s="4">
-        <v>45267.708333333336</v>
+        <v>45261.708333333336</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="3" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L19" s="4">
-        <v>45265.582650462966</v>
+        <v>45260.683171296296</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="4">
-        <v>45266.358298611114</v>
+        <v>45295.362847222219</v>
       </c>
       <c r="O19" s="4">
-        <v>45266.358298611114</v>
+        <v>45265.575740740744</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -2646,56 +2993,59 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>5582</v>
+        <v>6172</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="4">
-        <v>45240.644803240742</v>
+        <v>45265.575972222221</v>
       </c>
       <c r="E20" s="4">
-        <v>45240.666666666664</v>
+        <v>45261.708333333336</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="3" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L20" s="4">
-        <v>45236.427824074075</v>
-      </c>
-      <c r="M20" s="4">
-        <v>45240.644259259258</v>
-      </c>
+        <v>45260.682442129626</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="4">
-        <v>45240.644293981481</v>
+        <v>45295.362835648149</v>
       </c>
       <c r="O20" s="4">
-        <v>45240.644293981481</v>
+        <v>45265.575972222221</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -2707,54 +3057,57 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+    </row>
+    <row r="21" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>5586</v>
+        <v>6014</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4">
-        <v>45240.540451388886</v>
+        <v>45254.425011574072</v>
       </c>
       <c r="E21" s="4">
-        <v>45240.666666666664</v>
+        <v>45254.666666666664</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="3" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L21" s="4">
-        <v>45236.428333333337</v>
+        <v>45252.645983796298</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="4">
-        <v>45240.540034722224</v>
+        <v>45254.425000000003</v>
       </c>
       <c r="O21" s="4">
-        <v>45240.540034722224</v>
+        <v>45254.425000000003</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -2766,60 +3119,59 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+    </row>
+    <row r="22" spans="1:32" ht="69" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>5894</v>
+        <v>9972</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D22" s="4">
-        <v>45253.410763888889</v>
+        <v>45334.647673611114</v>
       </c>
       <c r="E22" s="4">
-        <v>45252.999305555553</v>
+        <v>45336.708333333336</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>90</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L22" s="4">
-        <v>45245.376006944447</v>
+        <v>45334.338194444441</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="4">
-        <v>45253.410763888889</v>
+        <v>45334.647673611114</v>
       </c>
       <c r="O22" s="4">
-        <v>45253.410763888889</v>
+        <v>45334.647673611114</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -2829,64 +3181,67 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="3">
-        <v>5886</v>
+        <v>9964</v>
       </c>
       <c r="AB22" s="3" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AC22" s="2"/>
-    </row>
-    <row r="23" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+    </row>
+    <row r="23" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>6026</v>
+        <v>5930</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D23" s="4">
-        <v>45253.388599537036</v>
+        <v>45265.576365740744</v>
       </c>
       <c r="E23" s="4">
-        <v>45253.666666666664</v>
+        <v>45251.666666666664</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="3" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L23" s="4">
-        <v>45253.387754629628</v>
+        <v>45245.561840277776</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="4">
-        <v>45253.388599537036</v>
+        <v>45265.57640046296</v>
       </c>
       <c r="O23" s="4">
-        <v>45253.388599537036</v>
+        <v>45265.576354166667</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -2898,58 +3253,59 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
-    </row>
-    <row r="24" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+    </row>
+    <row r="24" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>6262</v>
+        <v>5874</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>94</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="4">
-        <v>45268.406099537038</v>
+        <v>45253.844884259262</v>
       </c>
       <c r="E24" s="4">
-        <v>45267.583333333336</v>
+        <v>45252.666666666664</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I24" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="J24" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="L24" s="4">
-        <v>45266.373240740744</v>
+        <v>45244.439479166664</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="4">
-        <v>45268.430648148147</v>
+        <v>45253.844884259262</v>
       </c>
       <c r="O24" s="4">
-        <v>45268.405949074076</v>
+        <v>45253.844884259262</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -2961,58 +3317,61 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
-    </row>
-    <row r="25" spans="1:29" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+    </row>
+    <row r="25" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>5588</v>
+        <v>6056</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="D25" s="4">
-        <v>45238.624085648145</v>
+        <v>45265.583483796298</v>
       </c>
       <c r="E25" s="4">
-        <v>45238.583333333336</v>
+        <v>45254.708333333336</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="2"/>
       <c r="J25" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="L25" s="4">
-        <v>45236.428761574076</v>
+        <v>45254.408912037034</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="4">
-        <v>45238.624085648145</v>
+        <v>45265.583483796298</v>
       </c>
       <c r="O25" s="4">
-        <v>45238.624085648145</v>
+        <v>45265.583483796298</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -3024,60 +3383,61 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
-    </row>
-    <row r="26" spans="1:29" ht="207" x14ac:dyDescent="0.3">
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+    </row>
+    <row r="26" spans="1:32" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>5710</v>
+        <v>8880</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D26" s="4">
-        <v>45244.590543981481</v>
+        <v>45310.366331018522</v>
       </c>
       <c r="E26" s="4">
-        <v>45244.583333333336</v>
+        <v>45309.708333333336</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="3" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="L26" s="4">
-        <v>45238.623113425929</v>
-      </c>
-      <c r="M26" s="4">
-        <v>45244.566689814812</v>
-      </c>
+        <v>45307.464120370372</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="4">
-        <v>45244.590543981481</v>
+        <v>45310.366319444445</v>
       </c>
       <c r="O26" s="4">
-        <v>45244.590543981481</v>
+        <v>45310.366319444445</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -3086,63 +3446,60 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="3">
-        <v>5702</v>
-      </c>
-      <c r="AB26" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
-    </row>
-    <row r="27" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+    </row>
+    <row r="27" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>6284</v>
+        <v>5466</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>101</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="4">
-        <v>45266.645543981482</v>
+        <v>45252.578530092593</v>
       </c>
       <c r="E27" s="4">
-        <v>45275.708333333336</v>
+        <v>45238.666666666664</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="3" t="s">
         <v>102</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>103</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K27" s="2"/>
       <c r="L27" s="4">
-        <v>45266.645532407405</v>
+        <v>45229.40247685185</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="4">
-        <v>45266.645543981482</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>45252.578518518516</v>
+      </c>
+      <c r="O27" s="4">
+        <v>45252.578518518516</v>
+      </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -3151,65 +3508,62 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="3">
-        <v>6278</v>
-      </c>
-      <c r="AB27" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+    </row>
+    <row r="28" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>5858</v>
+        <v>9190</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D28" s="4">
-        <v>45260.61010416667</v>
+        <v>45341.365428240744</v>
       </c>
       <c r="E28" s="4">
-        <v>45260.958333333336</v>
+        <v>45324.708333333336</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="K28" s="2"/>
       <c r="L28" s="4">
-        <v>45243.447083333333</v>
+        <v>45317.381203703706</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="4">
-        <v>45260.61010416667</v>
+        <v>45341.365428240744</v>
       </c>
       <c r="O28" s="4">
-        <v>45260.61010416667</v>
+        <v>45341.365428240744</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -3218,63 +3572,64 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="3">
-        <v>5834</v>
-      </c>
-      <c r="AB28" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
-    </row>
-    <row r="29" spans="1:29" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+    </row>
+    <row r="29" spans="1:32" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>6272</v>
+        <v>8256</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D29" s="4">
-        <v>45271.461736111109</v>
+        <v>45296.397141203706</v>
       </c>
       <c r="E29" s="4">
-        <v>45272.416666666664</v>
+        <v>45296.708333333336</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="3" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L29" s="4">
-        <v>45266.483726851853</v>
+        <v>45294.569710648146</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="4">
-        <v>45271.459085648145</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>45296.397141203706</v>
+      </c>
+      <c r="O29" s="4">
+        <v>45296.397141203706</v>
+      </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -3283,67 +3638,68 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="3">
-        <v>6266</v>
-      </c>
-      <c r="AB29" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
-    </row>
-    <row r="30" spans="1:29" ht="179.4" x14ac:dyDescent="0.3">
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+    </row>
+    <row r="30" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>5904</v>
+        <v>5572</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D30" s="4">
-        <v>45245.401886574073</v>
+        <v>45240.655821759261</v>
       </c>
       <c r="E30" s="4">
-        <v>45259.958333333336</v>
+        <v>45240.666666666664</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="I30" s="3" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="L30" s="4">
-        <v>45245.387615740743</v>
+        <v>45236.424525462964</v>
       </c>
       <c r="M30" s="4">
-        <v>45245.398333333331</v>
+        <v>45240.655798611115</v>
       </c>
       <c r="N30" s="4">
-        <v>45245.401886574073</v>
+        <v>45240.655833333331</v>
       </c>
       <c r="O30" s="4">
-        <v>45245.401886574073</v>
+        <v>45240.655810185184</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -3352,65 +3708,64 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="3">
-        <v>5896</v>
-      </c>
-      <c r="AB30" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
-    </row>
-    <row r="31" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+    </row>
+    <row r="31" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>6350</v>
+        <v>5816</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D31" s="4">
-        <v>45267.591435185182</v>
+        <v>45244.66710648148</v>
       </c>
       <c r="E31" s="4">
-        <v>45288.708333333336</v>
+        <v>45244.666666666664</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="2"/>
       <c r="J31" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="L31" s="4">
-        <v>45267.466909722221</v>
+        <v>45243.348101851851</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="4">
-        <v>45267.591435185182</v>
+        <v>45244.66715277778</v>
       </c>
       <c r="O31" s="4">
-        <v>45267.591435185182</v>
+        <v>45244.667094907411</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
@@ -3419,67 +3774,64 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="3">
-        <v>6324</v>
-      </c>
-      <c r="AB31" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
-    </row>
-    <row r="32" spans="1:29" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+    </row>
+    <row r="32" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>5784</v>
+        <v>5752</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D32" s="4">
-        <v>45243.484039351853</v>
+        <v>45239.576678240737</v>
       </c>
       <c r="E32" s="4">
-        <v>45260.958333333336</v>
+        <v>45239.666666666664</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H32" s="2"/>
-      <c r="I32" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="I32" s="2"/>
       <c r="J32" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="L32" s="4">
-        <v>45240.64503472222</v>
+        <v>45239.568819444445</v>
       </c>
       <c r="M32" s="4">
-        <v>45243.469270833331</v>
+        <v>45239.569027777776</v>
       </c>
       <c r="N32" s="4">
-        <v>45243.484039351853</v>
+        <v>45239.600324074076</v>
       </c>
       <c r="O32" s="4">
-        <v>45243.484039351853</v>
+        <v>45239.575868055559</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
@@ -3488,67 +3840,64 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="3">
-        <v>5778</v>
-      </c>
-      <c r="AB32" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+    </row>
+    <row r="33" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>5576</v>
+        <v>7286</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D33" s="4">
-        <v>45240.656747685185</v>
+        <v>45281.577222222222</v>
       </c>
       <c r="E33" s="4">
-        <v>45240.666666666664</v>
+        <v>45281.708333333336</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>62</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H33" s="2"/>
       <c r="I33" s="3" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="L33" s="4">
-        <v>45236.425787037035</v>
+        <v>45279.606215277781</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="4">
-        <v>45240.656747685185</v>
+        <v>45281.577210648145</v>
       </c>
       <c r="O33" s="4">
-        <v>45240.656747685185</v>
+        <v>45281.577210648145</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
@@ -3560,56 +3909,59 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
-    </row>
-    <row r="34" spans="1:29" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+    </row>
+    <row r="34" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>5776</v>
+        <v>6238</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>117</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="4">
-        <v>45240.546736111108</v>
+        <v>45266.358298611114</v>
       </c>
       <c r="E34" s="4">
-        <v>45240.666666666664</v>
+        <v>45267.708333333336</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="I34" s="2"/>
       <c r="J34" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L34" s="4">
-        <v>45240.545590277776</v>
+        <v>45265.582650462966</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="4">
-        <v>45240.545752314814</v>
+        <v>45266.358298611114</v>
       </c>
       <c r="O34" s="4">
-        <v>45240.545752314814</v>
+        <v>45266.358298611114</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
@@ -3621,58 +3973,59 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
-    </row>
-    <row r="35" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+    </row>
+    <row r="35" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>5982</v>
+        <v>5582</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>119</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" s="4">
-        <v>45251.480231481481</v>
+        <v>45240.644803240742</v>
       </c>
       <c r="E35" s="4">
-        <v>45251.666666666664</v>
+        <v>45240.666666666664</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H35" s="2"/>
-      <c r="I35" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="I35" s="2"/>
       <c r="J35" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L35" s="4">
-        <v>45251.393159722225</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>45236.427824074075</v>
+      </c>
+      <c r="M35" s="4">
+        <v>45240.644259259258</v>
+      </c>
       <c r="N35" s="4">
-        <v>45251.480231481481</v>
+        <v>45240.644293981481</v>
       </c>
       <c r="O35" s="4">
-        <v>45251.480231481481</v>
+        <v>45240.644293981481</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
@@ -3684,56 +4037,57 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
-    </row>
-    <row r="36" spans="1:29" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+    </row>
+    <row r="36" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>5866</v>
+        <v>5586</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>121</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="4">
-        <v>45254.652106481481</v>
+        <v>45240.540451388886</v>
       </c>
       <c r="E36" s="4">
-        <v>45254.666666666664</v>
+        <v>45240.666666666664</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L36" s="4">
-        <v>45244.42863425926</v>
+        <v>45236.428333333337</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="4">
-        <v>45254.652106481481</v>
+        <v>45240.540034722224</v>
       </c>
       <c r="O36" s="4">
-        <v>45254.652106481481</v>
+        <v>45240.540034722224</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
@@ -3745,54 +4099,63 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+    </row>
+    <row r="37" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>6062</v>
+        <v>5894</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="D37" s="4">
-        <v>45266.666030092594</v>
+        <v>45253.410763888889</v>
       </c>
       <c r="E37" s="4">
-        <v>45273.708333333336</v>
+        <v>45252.999305555553</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="I37" s="3" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="L37" s="4">
-        <v>45257.358784722222</v>
+        <v>45245.376006944447</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="4">
-        <v>45266.665879629632</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>45253.410763888889</v>
+      </c>
+      <c r="O37" s="4">
+        <v>45253.410763888889</v>
+      </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
@@ -3801,59 +4164,66 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
+      <c r="AA37" s="3">
+        <v>5886</v>
+      </c>
+      <c r="AB37" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="AC37" s="2"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+    </row>
+    <row r="38" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>5480</v>
+        <v>10304</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="D38" s="4">
-        <v>45236.352812500001</v>
+        <v>45341.371423611112</v>
       </c>
       <c r="E38" s="4">
-        <v>45229.666666666664</v>
+        <v>45341.708333333336</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="I38" s="2"/>
       <c r="J38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="K38" s="2"/>
       <c r="L38" s="4">
-        <v>45229.648576388892</v>
-      </c>
-      <c r="M38" s="4">
-        <v>45229.648738425924</v>
-      </c>
+        <v>45341.370648148149</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="4">
-        <v>45236.352812500001</v>
+        <v>45341.371423611112</v>
       </c>
       <c r="O38" s="4">
-        <v>45236.352800925924</v>
+        <v>45341.371423611112</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
@@ -3865,60 +4235,61 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
-    </row>
-    <row r="39" spans="1:29" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+    </row>
+    <row r="39" spans="1:32" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>6068</v>
+        <v>8270</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D39" s="4">
-        <v>45258.57203703704</v>
+        <v>45295.550949074073</v>
       </c>
       <c r="E39" s="4">
-        <v>45258.708333333336</v>
+        <v>45295.583333333336</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H39" s="2"/>
       <c r="I39" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="L39" s="4">
-        <v>45257.51494212963</v>
+        <v>45295.378206018519</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="4">
-        <v>45258.57203703704</v>
+        <v>45295.550949074073</v>
       </c>
       <c r="O39" s="4">
-        <v>45258.57203703704</v>
+        <v>45295.550949074073</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
@@ -3928,66 +4299,67 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="3">
-        <v>6066</v>
+        <v>8266</v>
       </c>
       <c r="AB39" s="3" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="AC39" s="2"/>
-    </row>
-    <row r="40" spans="1:29" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+    </row>
+    <row r="40" spans="1:32" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>5494</v>
+        <v>9456</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D40" s="4">
-        <v>45236.351886574077</v>
+        <v>45323.391689814816</v>
       </c>
       <c r="E40" s="4">
-        <v>45232.666666666664</v>
+        <v>45323.708333333336</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H40" s="2"/>
       <c r="I40" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K40" s="2"/>
       <c r="L40" s="4">
-        <v>45230.990231481483</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>45322.366018518522</v>
+      </c>
+      <c r="M40" s="4">
+        <v>45322.397997685184</v>
+      </c>
       <c r="N40" s="4">
-        <v>45236.351875</v>
+        <v>45323.391689814816</v>
       </c>
       <c r="O40" s="4">
-        <v>45236.351875</v>
+        <v>45323.391689814816</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
@@ -3996,63 +4368,66 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
+      <c r="AA40" s="3">
+        <v>9424</v>
+      </c>
+      <c r="AB40" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="AC40" s="2"/>
-    </row>
-    <row r="41" spans="1:29" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+    </row>
+    <row r="41" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>5528</v>
+        <v>6418</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D41" s="4">
-        <v>45238.488055555557</v>
+        <v>45275.667557870373</v>
       </c>
       <c r="E41" s="4">
-        <v>45233.666666666664</v>
+        <v>45275.708333333336</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
       <c r="J41" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="L41" s="4">
-        <v>45232.624826388892</v>
+        <v>45271.581620370373</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="4">
-        <v>45238.488055555557</v>
+        <v>45275.667569444442</v>
       </c>
       <c r="O41" s="4">
-        <v>45238.488055555557</v>
+        <v>45275.667557870373</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
@@ -4064,60 +4439,59 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
-    </row>
-    <row r="42" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+    </row>
+    <row r="42" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>5668</v>
+        <v>6434</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>133</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" s="4">
-        <v>45239.381562499999</v>
+        <v>45274.58625</v>
       </c>
       <c r="E42" s="4">
-        <v>45240.958333333336</v>
+        <v>45275.708333333336</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I42" s="2"/>
       <c r="J42" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="L42" s="4">
-        <v>45238.521006944444</v>
-      </c>
-      <c r="M42" s="4">
-        <v>45238.551539351851</v>
-      </c>
+        <v>45272.381261574075</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="4">
-        <v>45239.381562499999</v>
+        <v>45274.58625</v>
       </c>
       <c r="O42" s="4">
-        <v>45239.381562499999</v>
+        <v>45274.58625</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
@@ -4126,67 +4500,58 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="3">
-        <v>5666</v>
-      </c>
-      <c r="AB42" s="3" t="s">
-        <v>132</v>
-      </c>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
-    </row>
-    <row r="43" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+    </row>
+    <row r="43" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>5616</v>
+        <v>10320</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>135</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" s="4">
-        <v>45238.623865740738</v>
+        <v>45341.386261574073</v>
       </c>
       <c r="E43" s="4">
-        <v>45238.666666666664</v>
+        <v>45345.708333333336</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>62</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="L43" s="4">
-        <v>45237.544305555559</v>
-      </c>
-      <c r="M43" s="4">
-        <v>45238.589108796295</v>
-      </c>
+        <v>45341.386250000003</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="4">
-        <v>45238.623865740738</v>
-      </c>
-      <c r="O43" s="4">
-        <v>45238.623865740738</v>
-      </c>
+        <v>45341.386261574073</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
@@ -4198,56 +4563,61 @@
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+    </row>
+    <row r="44" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>6226</v>
+        <v>6026</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="D44" s="4">
-        <v>45265.388067129628</v>
+        <v>45253.388599537036</v>
       </c>
       <c r="E44" s="4">
-        <v>45265.708333333336</v>
+        <v>45253.666666666664</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I44" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J44" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L44" s="4">
-        <v>45265.377754629626</v>
+        <v>45253.387754629628</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="4">
-        <v>45265.388067129628</v>
+        <v>45253.388599537036</v>
       </c>
       <c r="O44" s="4">
-        <v>45265.388067129628</v>
+        <v>45253.388599537036</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
@@ -4259,56 +4629,61 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+    </row>
+    <row r="45" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>5436</v>
+        <v>6262</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="D45" s="4">
-        <v>45236.352337962962</v>
+        <v>45268.406099537038</v>
       </c>
       <c r="E45" s="4">
-        <v>45226.666666666664</v>
+        <v>45267.583333333336</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="I45" s="2"/>
       <c r="J45" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="L45" s="4">
-        <v>45226.384328703702</v>
-      </c>
-      <c r="M45" s="4">
-        <v>45226.384560185186</v>
-      </c>
+        <v>45266.373240740744</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="4">
-        <v>45236.352349537039</v>
+        <v>45268.430648148147</v>
       </c>
       <c r="O45" s="4">
-        <v>45236.352337962962</v>
+        <v>45268.405949074076</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
@@ -4320,60 +4695,65 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+    </row>
+    <row r="46" spans="1:32" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>5434</v>
+        <v>7400</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D46" s="4">
-        <v>45232.58457175926</v>
+        <v>45287.625879629632</v>
       </c>
       <c r="E46" s="4">
-        <v>45226.666666666664</v>
+        <v>45294.333333333336</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H46" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="I46" s="3" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="L46" s="4">
-        <v>45225.682604166665</v>
+        <v>45287.314699074072</v>
       </c>
       <c r="M46" s="4">
-        <v>45225.682824074072</v>
+        <v>45287.437662037039</v>
       </c>
       <c r="N46" s="4">
-        <v>45232.584594907406</v>
+        <v>45287.647407407407</v>
       </c>
       <c r="O46" s="4">
-        <v>45232.584560185183</v>
+        <v>45287.464317129627</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
@@ -4385,58 +4765,57 @@
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
+    </row>
+    <row r="47" spans="1:32" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>5438</v>
+        <v>10308</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D47" s="4">
-        <v>45226.408252314817</v>
+        <v>45341.380115740743</v>
       </c>
       <c r="E47" s="4">
-        <v>45226.666666666664</v>
+        <v>45351.708333333336</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="3" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="K47" s="2"/>
       <c r="L47" s="4">
-        <v>45226.386759259258</v>
+        <v>45341.380104166667</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="4">
-        <v>45226.411516203705</v>
-      </c>
-      <c r="O47" s="4">
-        <v>45226.408252314817</v>
-      </c>
+        <v>45341.380115740743</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
@@ -4448,58 +4827,59 @@
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
-    </row>
-    <row r="48" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+    </row>
+    <row r="48" spans="1:32" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>5484</v>
+        <v>10206</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D48" s="4">
-        <v>45236.351435185185</v>
+        <v>45340.677384259259</v>
       </c>
       <c r="E48" s="4">
-        <v>45233.666666666664</v>
+        <v>45341.677083333336</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="L48" s="4">
-        <v>45230.396655092591</v>
+        <v>45337.369791666664</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="4">
-        <v>45236.351458333331</v>
-      </c>
-      <c r="O48" s="4">
-        <v>45236.351435185185</v>
-      </c>
+        <v>45341.377199074072</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
@@ -4508,59 +4888,68 @@
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
-      <c r="AB48" s="2"/>
+      <c r="AA48" s="3">
+        <v>10196</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="AC48" s="2"/>
-    </row>
-    <row r="49" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
+    </row>
+    <row r="49" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>5600</v>
+        <v>5588</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="D49" s="4">
-        <v>45238.48982638889</v>
+        <v>45238.624085648145</v>
       </c>
       <c r="E49" s="4">
-        <v>45237.666666666664</v>
+        <v>45238.583333333336</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+      <c r="I49" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="J49" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K49" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="L49" s="4">
-        <v>45236.43074074074</v>
-      </c>
-      <c r="M49" s="4">
-        <v>45237.546701388892</v>
-      </c>
+        <v>45236.428761574076</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="4">
-        <v>45238.489814814813</v>
+        <v>45238.624085648145</v>
       </c>
       <c r="O49" s="4">
-        <v>45238.489814814813</v>
+        <v>45238.624085648145</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
@@ -4572,58 +4961,63 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
-    </row>
-    <row r="50" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+    </row>
+    <row r="50" spans="1:32" ht="207" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>5956</v>
+        <v>5710</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="D50" s="4">
-        <v>45254.379849537036</v>
+        <v>45244.590543981481</v>
       </c>
       <c r="E50" s="4">
-        <v>45247.666666666664</v>
+        <v>45244.583333333336</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="L50" s="4">
-        <v>45247.558148148149</v>
+        <v>45238.623113425929</v>
       </c>
       <c r="M50" s="4">
-        <v>45247.558344907404</v>
+        <v>45244.566689814812</v>
       </c>
       <c r="N50" s="4">
-        <v>45253.846817129626</v>
+        <v>45244.590543981481</v>
       </c>
       <c r="O50" s="4">
-        <v>45253.846666666665</v>
+        <v>45244.590543981481</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
@@ -4632,59 +5026,68 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
-      <c r="AA50" s="2"/>
-      <c r="AB50" s="2"/>
+      <c r="AA50" s="3">
+        <v>5702</v>
+      </c>
+      <c r="AB50" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="AC50" s="2"/>
-    </row>
-    <row r="51" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
+    </row>
+    <row r="51" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>5514</v>
+        <v>6284</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="D51" s="4">
-        <v>45232.58792824074</v>
+        <v>45272.611342592594</v>
       </c>
       <c r="E51" s="4">
-        <v>45232.416666666664</v>
+        <v>45275.708333333336</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I51" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="H51" s="2"/>
+      <c r="I51" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="J51" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K51" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="L51" s="4">
-        <v>45232.375324074077</v>
-      </c>
-      <c r="M51" s="4">
-        <v>45232.375428240739</v>
-      </c>
+        <v>45266.645532407405</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="4">
-        <v>45232.58798611111</v>
+        <v>45272.611342592594</v>
       </c>
       <c r="O51" s="4">
-        <v>45232.58792824074</v>
+        <v>45272.611342592594</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
@@ -4693,59 +5096,68 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
+      <c r="AA51" s="3">
+        <v>6278</v>
+      </c>
+      <c r="AB51" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="AC51" s="2"/>
-    </row>
-    <row r="52" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>5872</v>
+        <v>5858</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="D52" s="4">
-        <v>45264.612835648149</v>
+        <v>45260.61010416667</v>
       </c>
       <c r="E52" s="4">
-        <v>45264.666666666664</v>
+        <v>45260.958333333336</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I52" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="J52" s="3" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="L52" s="4">
-        <v>45244.437974537039</v>
+        <v>45243.447083333333</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="4">
-        <v>45264.612835648149</v>
+        <v>45260.61010416667</v>
       </c>
       <c r="O52" s="4">
-        <v>45264.612835648149</v>
+        <v>45260.61010416667</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
@@ -4754,63 +5166,68 @@
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
-      <c r="AA52" s="2"/>
-      <c r="AB52" s="2"/>
+      <c r="AA52" s="3">
+        <v>5834</v>
+      </c>
+      <c r="AB52" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="AC52" s="2"/>
-    </row>
-    <row r="53" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
+    </row>
+    <row r="53" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>5442</v>
+        <v>6272</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="D53" s="4">
-        <v>45232.588067129633</v>
+        <v>45272.610590277778</v>
       </c>
       <c r="E53" s="4">
-        <v>45226.666666666664</v>
+        <v>45272.416666666664</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>143</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H53" s="2"/>
       <c r="I53" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K53" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="L53" s="4">
-        <v>45226.485949074071</v>
-      </c>
-      <c r="M53" s="4">
-        <v>45226.507372685184</v>
-      </c>
+        <v>45266.483726851853</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="4">
-        <v>45232.588090277779</v>
+        <v>45272.610590277778</v>
       </c>
       <c r="O53" s="4">
-        <v>45232.588067129633</v>
+        <v>45272.610590277778</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
@@ -4819,61 +5236,68 @@
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
-      <c r="AB53" s="2"/>
+      <c r="AA53" s="3">
+        <v>6266</v>
+      </c>
+      <c r="AB53" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="AC53" s="2"/>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
+    </row>
+    <row r="54" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>5470</v>
+        <v>8224</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="D54" s="4">
-        <v>45236.352569444447</v>
+        <v>45299.388564814813</v>
       </c>
       <c r="E54" s="4">
-        <v>45229.666666666664</v>
+        <v>45303.677083333336</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H54" s="2"/>
       <c r="I54" s="3" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K54" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="L54" s="4">
-        <v>45229.409432870372</v>
-      </c>
-      <c r="M54" s="4">
-        <v>45229.451192129629</v>
-      </c>
+        <v>45294.384351851855</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="4">
-        <v>45236.352569444447</v>
+        <v>45299.388553240744</v>
       </c>
       <c r="O54" s="4">
-        <v>45236.352569444447</v>
+        <v>45299.388553240744</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
@@ -4882,57 +5306,70 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
-      <c r="AB54" s="2"/>
+      <c r="AA54" s="3">
+        <v>8212</v>
+      </c>
+      <c r="AB54" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="AC54" s="2"/>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="2"/>
+    </row>
+    <row r="55" spans="1:32" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>5566</v>
+        <v>5904</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" s="4">
+        <v>45245.401886574073</v>
+      </c>
+      <c r="E55" s="4">
+        <v>45259.958333333336</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K55" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="4">
-        <v>45238.489050925928</v>
-      </c>
-      <c r="E55" s="4">
-        <v>45237.666666666664</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="L55" s="4">
-        <v>45236.41914351852</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>45245.387615740743</v>
+      </c>
+      <c r="M55" s="4">
+        <v>45245.398333333331</v>
+      </c>
       <c r="N55" s="4">
-        <v>45238.489085648151</v>
+        <v>45245.401886574073</v>
       </c>
       <c r="O55" s="4">
-        <v>45238.489050925928</v>
+        <v>45245.401886574073</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
@@ -4941,59 +5378,68 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
-      <c r="AB55" s="2"/>
+      <c r="AA55" s="3">
+        <v>5896</v>
+      </c>
+      <c r="AB55" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="AC55" s="2"/>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2"/>
+    </row>
+    <row r="56" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>5976</v>
+        <v>6350</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="D56" s="4">
-        <v>45253.844537037039</v>
+        <v>45267.591435185182</v>
       </c>
       <c r="E56" s="4">
-        <v>45250.666666666664</v>
+        <v>45288.708333333336</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I56" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="J56" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="L56" s="4">
-        <v>45250.593993055554</v>
+        <v>45267.466909722221</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="4">
-        <v>45253.844571759262</v>
+        <v>45267.591435185182</v>
       </c>
       <c r="O56" s="4">
-        <v>45253.844537037039</v>
+        <v>45267.591435185182</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
@@ -5002,59 +5448,68 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
-      <c r="AA56" s="2"/>
-      <c r="AB56" s="2"/>
+      <c r="AA56" s="3">
+        <v>6324</v>
+      </c>
+      <c r="AB56" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="AC56" s="2"/>
-    </row>
-    <row r="57" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="2"/>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>6098</v>
+        <v>7370</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="D57" s="4">
-        <v>45267.378935185188</v>
+        <v>45282.488217592596</v>
       </c>
       <c r="E57" s="4">
-        <v>45267.708333333336</v>
+        <v>45289.677083333336</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="3" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="L57" s="4">
-        <v>45258.37572916667</v>
+        <v>45282.460266203707</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="4">
-        <v>45268.430671296293</v>
+        <v>45282.488206018519</v>
       </c>
       <c r="O57" s="4">
-        <v>45267.378935185188</v>
+        <v>45282.488206018519</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
@@ -5063,63 +5518,70 @@
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
-      <c r="AA57" s="2"/>
-      <c r="AB57" s="2"/>
+      <c r="AA57" s="3">
+        <v>7348</v>
+      </c>
+      <c r="AB57" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="AC57" s="2"/>
-    </row>
-    <row r="58" spans="1:29" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="2"/>
+    </row>
+    <row r="58" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>5570</v>
+        <v>5784</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="D58" s="4">
-        <v>45238.489710648151</v>
+        <v>45243.484039351853</v>
       </c>
       <c r="E58" s="4">
-        <v>45237.666666666664</v>
+        <v>45260.958333333336</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I58" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="H58" s="2"/>
+      <c r="I58" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="J58" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="L58" s="4">
-        <v>45236.423032407409</v>
+        <v>45240.64503472222</v>
       </c>
       <c r="M58" s="4">
-        <v>45237.360682870371</v>
+        <v>45243.469270833331</v>
       </c>
       <c r="N58" s="4">
-        <v>45238.489710648151</v>
+        <v>45243.484039351853</v>
       </c>
       <c r="O58" s="4">
-        <v>45238.489710648151</v>
+        <v>45243.484039351853</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
@@ -5128,63 +5590,68 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
-      <c r="AA58" s="2"/>
-      <c r="AB58" s="2"/>
+      <c r="AA58" s="3">
+        <v>5778</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="AC58" s="2"/>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD58" s="2"/>
+      <c r="AE58" s="2"/>
+      <c r="AF58" s="2"/>
+    </row>
+    <row r="59" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>5818</v>
+        <v>7390</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="D59" s="4">
-        <v>45244.379641203705</v>
+        <v>45287.423252314817</v>
       </c>
       <c r="E59" s="4">
-        <v>45244.666666666664</v>
+        <v>45287.666666666664</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I59" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="H59" s="2"/>
+      <c r="I59" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="J59" s="3" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="L59" s="4">
-        <v>45243.348634259259</v>
-      </c>
-      <c r="M59" s="4">
-        <v>45244.379618055558</v>
-      </c>
+        <v>45286.634016203701</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="4">
-        <v>45244.446145833332</v>
+        <v>45287.423252314817</v>
       </c>
       <c r="O59" s="4">
-        <v>45244.379641203705</v>
+        <v>45287.423252314817</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
@@ -5193,59 +5660,70 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
-      <c r="AA59" s="2"/>
-      <c r="AB59" s="2"/>
+      <c r="AA59" s="3">
+        <v>7384</v>
+      </c>
+      <c r="AB59" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="AC59" s="2"/>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="2"/>
+    </row>
+    <row r="60" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>5980</v>
+        <v>5576</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D60" s="4">
-        <v>45254.422569444447</v>
+        <v>45240.656747685185</v>
       </c>
       <c r="E60" s="4">
-        <v>45251.666666666664</v>
+        <v>45240.666666666664</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I60" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="J60" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K60" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="L60" s="4">
-        <v>45251.344490740739</v>
+        <v>45236.425787037035</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="4">
-        <v>45254.422569444447</v>
+        <v>45240.656747685185</v>
       </c>
       <c r="O60" s="4">
-        <v>45254.422569444447</v>
+        <v>45240.656747685185</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
@@ -5257,58 +5735,59 @@
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="2"/>
+    </row>
+    <row r="61" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>6090</v>
+        <v>5776</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="D61" s="4">
-        <v>45258.407430555555</v>
+        <v>45240.546736111108</v>
       </c>
       <c r="E61" s="4">
-        <v>45258.708333333336</v>
+        <v>45240.666666666664</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>162</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L61" s="4">
-        <v>45258.342488425929</v>
+        <v>45240.545590277776</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="4">
-        <v>45258.407430555555</v>
+        <v>45240.545752314814</v>
       </c>
       <c r="O61" s="4">
-        <v>45258.407430555555</v>
+        <v>45240.545752314814</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
@@ -5320,58 +5799,61 @@
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="2"/>
+    </row>
+    <row r="62" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>6058</v>
+        <v>5982</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="D62" s="4">
-        <v>45268.541574074072</v>
+        <v>45251.480231481481</v>
       </c>
       <c r="E62" s="4">
-        <v>45268.708333333336</v>
+        <v>45251.666666666664</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="3" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="L62" s="4">
-        <v>45254.656701388885</v>
-      </c>
-      <c r="M62" s="4">
-        <v>45268.541550925926</v>
-      </c>
+        <v>45251.393159722225</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="4">
-        <v>45268.541574074072</v>
+        <v>45251.480231481481</v>
       </c>
       <c r="O62" s="4">
-        <v>45268.541574074072</v>
+        <v>45251.480231481481</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
@@ -5383,6 +5865,2775 @@
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
+      <c r="AD62" s="2"/>
+      <c r="AE62" s="2"/>
+      <c r="AF62" s="2"/>
+    </row>
+    <row r="63" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>5866</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="4">
+        <v>45254.652106481481</v>
+      </c>
+      <c r="E63" s="4">
+        <v>45254.666666666664</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L63" s="4">
+        <v>45244.42863425926</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="4">
+        <v>45254.652106481481</v>
+      </c>
+      <c r="O63" s="4">
+        <v>45254.652106481481</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R63" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2"/>
+      <c r="AE63" s="2"/>
+      <c r="AF63" s="2"/>
+    </row>
+    <row r="64" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>6062</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="4">
+        <v>45273.656631944446</v>
+      </c>
+      <c r="E64" s="4">
+        <v>45273.708333333336</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="2"/>
+      <c r="I64" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L64" s="4">
+        <v>45257.358784722222</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="4">
+        <v>45273.65662037037</v>
+      </c>
+      <c r="O64" s="4">
+        <v>45273.65662037037</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R64" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
+      <c r="AB64" s="2"/>
+      <c r="AC64" s="2"/>
+      <c r="AD64" s="2"/>
+      <c r="AE64" s="2"/>
+      <c r="AF64" s="2"/>
+    </row>
+    <row r="65" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>10306</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" s="4">
+        <v>45341.376817129632</v>
+      </c>
+      <c r="E65" s="4">
+        <v>45341.708333333336</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K65" s="2"/>
+      <c r="L65" s="4">
+        <v>45341.376238425924</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="4">
+        <v>45341.376817129632</v>
+      </c>
+      <c r="O65" s="4">
+        <v>45341.376817129632</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R65" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S65" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="2"/>
+      <c r="AC65" s="2"/>
+      <c r="AD65" s="2"/>
+      <c r="AE65" s="2"/>
+      <c r="AF65" s="2"/>
+    </row>
+    <row r="66" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>10312</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" s="4">
+        <v>45341.382557870369</v>
+      </c>
+      <c r="E66" s="4">
+        <v>45345.708333333336</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66" s="2"/>
+      <c r="I66" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K66" s="2"/>
+      <c r="L66" s="4">
+        <v>45341.382557870369</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="4">
+        <v>45341.382557870369</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
+      <c r="AB66" s="2"/>
+      <c r="AC66" s="2"/>
+      <c r="AD66" s="2"/>
+      <c r="AE66" s="2"/>
+      <c r="AF66" s="2"/>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>9100</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67" s="4">
+        <v>45310.586006944446</v>
+      </c>
+      <c r="E67" s="4">
+        <v>45310.708333333336</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67" s="2"/>
+      <c r="I67" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L67" s="4">
+        <v>45310.422303240739</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="4">
+        <v>45310.585995370369</v>
+      </c>
+      <c r="O67" s="4">
+        <v>45310.585995370369</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R67" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S67" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="2"/>
+      <c r="AD67" s="2"/>
+      <c r="AE67" s="2"/>
+      <c r="AF67" s="2"/>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>5480</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="4">
+        <v>45236.352812500001</v>
+      </c>
+      <c r="E68" s="4">
+        <v>45229.666666666664</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L68" s="4">
+        <v>45229.648576388892</v>
+      </c>
+      <c r="M68" s="4">
+        <v>45229.648738425924</v>
+      </c>
+      <c r="N68" s="4">
+        <v>45236.352812500001</v>
+      </c>
+      <c r="O68" s="4">
+        <v>45236.352800925924</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R68" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2"/>
+      <c r="AD68" s="2"/>
+      <c r="AE68" s="2"/>
+      <c r="AF68" s="2"/>
+    </row>
+    <row r="69" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>6068</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" s="4">
+        <v>45258.57203703704</v>
+      </c>
+      <c r="E69" s="4">
+        <v>45258.708333333336</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L69" s="4">
+        <v>45257.51494212963</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="4">
+        <v>45295.362858796296</v>
+      </c>
+      <c r="O69" s="4">
+        <v>45258.57203703704</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R69" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S69" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="3">
+        <v>6066</v>
+      </c>
+      <c r="AB69" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC69" s="2"/>
+      <c r="AD69" s="2"/>
+      <c r="AE69" s="2"/>
+      <c r="AF69" s="2"/>
+    </row>
+    <row r="70" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>7826</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D70" s="4">
+        <v>45289.486655092594</v>
+      </c>
+      <c r="E70" s="4">
+        <v>45289.708333333336</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H70" s="2"/>
+      <c r="I70" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L70" s="4">
+        <v>45288.425509259258</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="4">
+        <v>45289.486655092594</v>
+      </c>
+      <c r="O70" s="4">
+        <v>45289.486655092594</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R70" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="2"/>
+      <c r="AD70" s="2"/>
+      <c r="AE70" s="2"/>
+      <c r="AF70" s="2"/>
+    </row>
+    <row r="71" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>5494</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D71" s="4">
+        <v>45236.351886574077</v>
+      </c>
+      <c r="E71" s="4">
+        <v>45232.666666666664</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L71" s="4">
+        <v>45230.990231481483</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="4">
+        <v>45236.351875</v>
+      </c>
+      <c r="O71" s="4">
+        <v>45236.351875</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R71" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S71" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="2"/>
+      <c r="AC71" s="2"/>
+      <c r="AD71" s="2"/>
+      <c r="AE71" s="2"/>
+      <c r="AF71" s="2"/>
+    </row>
+    <row r="72" spans="1:32" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>5528</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D72" s="4">
+        <v>45238.488055555557</v>
+      </c>
+      <c r="E72" s="4">
+        <v>45233.666666666664</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L72" s="4">
+        <v>45232.624826388892</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="4">
+        <v>45238.488055555557</v>
+      </c>
+      <c r="O72" s="4">
+        <v>45238.488055555557</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
+      <c r="AB72" s="2"/>
+      <c r="AC72" s="2"/>
+      <c r="AD72" s="2"/>
+      <c r="AE72" s="2"/>
+      <c r="AF72" s="2"/>
+    </row>
+    <row r="73" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>8330</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D73" s="4">
+        <v>45301.659826388888</v>
+      </c>
+      <c r="E73" s="4">
+        <v>45303.708333333336</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="L73" s="4">
+        <v>45300.423032407409</v>
+      </c>
+      <c r="M73" s="4">
+        <v>45300.423043981478</v>
+      </c>
+      <c r="N73" s="4">
+        <v>45301.659826388888</v>
+      </c>
+      <c r="O73" s="4">
+        <v>45301.659826388888</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R73" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S73" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2"/>
+      <c r="AA73" s="2"/>
+      <c r="AB73" s="2"/>
+      <c r="AC73" s="2"/>
+      <c r="AD73" s="2"/>
+      <c r="AE73" s="2"/>
+      <c r="AF73" s="2"/>
+    </row>
+    <row r="74" spans="1:32" ht="69" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>8344</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D74" s="4">
+        <v>45309.654780092591</v>
+      </c>
+      <c r="E74" s="4">
+        <v>45307.708333333336</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="L74" s="4">
+        <v>45301.594282407408</v>
+      </c>
+      <c r="M74" s="4">
+        <v>45301.594293981485</v>
+      </c>
+      <c r="N74" s="4">
+        <v>45309.654768518521</v>
+      </c>
+      <c r="O74" s="4">
+        <v>45309.654768518521</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2"/>
+      <c r="AA74" s="2"/>
+      <c r="AB74" s="2"/>
+      <c r="AC74" s="2"/>
+      <c r="AD74" s="2"/>
+      <c r="AE74" s="2"/>
+      <c r="AF74" s="2"/>
+    </row>
+    <row r="75" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>5668</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D75" s="4">
+        <v>45239.381562499999</v>
+      </c>
+      <c r="E75" s="4">
+        <v>45240.958333333336</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H75" s="2"/>
+      <c r="I75" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L75" s="4">
+        <v>45238.521006944444</v>
+      </c>
+      <c r="M75" s="4">
+        <v>45238.551539351851</v>
+      </c>
+      <c r="N75" s="4">
+        <v>45239.381562499999</v>
+      </c>
+      <c r="O75" s="4">
+        <v>45239.381562499999</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R75" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S75" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="3">
+        <v>5666</v>
+      </c>
+      <c r="AB75" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC75" s="2"/>
+      <c r="AD75" s="2"/>
+      <c r="AE75" s="2"/>
+      <c r="AF75" s="2"/>
+    </row>
+    <row r="76" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>8282</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="4">
+        <v>45323.68246527778</v>
+      </c>
+      <c r="E76" s="4">
+        <v>45323.416666666664</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H76" s="2"/>
+      <c r="I76" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L76" s="4">
+        <v>45295.593842592592</v>
+      </c>
+      <c r="M76" s="4">
+        <v>45317.357511574075</v>
+      </c>
+      <c r="N76" s="4">
+        <v>45323.68246527778</v>
+      </c>
+      <c r="O76" s="4">
+        <v>45323.68246527778</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="3">
+        <v>8276</v>
+      </c>
+      <c r="AB76" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC76" s="2"/>
+      <c r="AD76" s="2"/>
+      <c r="AE76" s="2"/>
+      <c r="AF76" s="2"/>
+    </row>
+    <row r="77" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>8168</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" s="4">
+        <v>45294.353472222225</v>
+      </c>
+      <c r="E77" s="4">
+        <v>45289.708333333336</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H77" s="2"/>
+      <c r="I77" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L77" s="4">
+        <v>45289.495023148149</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="4">
+        <v>45294.353472222225</v>
+      </c>
+      <c r="O77" s="4">
+        <v>45294.353472222225</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R77" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S77" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2"/>
+      <c r="AA77" s="2"/>
+      <c r="AB77" s="2"/>
+      <c r="AC77" s="2"/>
+      <c r="AD77" s="2"/>
+      <c r="AE77" s="2"/>
+      <c r="AF77" s="2"/>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>8292</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D78" s="4">
+        <v>45301.367615740739</v>
+      </c>
+      <c r="E78" s="4">
+        <v>45296.708333333336</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H78" s="2"/>
+      <c r="I78" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L78" s="4">
+        <v>45296.411064814813</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="4">
+        <v>45301.367615740739</v>
+      </c>
+      <c r="O78" s="4">
+        <v>45301.367615740739</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R78" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
+      <c r="AD78" s="2"/>
+      <c r="AE78" s="2"/>
+      <c r="AF78" s="2"/>
+    </row>
+    <row r="79" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>9192</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D79" s="4">
+        <v>45324.477997685186</v>
+      </c>
+      <c r="E79" s="4">
+        <v>45324.708333333336</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H79" s="2"/>
+      <c r="I79" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K79" s="2"/>
+      <c r="L79" s="4">
+        <v>45317.382627314815</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="4">
+        <v>45324.477997685186</v>
+      </c>
+      <c r="O79" s="4">
+        <v>45324.477997685186</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R79" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S79" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="2"/>
+      <c r="AA79" s="2"/>
+      <c r="AB79" s="2"/>
+      <c r="AC79" s="2"/>
+      <c r="AD79" s="2"/>
+      <c r="AE79" s="2"/>
+      <c r="AF79" s="2"/>
+    </row>
+    <row r="80" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>5616</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D80" s="4">
+        <v>45238.623865740738</v>
+      </c>
+      <c r="E80" s="4">
+        <v>45238.666666666664</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I80" s="2"/>
+      <c r="J80" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L80" s="4">
+        <v>45237.544305555559</v>
+      </c>
+      <c r="M80" s="4">
+        <v>45238.589108796295</v>
+      </c>
+      <c r="N80" s="4">
+        <v>45238.623865740738</v>
+      </c>
+      <c r="O80" s="4">
+        <v>45238.623865740738</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R80" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S80" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2"/>
+      <c r="AA80" s="2"/>
+      <c r="AB80" s="2"/>
+      <c r="AC80" s="2"/>
+      <c r="AD80" s="2"/>
+      <c r="AE80" s="2"/>
+      <c r="AF80" s="2"/>
+    </row>
+    <row r="81" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>6414</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D81" s="4">
+        <v>45273.655694444446</v>
+      </c>
+      <c r="E81" s="4">
+        <v>45273.708333333336</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I81" s="2"/>
+      <c r="J81" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L81" s="4">
+        <v>45271.579606481479</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="4">
+        <v>45273.655682870369</v>
+      </c>
+      <c r="O81" s="4">
+        <v>45273.655682870369</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="2"/>
+      <c r="AA81" s="2"/>
+      <c r="AB81" s="2"/>
+      <c r="AC81" s="2"/>
+      <c r="AD81" s="2"/>
+      <c r="AE81" s="2"/>
+      <c r="AF81" s="2"/>
+    </row>
+    <row r="82" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>6226</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="4">
+        <v>45265.388067129628</v>
+      </c>
+      <c r="E82" s="4">
+        <v>45265.708333333336</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I82" s="2"/>
+      <c r="J82" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L82" s="4">
+        <v>45265.377754629626</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="4">
+        <v>45265.388067129628</v>
+      </c>
+      <c r="O82" s="4">
+        <v>45265.388067129628</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R82" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2"/>
+      <c r="AA82" s="2"/>
+      <c r="AB82" s="2"/>
+      <c r="AC82" s="2"/>
+      <c r="AD82" s="2"/>
+      <c r="AE82" s="2"/>
+      <c r="AF82" s="2"/>
+    </row>
+    <row r="83" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>10316</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="4">
+        <v>45341.385381944441</v>
+      </c>
+      <c r="E83" s="4">
+        <v>45345.708333333336</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L83" s="4">
+        <v>45341.385381944441</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="4">
+        <v>45341.385381944441</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="2"/>
+      <c r="AC83" s="2"/>
+      <c r="AD83" s="2"/>
+      <c r="AE83" s="2"/>
+      <c r="AF83" s="2"/>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>5436</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="4">
+        <v>45236.352337962962</v>
+      </c>
+      <c r="E84" s="4">
+        <v>45226.666666666664</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L84" s="4">
+        <v>45226.384328703702</v>
+      </c>
+      <c r="M84" s="4">
+        <v>45226.384560185186</v>
+      </c>
+      <c r="N84" s="4">
+        <v>45236.352349537039</v>
+      </c>
+      <c r="O84" s="4">
+        <v>45236.352337962962</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R84" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2"/>
+      <c r="AA84" s="2"/>
+      <c r="AB84" s="2"/>
+      <c r="AC84" s="2"/>
+      <c r="AD84" s="2"/>
+      <c r="AE84" s="2"/>
+      <c r="AF84" s="2"/>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>5434</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D85" s="4">
+        <v>45232.58457175926</v>
+      </c>
+      <c r="E85" s="4">
+        <v>45226.666666666664</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H85" s="2"/>
+      <c r="I85" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L85" s="4">
+        <v>45225.682604166665</v>
+      </c>
+      <c r="M85" s="4">
+        <v>45225.682824074072</v>
+      </c>
+      <c r="N85" s="4">
+        <v>45232.584594907406</v>
+      </c>
+      <c r="O85" s="4">
+        <v>45232.584560185183</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R85" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S85" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2"/>
+      <c r="AA85" s="2"/>
+      <c r="AB85" s="2"/>
+      <c r="AC85" s="2"/>
+      <c r="AD85" s="2"/>
+      <c r="AE85" s="2"/>
+      <c r="AF85" s="2"/>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>5438</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D86" s="4">
+        <v>45226.408252314817</v>
+      </c>
+      <c r="E86" s="4">
+        <v>45226.666666666664</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H86" s="2"/>
+      <c r="I86" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L86" s="4">
+        <v>45226.386759259258</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="4">
+        <v>45226.411516203705</v>
+      </c>
+      <c r="O86" s="4">
+        <v>45226.408252314817</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R86" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S86" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="2"/>
+      <c r="Z86" s="2"/>
+      <c r="AA86" s="2"/>
+      <c r="AB86" s="2"/>
+      <c r="AC86" s="2"/>
+      <c r="AD86" s="2"/>
+      <c r="AE86" s="2"/>
+      <c r="AF86" s="2"/>
+    </row>
+    <row r="87" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>5484</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="4">
+        <v>45236.351435185185</v>
+      </c>
+      <c r="E87" s="4">
+        <v>45233.666666666664</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H87" s="2"/>
+      <c r="I87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L87" s="4">
+        <v>45230.396655092591</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="4">
+        <v>45236.351458333331</v>
+      </c>
+      <c r="O87" s="4">
+        <v>45236.351435185185</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R87" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S87" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="2"/>
+      <c r="AA87" s="2"/>
+      <c r="AB87" s="2"/>
+      <c r="AC87" s="2"/>
+      <c r="AD87" s="2"/>
+      <c r="AE87" s="2"/>
+      <c r="AF87" s="2"/>
+    </row>
+    <row r="88" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>5600</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D88" s="4">
+        <v>45238.48982638889</v>
+      </c>
+      <c r="E88" s="4">
+        <v>45237.666666666664</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K88" s="2"/>
+      <c r="L88" s="4">
+        <v>45236.43074074074</v>
+      </c>
+      <c r="M88" s="4">
+        <v>45237.546701388892</v>
+      </c>
+      <c r="N88" s="4">
+        <v>45238.489814814813</v>
+      </c>
+      <c r="O88" s="4">
+        <v>45238.489814814813</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R88" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="2"/>
+      <c r="Z88" s="2"/>
+      <c r="AA88" s="2"/>
+      <c r="AB88" s="2"/>
+      <c r="AC88" s="2"/>
+      <c r="AD88" s="2"/>
+      <c r="AE88" s="2"/>
+      <c r="AF88" s="2"/>
+    </row>
+    <row r="89" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>5956</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="4">
+        <v>45254.379849537036</v>
+      </c>
+      <c r="E89" s="4">
+        <v>45247.666666666664</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H89" s="2"/>
+      <c r="I89" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L89" s="4">
+        <v>45247.558148148149</v>
+      </c>
+      <c r="M89" s="4">
+        <v>45247.558344907404</v>
+      </c>
+      <c r="N89" s="4">
+        <v>45253.846817129626</v>
+      </c>
+      <c r="O89" s="4">
+        <v>45253.846666666665</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2"/>
+      <c r="AA89" s="2"/>
+      <c r="AB89" s="2"/>
+      <c r="AC89" s="2"/>
+      <c r="AD89" s="2"/>
+      <c r="AE89" s="2"/>
+      <c r="AF89" s="2"/>
+    </row>
+    <row r="90" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>5514</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="4">
+        <v>45232.58792824074</v>
+      </c>
+      <c r="E90" s="4">
+        <v>45232.416666666664</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I90" s="2"/>
+      <c r="J90" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K90" s="2"/>
+      <c r="L90" s="4">
+        <v>45232.375324074077</v>
+      </c>
+      <c r="M90" s="4">
+        <v>45232.375428240739</v>
+      </c>
+      <c r="N90" s="4">
+        <v>45232.58798611111</v>
+      </c>
+      <c r="O90" s="4">
+        <v>45232.58792824074</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R90" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S90" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
+      <c r="X90" s="2"/>
+      <c r="Y90" s="2"/>
+      <c r="Z90" s="2"/>
+      <c r="AA90" s="2"/>
+      <c r="AB90" s="2"/>
+      <c r="AC90" s="2"/>
+      <c r="AD90" s="2"/>
+      <c r="AE90" s="2"/>
+      <c r="AF90" s="2"/>
+    </row>
+    <row r="91" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>5872</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="4">
+        <v>45264.612835648149</v>
+      </c>
+      <c r="E91" s="4">
+        <v>45264.666666666664</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I91" s="2"/>
+      <c r="J91" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L91" s="4">
+        <v>45244.437974537039</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="4">
+        <v>45264.612835648149</v>
+      </c>
+      <c r="O91" s="4">
+        <v>45264.612835648149</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="2"/>
+      <c r="X91" s="2"/>
+      <c r="Y91" s="2"/>
+      <c r="Z91" s="2"/>
+      <c r="AA91" s="2"/>
+      <c r="AB91" s="2"/>
+      <c r="AC91" s="2"/>
+      <c r="AD91" s="2"/>
+      <c r="AE91" s="2"/>
+      <c r="AF91" s="2"/>
+    </row>
+    <row r="92" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>5442</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D92" s="4">
+        <v>45232.588067129633</v>
+      </c>
+      <c r="E92" s="4">
+        <v>45226.666666666664</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K92" s="2"/>
+      <c r="L92" s="4">
+        <v>45226.485949074071</v>
+      </c>
+      <c r="M92" s="4">
+        <v>45226.507372685184</v>
+      </c>
+      <c r="N92" s="4">
+        <v>45232.588090277779</v>
+      </c>
+      <c r="O92" s="4">
+        <v>45232.588067129633</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R92" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="2"/>
+      <c r="Z92" s="2"/>
+      <c r="AA92" s="2"/>
+      <c r="AB92" s="2"/>
+      <c r="AC92" s="2"/>
+      <c r="AD92" s="2"/>
+      <c r="AE92" s="2"/>
+      <c r="AF92" s="2"/>
+    </row>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>5470</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="4">
+        <v>45236.352569444447</v>
+      </c>
+      <c r="E93" s="4">
+        <v>45229.666666666664</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K93" s="2"/>
+      <c r="L93" s="4">
+        <v>45229.409432870372</v>
+      </c>
+      <c r="M93" s="4">
+        <v>45229.451192129629</v>
+      </c>
+      <c r="N93" s="4">
+        <v>45236.352569444447</v>
+      </c>
+      <c r="O93" s="4">
+        <v>45236.352569444447</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R93" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S93" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
+      <c r="Z93" s="2"/>
+      <c r="AA93" s="2"/>
+      <c r="AB93" s="2"/>
+      <c r="AC93" s="2"/>
+      <c r="AD93" s="2"/>
+      <c r="AE93" s="2"/>
+      <c r="AF93" s="2"/>
+    </row>
+    <row r="94" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>5566</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="4">
+        <v>45238.489050925928</v>
+      </c>
+      <c r="E94" s="4">
+        <v>45237.666666666664</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L94" s="4">
+        <v>45236.41914351852</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="4">
+        <v>45238.489085648151</v>
+      </c>
+      <c r="O94" s="4">
+        <v>45238.489050925928</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="2"/>
+      <c r="X94" s="2"/>
+      <c r="Y94" s="2"/>
+      <c r="Z94" s="2"/>
+      <c r="AA94" s="2"/>
+      <c r="AB94" s="2"/>
+      <c r="AC94" s="2"/>
+      <c r="AD94" s="2"/>
+      <c r="AE94" s="2"/>
+      <c r="AF94" s="2"/>
+    </row>
+    <row r="95" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>8320</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D95" s="4">
+        <v>45300.408136574071</v>
+      </c>
+      <c r="E95" s="4">
+        <v>45299.708333333336</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K95" s="2"/>
+      <c r="L95" s="4">
+        <v>45299.542372685188</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="4">
+        <v>45300.408125000002</v>
+      </c>
+      <c r="O95" s="4">
+        <v>45300.408125000002</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R95" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S95" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="2"/>
+      <c r="X95" s="2"/>
+      <c r="Y95" s="2"/>
+      <c r="Z95" s="2"/>
+      <c r="AA95" s="2"/>
+      <c r="AB95" s="2"/>
+      <c r="AC95" s="2"/>
+      <c r="AD95" s="2"/>
+      <c r="AE95" s="2"/>
+      <c r="AF95" s="2"/>
+    </row>
+    <row r="96" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>5976</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="4">
+        <v>45253.844537037039</v>
+      </c>
+      <c r="E96" s="4">
+        <v>45250.666666666664</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I96" s="2"/>
+      <c r="J96" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L96" s="4">
+        <v>45250.593993055554</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="4">
+        <v>45253.844571759262</v>
+      </c>
+      <c r="O96" s="4">
+        <v>45253.844537037039</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R96" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S96" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
+      <c r="Z96" s="2"/>
+      <c r="AA96" s="2"/>
+      <c r="AB96" s="2"/>
+      <c r="AC96" s="2"/>
+      <c r="AD96" s="2"/>
+      <c r="AE96" s="2"/>
+      <c r="AF96" s="2"/>
+    </row>
+    <row r="97" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>6098</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="4">
+        <v>45267.378935185188</v>
+      </c>
+      <c r="E97" s="4">
+        <v>45267.708333333336</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H97" s="2"/>
+      <c r="I97" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L97" s="4">
+        <v>45258.37572916667</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="4">
+        <v>45268.430671296293</v>
+      </c>
+      <c r="O97" s="4">
+        <v>45267.378935185188</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R97" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S97" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
+      <c r="AA97" s="2"/>
+      <c r="AB97" s="2"/>
+      <c r="AC97" s="2"/>
+      <c r="AD97" s="2"/>
+      <c r="AE97" s="2"/>
+      <c r="AF97" s="2"/>
+    </row>
+    <row r="98" spans="1:32" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>8878</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D98" s="4">
+        <v>45307.600590277776</v>
+      </c>
+      <c r="E98" s="4">
+        <v>45309.708333333336</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L98" s="4">
+        <v>45307.462129629632</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="4">
+        <v>45307.600590277776</v>
+      </c>
+      <c r="O98" s="4">
+        <v>45307.600590277776</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R98" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S98" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
+      <c r="X98" s="2"/>
+      <c r="Y98" s="2"/>
+      <c r="Z98" s="2"/>
+      <c r="AA98" s="2"/>
+      <c r="AB98" s="2"/>
+      <c r="AC98" s="2"/>
+      <c r="AD98" s="2"/>
+      <c r="AE98" s="2"/>
+      <c r="AF98" s="2"/>
+    </row>
+    <row r="99" spans="1:32" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>8882</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D99" s="4">
+        <v>45310.364861111113</v>
+      </c>
+      <c r="E99" s="4">
+        <v>45309.708333333336</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H99" s="2"/>
+      <c r="I99" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L99" s="4">
+        <v>45307.466273148151</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" s="4">
+        <v>45310.364849537036</v>
+      </c>
+      <c r="O99" s="4">
+        <v>45310.364849537036</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R99" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S99" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
+      <c r="X99" s="2"/>
+      <c r="Y99" s="2"/>
+      <c r="Z99" s="2"/>
+      <c r="AA99" s="2"/>
+      <c r="AB99" s="2"/>
+      <c r="AC99" s="2"/>
+      <c r="AD99" s="2"/>
+      <c r="AE99" s="2"/>
+      <c r="AF99" s="2"/>
+    </row>
+    <row r="100" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>5570</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D100" s="4">
+        <v>45238.489710648151</v>
+      </c>
+      <c r="E100" s="4">
+        <v>45237.666666666664</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I100" s="2"/>
+      <c r="J100" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L100" s="4">
+        <v>45236.423032407409</v>
+      </c>
+      <c r="M100" s="4">
+        <v>45237.360682870371</v>
+      </c>
+      <c r="N100" s="4">
+        <v>45238.489710648151</v>
+      </c>
+      <c r="O100" s="4">
+        <v>45238.489710648151</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="2"/>
+      <c r="Y100" s="2"/>
+      <c r="Z100" s="2"/>
+      <c r="AA100" s="2"/>
+      <c r="AB100" s="2"/>
+      <c r="AC100" s="2"/>
+      <c r="AD100" s="2"/>
+      <c r="AE100" s="2"/>
+      <c r="AF100" s="2"/>
+    </row>
+    <row r="101" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>5818</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D101" s="4">
+        <v>45244.379641203705</v>
+      </c>
+      <c r="E101" s="4">
+        <v>45244.666666666664</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I101" s="2"/>
+      <c r="J101" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L101" s="4">
+        <v>45243.348634259259</v>
+      </c>
+      <c r="M101" s="4">
+        <v>45244.379618055558</v>
+      </c>
+      <c r="N101" s="4">
+        <v>45244.446145833332</v>
+      </c>
+      <c r="O101" s="4">
+        <v>45244.379641203705</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="2"/>
+      <c r="W101" s="2"/>
+      <c r="X101" s="2"/>
+      <c r="Y101" s="2"/>
+      <c r="Z101" s="2"/>
+      <c r="AA101" s="2"/>
+      <c r="AB101" s="2"/>
+      <c r="AC101" s="2"/>
+      <c r="AD101" s="2"/>
+      <c r="AE101" s="2"/>
+      <c r="AF101" s="2"/>
+    </row>
+    <row r="102" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>5980</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D102" s="4">
+        <v>45254.422569444447</v>
+      </c>
+      <c r="E102" s="4">
+        <v>45251.666666666664</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I102" s="2"/>
+      <c r="J102" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K102" s="2"/>
+      <c r="L102" s="4">
+        <v>45251.344490740739</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" s="4">
+        <v>45254.422569444447</v>
+      </c>
+      <c r="O102" s="4">
+        <v>45254.422569444447</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="2"/>
+      <c r="Y102" s="2"/>
+      <c r="Z102" s="2"/>
+      <c r="AA102" s="2"/>
+      <c r="AB102" s="2"/>
+      <c r="AC102" s="2"/>
+      <c r="AD102" s="2"/>
+      <c r="AE102" s="2"/>
+      <c r="AF102" s="2"/>
+    </row>
+    <row r="103" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>6090</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D103" s="4">
+        <v>45258.407430555555</v>
+      </c>
+      <c r="E103" s="4">
+        <v>45258.708333333336</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I103" s="2"/>
+      <c r="J103" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L103" s="4">
+        <v>45258.342488425929</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" s="4">
+        <v>45258.407430555555</v>
+      </c>
+      <c r="O103" s="4">
+        <v>45258.407430555555</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R103" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S103" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="2"/>
+      <c r="X103" s="2"/>
+      <c r="Y103" s="2"/>
+      <c r="Z103" s="2"/>
+      <c r="AA103" s="2"/>
+      <c r="AB103" s="2"/>
+      <c r="AC103" s="2"/>
+      <c r="AD103" s="2"/>
+      <c r="AE103" s="2"/>
+      <c r="AF103" s="2"/>
+    </row>
+    <row r="104" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>6058</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="4">
+        <v>45268.541574074072</v>
+      </c>
+      <c r="E104" s="4">
+        <v>45268.708333333336</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H104" s="2"/>
+      <c r="I104" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L104" s="4">
+        <v>45254.656701388885</v>
+      </c>
+      <c r="M104" s="4">
+        <v>45268.541550925926</v>
+      </c>
+      <c r="N104" s="4">
+        <v>45273.663321759261</v>
+      </c>
+      <c r="O104" s="4">
+        <v>45268.541574074072</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R104" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S104" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2"/>
+      <c r="V104" s="2"/>
+      <c r="W104" s="2"/>
+      <c r="X104" s="2"/>
+      <c r="Y104" s="2"/>
+      <c r="Z104" s="2"/>
+      <c r="AA104" s="2"/>
+      <c r="AB104" s="2"/>
+      <c r="AC104" s="2"/>
+      <c r="AD104" s="2"/>
+      <c r="AE104" s="2"/>
+      <c r="AF104" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tareas.xlsx
+++ b/tareas.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAAlvaradoR\Documents\GitHub\CHN_listado_tareas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCF281B0-D89F-4C6C-B680-40DC6923B782}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACB347FE-1673-4B33-B317-72D02FF7A5FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7524"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556"/>
   </bookViews>
   <sheets>
-    <sheet name="tasks (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="tasks (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="292">
   <si>
     <t>ID</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Creado por</t>
   </si>
   <si>
-    <t>Persona responsable</t>
+    <t>Responsable</t>
   </si>
   <si>
     <t>Participantes</t>
@@ -232,6 +232,15 @@
     <t>Pendiente</t>
   </si>
   <si>
+    <t>Segunda Entrevista (reporte de Devengamiento)</t>
+  </si>
+  <si>
+    <t>Entrevista con Luis Zamora sobre el reporte que genera de Devengamiento. </t>
+  </si>
+  <si>
+    <t>Erick Mendoza</t>
+  </si>
+  <si>
     <t>Seguimiento de proyectos de datos</t>
   </si>
   <si>
@@ -295,6 +304,12 @@
     <t>Reunión Proceso de mantenimiento y errores de base de datos de asesores de Gerencia Comercial</t>
   </si>
   <si>
+    <t>Redacción de requerimientos</t>
+  </si>
+  <si>
+    <t>Redactar requerimientos necesarios para automatizar de los reportes: devengamiento, productos y recuperación. </t>
+  </si>
+  <si>
     <t>Redacción de Informe EDA VHUR</t>
   </si>
   <si>
@@ -310,6 +325,21 @@
     <t>Realizar diagrama resumen del procedimiento FLU-GITD-003</t>
   </si>
   <si>
+    <t>Realizar Cronograma del Proyecto de Jurídico</t>
+  </si>
+  <si>
+    <t>Cronograma de desarrollo del proyecto de Confrontación Automática de Documentos Legales.</t>
+  </si>
+  <si>
+    <t>LLM Confrontador de Documentos Legales</t>
+  </si>
+  <si>
+    <t>QA a la interfaz y correciones (Frontend)</t>
+  </si>
+  <si>
+    <t>Realizar QA con ayuda de los project managers y realizar las correcciones necesarias.</t>
+  </si>
+  <si>
     <t>Pruebas Psicométrica</t>
   </si>
   <si>
@@ -343,12 +373,21 @@
     <t>Identificar proyectos a mediano, corto y largo plazo para la Oficina de Datos, en el caso particular de los datos del sistema de RRHH VHUR y Data Mart de la Captación de El Crédito.</t>
   </si>
   <si>
-    <t>Erick Mendoza</t>
-  </si>
-  <si>
     <t>Planificación del análisis exploratorio de la base de datos VHRU</t>
   </si>
   <si>
+    <t>Optimizar carga de datos</t>
+  </si>
+  <si>
+    <t>optimizar carga de datos</t>
+  </si>
+  <si>
+    <t>Javier Navarro, Erick Mendoza, Héctor González</t>
+  </si>
+  <si>
+    <t>Desarrollo coordinación de analítica de datos</t>
+  </si>
+  <si>
     <t>OCR Jurídico</t>
   </si>
   <si>
@@ -361,6 +400,12 @@
     <t>Se modificarán las plantillas de requerimientos tipo 005 junto con el anexo que suele acompañarlas. Además, se hará la plantilla para requerimientos dirigidos hacia nuestra gerencia.</t>
   </si>
   <si>
+    <t>Modificar carga de datos y modelo</t>
+  </si>
+  <si>
+    <t>Modificar carga de datos y modelo </t>
+  </si>
+  <si>
     <t>Mejoras y cambios en el tablero de Power BI</t>
   </si>
   <si>
@@ -517,6 +562,12 @@
     <t>Estimados, les comparto el ABC Financiero, favor leerlo. </t>
   </si>
   <si>
+    <t>Email: FACTURAS POR SERVICIOS TÉCNICOS O PROFESIONALES MARZO 2024</t>
+  </si>
+  <si>
+    <t>Realizar facturas como informes con fecha de emisión 26/03 así mismo en las descripciones colocar del 1 al 31 de marzo.  Recordar que la factura se debe de enviar por medio de correo electrónico a mi persona. ( solo la factura).  </t>
+  </si>
+  <si>
     <t>Email: CIRCULAR No. 15-2023 DEPARTAMENTO DE COMPRAS - GERENCIA ADMINISTRATIVA</t>
   </si>
   <si>
@@ -529,6 +580,18 @@
     <t>Es importante indicar que es una obligación y responsabilidad personal realizar esta gestión.</t>
   </si>
   <si>
+    <t>Email: CAPSULA MARZO 2024</t>
+  </si>
+  <si>
+    <t>Se les recuerda que deben de participar obligatoriamente en todas las capacitaciones a las que son convocados y dar estricto cumplimiento a lo indicado en la Circular Informativa 34-2022, que literalmente dice “Al ser convocado a alguna capacitación, su participación es obligatoria; sin embargo, si por algún imprevisto no puede asistir, deberá justificar su ausencia”. </t>
+  </si>
+  <si>
+    <t>Email: Capacitación E-learning "LA POLÍTICA ANTISOBORNO"</t>
+  </si>
+  <si>
+    <t>la capacitación E-learning "LA POLÍTICA ANTISOBORNO"  la misma es de carácter obligatorio para todo el personal. Link: https://capacitacioneschn.mayavirtual.net/course/view.php?id=151&amp;section=1</t>
+  </si>
+  <si>
     <t>Email: CAPACITACION CUMPLIMIENTO NOVIEMBRE 2023</t>
   </si>
   <si>
@@ -586,6 +649,24 @@
     <t>EDA de la base de datos VHUR</t>
   </si>
   <si>
+    <t>Diseño y desarrollo de la arquitectura del API</t>
+  </si>
+  <si>
+    <t>Utilizando FAST API se implementara la arquitectura diseñada para el proyecto.</t>
+  </si>
+  <si>
+    <t>Diseño de la interfaz</t>
+  </si>
+  <si>
+    <t>SS de los mockups</t>
+  </si>
+  <si>
+    <t>Diseño de Automatizaciones de la reporteria (3 reportes)</t>
+  </si>
+  <si>
+    <t>Luego de la parte de investigación se diseñaran automatizaciones para los reportes. </t>
+  </si>
+  <si>
     <t>Desarrollo de Interfaz Gráfica Fase Cédula Hipotecaria</t>
   </si>
   <si>
@@ -631,12 +712,24 @@
     <t>Luis Alvarado, Alexander Alvarado, Cristian Castañeda</t>
   </si>
   <si>
+    <t>Creación de presentación de resultados de Flujo de Datos en Seguros y Fianzas</t>
+  </si>
+  <si>
+    <t>Crear una presentación para mostrar los resultados de la fase 1 del proyecto de flujo de datos en la gerencia de Seguros y Fianzas. </t>
+  </si>
+  <si>
     <t>Creación de plantilla para reporte de análisis exploratorio</t>
   </si>
   <si>
     <t>Elaborar una plantilla para reporte de análisis exploratorio para una base de datos particular, con el enfoque principal de la expansión del Data Warehouse justificando con casos de uso de la data.</t>
   </si>
   <si>
+    <t>Creación de la interfaz</t>
+  </si>
+  <si>
+    <t>Desarrollo en python de la UI usando el framework PyQt6.</t>
+  </si>
+  <si>
     <t>Correo electrónico: RE: Alcances proyectos de seguros</t>
   </si>
   <si>
@@ -746,6 +839,12 @@
   </si>
   <si>
     <t>Se asistirá a una entrevista en Gerencia de Cartera para conocer el proceso de obtención de información. </t>
+  </si>
+  <si>
+    <t>Análisis y redacción de requerimientos Data Marts Seguros y Fianzas</t>
+  </si>
+  <si>
+    <t>Análisis de la necesidad de Data Marts de Seguros y Fianzas y redacción de requerimiento para su adición al DW bancario. </t>
   </si>
   <si>
     <t>Análisis individual de los objetos de la DB</t>
@@ -1679,7 +1778,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF104"/>
+  <dimension ref="A1:AF120"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1689,10 +1788,10 @@
     <col min="2" max="3" width="46.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="46.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.33203125" bestFit="1" customWidth="1"/>
@@ -2124,7 +2223,7 @@
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="4">
-        <v>45274.479039351849</v>
+        <v>45342.390902777777</v>
       </c>
       <c r="O6" s="4">
         <v>45274.479039351849</v>
@@ -2283,9 +2382,9 @@
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>5580</v>
+        <v>11332</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>70</v>
@@ -2294,43 +2393,39 @@
         <v>71</v>
       </c>
       <c r="D9" s="4">
-        <v>45265.575555555559</v>
+        <v>45363.58734953704</v>
       </c>
       <c r="E9" s="4">
-        <v>45239.666666666664</v>
+        <v>45363.708333333336</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="K9" s="2"/>
       <c r="L9" s="4">
-        <v>45236.426828703705</v>
+        <v>45363.585104166668</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="4">
-        <v>45265.575543981482</v>
+        <v>45363.58734953704</v>
       </c>
       <c r="O9" s="4">
-        <v>45265.575543981482</v>
+        <v>45363.58734953704</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>39</v>
@@ -2349,9 +2444,9 @@
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>5564</v>
+        <v>5580</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>73</v>
@@ -2360,10 +2455,10 @@
         <v>74</v>
       </c>
       <c r="D10" s="4">
-        <v>45238.488368055558</v>
+        <v>45265.575555555559</v>
       </c>
       <c r="E10" s="4">
-        <v>45236.666666666664</v>
+        <v>45239.666666666664</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>43</v>
@@ -2371,23 +2466,25 @@
       <c r="G10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="L10" s="4">
-        <v>45236.416967592595</v>
+        <v>45236.426828703705</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="4">
-        <v>45238.48841435185</v>
+        <v>45265.575543981482</v>
       </c>
       <c r="O10" s="4">
-        <v>45238.488368055558</v>
+        <v>45265.575543981482</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="3" t="s">
@@ -2415,7 +2512,7 @@
     </row>
     <row r="11" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>8334</v>
+        <v>5564</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>76</v>
@@ -2424,10 +2521,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="4">
-        <v>45308.596631944441</v>
+        <v>45238.488368055558</v>
       </c>
       <c r="E11" s="4">
-        <v>45308.708333333336</v>
+        <v>45236.666666666664</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>43</v>
@@ -2436,31 +2533,29 @@
         <v>35</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>78</v>
       </c>
       <c r="L11" s="4">
-        <v>45300.608368055553</v>
+        <v>45236.416967592595</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="4">
-        <v>45308.596631944441</v>
+        <v>45238.48841435185</v>
       </c>
       <c r="O11" s="4">
-        <v>45308.596631944441</v>
+        <v>45238.488368055558</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>39</v>
@@ -2479,19 +2574,21 @@
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>5868</v>
+        <v>8334</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="D12" s="4">
-        <v>45265.575648148151</v>
+        <v>45308.596631944441</v>
       </c>
       <c r="E12" s="4">
-        <v>45244.666666666664</v>
+        <v>45308.708333333336</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>43</v>
@@ -2499,34 +2596,32 @@
       <c r="G12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="J12" s="3" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="L12" s="4">
-        <v>45244.431018518517</v>
-      </c>
-      <c r="M12" s="4">
-        <v>45244.446331018517</v>
-      </c>
+        <v>45300.608368055553</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="4">
-        <v>45265.575648148151</v>
+        <v>45308.596631944441</v>
       </c>
       <c r="O12" s="4">
-        <v>45265.575648148151</v>
+        <v>45308.596631944441</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>39</v>
@@ -2545,55 +2640,57 @@
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
     </row>
-    <row r="13" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>6458</v>
+        <v>5868</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="4">
-        <v>45294.369340277779</v>
+        <v>45265.575648148151</v>
       </c>
       <c r="E13" s="4">
-        <v>45296.708333333336</v>
+        <v>45244.666666666664</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L13" s="4">
-        <v>45273.670613425929</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>45244.431018518517</v>
+      </c>
+      <c r="M13" s="4">
+        <v>45244.446331018517</v>
+      </c>
       <c r="N13" s="4">
-        <v>45294.369421296295</v>
+        <v>45265.575648148151</v>
       </c>
       <c r="O13" s="4">
-        <v>45294.369340277779</v>
+        <v>45265.575648148151</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -2611,41 +2708,43 @@
     </row>
     <row r="14" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>6420</v>
+        <v>6458</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="4">
-        <v>45273.448217592595</v>
+        <v>45294.369340277779</v>
       </c>
       <c r="E14" s="4">
-        <v>45272.708333333336</v>
+        <v>45296.708333333336</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="J14" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="L14" s="4">
-        <v>45271.582361111112</v>
+        <v>45273.670613425929</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="4">
-        <v>45274.479317129626</v>
+        <v>45294.369421296295</v>
       </c>
       <c r="O14" s="4">
-        <v>45273.448217592595</v>
+        <v>45294.369340277779</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="3" t="s">
@@ -2655,7 +2754,7 @@
         <v>47</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -2671,47 +2770,43 @@
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
     </row>
-    <row r="15" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>6376</v>
+        <v>6420</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="4">
-        <v>45294.369143518517</v>
+        <v>45273.448217592595</v>
       </c>
       <c r="E15" s="4">
-        <v>45296.708333333336</v>
+        <v>45272.708333333336</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="3" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="L15" s="4">
-        <v>45268.433125000003</v>
+        <v>45271.582361111112</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="4">
-        <v>45294.369432870371</v>
+        <v>45274.479317129626</v>
       </c>
       <c r="O15" s="4">
-        <v>45294.369143518517</v>
+        <v>45273.448217592595</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="3" t="s">
@@ -2721,7 +2816,7 @@
         <v>47</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -2737,9 +2832,9 @@
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
     </row>
-    <row r="16" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>6372</v>
+        <v>6376</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>88</v>
@@ -2748,20 +2843,20 @@
         <v>89</v>
       </c>
       <c r="D16" s="4">
-        <v>45294.369756944441</v>
+        <v>45294.369143518517</v>
       </c>
       <c r="E16" s="4">
         <v>45296.708333333336</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>37</v>
@@ -2770,14 +2865,14 @@
         <v>60</v>
       </c>
       <c r="L16" s="4">
-        <v>45268.431909722225</v>
+        <v>45268.433125000003</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="4">
-        <v>45294.369837962964</v>
+        <v>45294.369432870371</v>
       </c>
       <c r="O16" s="4">
-        <v>45294.369756944441</v>
+        <v>45294.369143518517</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="3" t="s">
@@ -2803,29 +2898,31 @@
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>6374</v>
+        <v>6372</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="D17" s="4">
-        <v>45294.36959490741</v>
+        <v>45294.369756944441</v>
       </c>
       <c r="E17" s="4">
         <v>45296.708333333336</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>37</v>
@@ -2834,14 +2931,14 @@
         <v>60</v>
       </c>
       <c r="L17" s="4">
-        <v>45268.432326388887</v>
+        <v>45268.431909722225</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="4">
-        <v>45294.369803240741</v>
+        <v>45294.369837962964</v>
       </c>
       <c r="O17" s="4">
-        <v>45294.36959490741</v>
+        <v>45294.369756944441</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="3" t="s">
@@ -2869,45 +2966,43 @@
     </row>
     <row r="18" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>7378</v>
+        <v>6374</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>92</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="4">
-        <v>45282.491365740738</v>
+        <v>45294.36959490741</v>
       </c>
       <c r="E18" s="4">
-        <v>45282.708333333336</v>
+        <v>45296.708333333336</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="3" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="L18" s="4">
-        <v>45282.489861111113</v>
+        <v>45268.432326388887</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="4">
-        <v>45282.491365740738</v>
+        <v>45294.369803240741</v>
       </c>
       <c r="O18" s="4">
-        <v>45282.491365740738</v>
+        <v>45294.36959490741</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="3" t="s">
@@ -2917,7 +3012,7 @@
         <v>47</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -2935,50 +3030,46 @@
     </row>
     <row r="19" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>6174</v>
+        <v>11336</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="D19" s="4">
-        <v>45265.575740740744</v>
+        <v>45363.587199074071</v>
       </c>
       <c r="E19" s="4">
-        <v>45261.708333333336</v>
+        <v>45370.708333333336</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" s="4">
-        <v>45260.683171296296</v>
+        <v>45363.587187500001</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="4">
-        <v>45295.362847222219</v>
-      </c>
-      <c r="O19" s="4">
-        <v>45265.575740740744</v>
-      </c>
+        <v>45363.587199074071</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>39</v>
@@ -2999,17 +3090,19 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>6172</v>
+        <v>7378</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="D20" s="4">
-        <v>45265.575972222221</v>
+        <v>45282.491365740738</v>
       </c>
       <c r="E20" s="4">
-        <v>45261.708333333336</v>
+        <v>45282.708333333336</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>43</v>
@@ -3017,32 +3110,32 @@
       <c r="G20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="J20" s="3" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="L20" s="4">
-        <v>45260.682442129626</v>
+        <v>45282.489861111113</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="4">
-        <v>45295.362835648149</v>
+        <v>45282.491365740738</v>
       </c>
       <c r="O20" s="4">
-        <v>45265.575972222221</v>
+        <v>45282.491365740738</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>39</v>
@@ -3063,17 +3156,17 @@
     </row>
     <row r="21" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>6014</v>
+        <v>6174</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4">
-        <v>45254.425011574072</v>
+        <v>45265.575740740744</v>
       </c>
       <c r="E21" s="4">
-        <v>45254.666666666664</v>
+        <v>45261.708333333336</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>43</v>
@@ -3081,23 +3174,25 @@
       <c r="G21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L21" s="4">
-        <v>45252.645983796298</v>
+        <v>45260.683171296296</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="4">
-        <v>45254.425000000003</v>
+        <v>45295.362847222219</v>
       </c>
       <c r="O21" s="4">
-        <v>45254.425000000003</v>
+        <v>45265.575740740744</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="3" t="s">
@@ -3123,45 +3218,45 @@
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
     </row>
-    <row r="22" spans="1:32" ht="69" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>9972</v>
+        <v>6172</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="4">
-        <v>45334.647673611114</v>
+        <v>45265.575972222221</v>
       </c>
       <c r="E22" s="4">
-        <v>45336.708333333336</v>
+        <v>45261.708333333336</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="L22" s="4">
-        <v>45334.338194444441</v>
+        <v>45260.682442129626</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="4">
-        <v>45334.647673611114</v>
+        <v>45295.362835648149</v>
       </c>
       <c r="O22" s="4">
-        <v>45334.647673611114</v>
+        <v>45265.575972222221</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="3" t="s">
@@ -3180,12 +3275,8 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="3">
-        <v>9964</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
@@ -3193,30 +3284,26 @@
     </row>
     <row r="23" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>5930</v>
+        <v>6014</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>99</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="4">
-        <v>45265.576365740744</v>
+        <v>45254.425011574072</v>
       </c>
       <c r="E23" s="4">
-        <v>45251.666666666664</v>
+        <v>45254.666666666664</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="I23" s="2"/>
       <c r="J23" s="3" t="s">
         <v>37</v>
       </c>
@@ -3224,14 +3311,14 @@
         <v>55</v>
       </c>
       <c r="L23" s="4">
-        <v>45245.561840277776</v>
+        <v>45252.645983796298</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="4">
-        <v>45265.57640046296</v>
+        <v>45254.425000000003</v>
       </c>
       <c r="O23" s="4">
-        <v>45265.576354166667</v>
+        <v>45254.425000000003</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="3" t="s">
@@ -3259,43 +3346,43 @@
     </row>
     <row r="24" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>5874</v>
+        <v>10966</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="D24" s="4">
-        <v>45253.844884259262</v>
+        <v>45356.564444444448</v>
       </c>
       <c r="E24" s="4">
-        <v>45252.666666666664</v>
+        <v>45356.708333333336</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="I24" s="2"/>
       <c r="J24" s="3" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="L24" s="4">
-        <v>45244.439479166664</v>
+        <v>45356.554652777777</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="4">
-        <v>45253.844884259262</v>
+        <v>45356.564467592594</v>
       </c>
       <c r="O24" s="4">
-        <v>45253.844884259262</v>
+        <v>45356.564444444448</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="3" t="s">
@@ -3323,52 +3410,48 @@
     </row>
     <row r="25" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>6056</v>
+        <v>11324</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D25" s="4">
-        <v>45265.583483796298</v>
+        <v>45363.579687500001</v>
       </c>
       <c r="E25" s="4">
-        <v>45254.708333333336</v>
+        <v>45373.708333333336</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="3" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="L25" s="4">
-        <v>45254.408912037034</v>
+        <v>45363.579687500001</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="4">
-        <v>45265.583483796298</v>
-      </c>
-      <c r="O25" s="4">
-        <v>45265.583483796298</v>
-      </c>
+        <v>45363.579687500001</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="S25" s="3" t="s">
         <v>39</v>
@@ -3387,54 +3470,52 @@
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
     </row>
-    <row r="26" spans="1:32" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" ht="69" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>8880</v>
+        <v>9972</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D26" s="4">
-        <v>45310.366331018522</v>
+        <v>45334.647673611114</v>
       </c>
       <c r="E26" s="4">
-        <v>45309.708333333336</v>
+        <v>45336.708333333336</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="I26" s="2"/>
       <c r="J26" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L26" s="4">
-        <v>45307.464120370372</v>
+        <v>45334.338194444441</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="4">
-        <v>45310.366319444445</v>
+        <v>45334.647673611114</v>
       </c>
       <c r="O26" s="4">
-        <v>45310.366319444445</v>
+        <v>45334.647673611114</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>39</v>
@@ -3446,8 +3527,12 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
+      <c r="AA26" s="3">
+        <v>9964</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -3455,41 +3540,45 @@
     </row>
     <row r="27" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>5466</v>
+        <v>5930</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="D27" s="4">
-        <v>45252.578530092593</v>
+        <v>45265.576365740744</v>
       </c>
       <c r="E27" s="4">
-        <v>45238.666666666664</v>
+        <v>45251.666666666664</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K27" s="2"/>
+      <c r="K27" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="L27" s="4">
-        <v>45229.40247685185</v>
+        <v>45245.561840277776</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="4">
-        <v>45252.578518518516</v>
+        <v>45265.57640046296</v>
       </c>
       <c r="O27" s="4">
-        <v>45252.578518518516</v>
+        <v>45265.576354166667</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="3" t="s">
@@ -3515,21 +3604,19 @@
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
     </row>
-    <row r="28" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>9190</v>
+        <v>5874</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>110</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="4">
-        <v>45341.365428240744</v>
+        <v>45253.844884259262</v>
       </c>
       <c r="E28" s="4">
-        <v>45324.708333333336</v>
+        <v>45252.666666666664</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>43</v>
@@ -3539,21 +3626,23 @@
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K28" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="L28" s="4">
-        <v>45317.381203703706</v>
+        <v>45244.439479166664</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="4">
-        <v>45341.365428240744</v>
+        <v>45253.844884259262</v>
       </c>
       <c r="O28" s="4">
-        <v>45341.365428240744</v>
+        <v>45253.844884259262</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="3" t="s">
@@ -3579,54 +3668,54 @@
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
     </row>
-    <row r="29" spans="1:32" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>8256</v>
+        <v>6056</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D29" s="4">
-        <v>45296.397141203706</v>
+        <v>45265.583483796298</v>
       </c>
       <c r="E29" s="4">
-        <v>45296.708333333336</v>
+        <v>45254.708333333336</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="3" t="s">
-        <v>107</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="2"/>
       <c r="J29" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L29" s="4">
-        <v>45294.569710648146</v>
+        <v>45254.408912037034</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="4">
-        <v>45296.397141203706</v>
+        <v>45265.583483796298</v>
       </c>
       <c r="O29" s="4">
-        <v>45296.397141203706</v>
+        <v>45265.583483796298</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>39</v>
@@ -3645,21 +3734,21 @@
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
     </row>
-    <row r="30" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>5572</v>
+        <v>8880</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D30" s="4">
-        <v>45240.655821759261</v>
+        <v>45310.366331018522</v>
       </c>
       <c r="E30" s="4">
-        <v>45240.666666666664</v>
+        <v>45309.708333333336</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>43</v>
@@ -3667,29 +3756,25 @@
       <c r="G30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="H30" s="2"/>
       <c r="I30" s="3" t="s">
         <v>72</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L30" s="4">
-        <v>45236.424525462964</v>
-      </c>
-      <c r="M30" s="4">
-        <v>45240.655798611115</v>
-      </c>
+        <v>45307.464120370372</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="4">
-        <v>45240.655833333331</v>
+        <v>45310.366319444445</v>
       </c>
       <c r="O30" s="4">
-        <v>45240.655810185184</v>
+        <v>45310.366319444445</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="3" t="s">
@@ -3717,19 +3802,17 @@
     </row>
     <row r="31" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>5816</v>
+        <v>5466</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>115</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" s="4">
-        <v>45244.66710648148</v>
+        <v>45252.578530092593</v>
       </c>
       <c r="E31" s="4">
-        <v>45244.666666666664</v>
+        <v>45238.666666666664</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>43</v>
@@ -3737,32 +3820,30 @@
       <c r="G31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="J31" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K31" s="2"/>
       <c r="L31" s="4">
-        <v>45243.348101851851</v>
+        <v>45229.40247685185</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="4">
-        <v>45244.66715277778</v>
+        <v>45252.578518518516</v>
       </c>
       <c r="O31" s="4">
-        <v>45244.667094907411</v>
+        <v>45252.578518518516</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>39</v>
@@ -3781,47 +3862,47 @@
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
     </row>
-    <row r="32" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>5752</v>
+        <v>10368</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D32" s="4">
-        <v>45239.576678240737</v>
+        <v>45357.685011574074</v>
       </c>
       <c r="E32" s="4">
-        <v>45239.666666666664</v>
+        <v>45357.708333333336</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="I32" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="J32" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L32" s="4">
-        <v>45239.568819444445</v>
-      </c>
-      <c r="M32" s="4">
-        <v>45239.569027777776</v>
-      </c>
+        <v>45342.394189814811</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="4">
-        <v>45239.600324074076</v>
+        <v>45358.599340277775</v>
       </c>
       <c r="O32" s="4">
-        <v>45239.575868055559</v>
+        <v>45357.685011574074</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="3" t="s">
@@ -3831,7 +3912,7 @@
         <v>47</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
@@ -3840,8 +3921,12 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
+      <c r="AA32" s="3">
+        <v>10366</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
@@ -3849,19 +3934,19 @@
     </row>
     <row r="33" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>7286</v>
+        <v>9190</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D33" s="4">
-        <v>45281.577222222222</v>
+        <v>45341.365428240744</v>
       </c>
       <c r="E33" s="4">
-        <v>45281.708333333336</v>
+        <v>45324.708333333336</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>43</v>
@@ -3871,23 +3956,21 @@
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="3" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="K33" s="2"/>
       <c r="L33" s="4">
-        <v>45279.606215277781</v>
+        <v>45317.381203703706</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="4">
-        <v>45281.577210648145</v>
+        <v>45341.365428240744</v>
       </c>
       <c r="O33" s="4">
-        <v>45281.577210648145</v>
+        <v>45341.365428240744</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="3" t="s">
@@ -3913,19 +3996,21 @@
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
     </row>
-    <row r="34" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>6238</v>
+        <v>8256</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="D34" s="4">
-        <v>45266.358298611114</v>
+        <v>45296.397141203706</v>
       </c>
       <c r="E34" s="4">
-        <v>45267.708333333336</v>
+        <v>45296.708333333336</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>43</v>
@@ -3933,25 +4018,25 @@
       <c r="G34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="J34" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L34" s="4">
-        <v>45265.582650462966</v>
+        <v>45294.569710648146</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="4">
-        <v>45266.358298611114</v>
+        <v>45296.397141203706</v>
       </c>
       <c r="O34" s="4">
-        <v>45266.358298611114</v>
+        <v>45296.397141203706</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="3" t="s">
@@ -3977,46 +4062,46 @@
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
     </row>
-    <row r="35" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>5582</v>
+        <v>10376</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="D35" s="4">
-        <v>45240.644803240742</v>
+        <v>45358.600046296298</v>
       </c>
       <c r="E35" s="4">
-        <v>45240.666666666664</v>
+        <v>45364.708333333336</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="I35" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="J35" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L35" s="4">
-        <v>45236.427824074075</v>
-      </c>
-      <c r="M35" s="4">
-        <v>45240.644259259258</v>
-      </c>
+        <v>45342.405590277776</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="4">
-        <v>45240.644293981481</v>
-      </c>
-      <c r="O35" s="4">
-        <v>45240.644293981481</v>
-      </c>
+        <v>45358.600046296298</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3" t="s">
         <v>39</v>
@@ -4025,7 +4110,7 @@
         <v>47</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
@@ -4034,23 +4119,29 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
+      <c r="AA35" s="3">
+        <v>10366</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
     </row>
-    <row r="36" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>5586</v>
+        <v>5572</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="D36" s="4">
-        <v>45240.540451388886</v>
+        <v>45240.655821759261</v>
       </c>
       <c r="E36" s="4">
         <v>45240.666666666664</v>
@@ -4061,8 +4152,12 @@
       <c r="G36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="H36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="J36" s="3" t="s">
         <v>59</v>
       </c>
@@ -4070,14 +4165,16 @@
         <v>55</v>
       </c>
       <c r="L36" s="4">
-        <v>45236.428333333337</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>45236.424525462964</v>
+      </c>
+      <c r="M36" s="4">
+        <v>45240.655798611115</v>
+      </c>
       <c r="N36" s="4">
-        <v>45240.540034722224</v>
+        <v>45240.655833333331</v>
       </c>
       <c r="O36" s="4">
-        <v>45240.540034722224</v>
+        <v>45240.655810185184</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="3" t="s">
@@ -4105,47 +4202,45 @@
     </row>
     <row r="37" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>5894</v>
+        <v>5816</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D37" s="4">
-        <v>45253.410763888889</v>
+        <v>45244.66710648148</v>
       </c>
       <c r="E37" s="4">
-        <v>45252.999305555553</v>
+        <v>45244.666666666664</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="I37" s="2"/>
       <c r="J37" s="3" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L37" s="4">
-        <v>45245.376006944447</v>
+        <v>45243.348101851851</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="4">
-        <v>45253.410763888889</v>
+        <v>45244.66715277778</v>
       </c>
       <c r="O37" s="4">
-        <v>45253.410763888889</v>
+        <v>45244.667094907411</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="3" t="s">
@@ -4164,32 +4259,28 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="3">
-        <v>5886</v>
-      </c>
-      <c r="AB37" s="3" t="s">
-        <v>124</v>
-      </c>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
     </row>
-    <row r="38" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>10304</v>
+        <v>5752</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D38" s="4">
-        <v>45341.371423611112</v>
+        <v>45239.576678240737</v>
       </c>
       <c r="E38" s="4">
-        <v>45341.708333333336</v>
+        <v>45239.666666666664</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>43</v>
@@ -4197,23 +4288,25 @@
       <c r="G38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="2"/>
+      <c r="K38" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="L38" s="4">
-        <v>45341.370648148149</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>45239.568819444445</v>
+      </c>
+      <c r="M38" s="4">
+        <v>45239.569027777776</v>
+      </c>
       <c r="N38" s="4">
-        <v>45341.371423611112</v>
+        <v>45239.600324074076</v>
       </c>
       <c r="O38" s="4">
-        <v>45341.371423611112</v>
+        <v>45239.575868055559</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="3" t="s">
@@ -4239,24 +4332,24 @@
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
     </row>
-    <row r="39" spans="1:32" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>8270</v>
+        <v>7286</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D39" s="4">
-        <v>45295.550949074073</v>
+        <v>45281.577222222222</v>
       </c>
       <c r="E39" s="4">
-        <v>45295.583333333336</v>
+        <v>45281.708333333336</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>35</v>
@@ -4266,20 +4359,20 @@
         <v>44</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="L39" s="4">
-        <v>45295.378206018519</v>
+        <v>45279.606215277781</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="4">
-        <v>45295.550949074073</v>
+        <v>45342.3908912037</v>
       </c>
       <c r="O39" s="4">
-        <v>45295.550949074073</v>
+        <v>45281.577210648145</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="3" t="s">
@@ -4289,7 +4382,7 @@
         <v>47</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
@@ -4298,58 +4391,52 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="3">
-        <v>8266</v>
-      </c>
-      <c r="AB39" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
     </row>
-    <row r="40" spans="1:32" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>9456</v>
+        <v>6238</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="3" t="s">
         <v>135</v>
       </c>
+      <c r="C40" s="2"/>
       <c r="D40" s="4">
-        <v>45323.391689814816</v>
+        <v>45266.358298611114</v>
       </c>
       <c r="E40" s="4">
-        <v>45323.708333333336</v>
+        <v>45267.708333333336</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="H40" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I40" s="2"/>
       <c r="J40" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K40" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="L40" s="4">
-        <v>45322.366018518522</v>
-      </c>
-      <c r="M40" s="4">
-        <v>45322.397997685184</v>
-      </c>
+        <v>45265.582650462966</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="4">
-        <v>45323.391689814816</v>
+        <v>45266.358298611114</v>
       </c>
       <c r="O40" s="4">
-        <v>45323.391689814816</v>
+        <v>45266.358298611114</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="3" t="s">
@@ -4359,7 +4446,7 @@
         <v>47</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
@@ -4368,32 +4455,26 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="3">
-        <v>9424</v>
-      </c>
-      <c r="AB40" s="3" t="s">
-        <v>134</v>
-      </c>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
     </row>
-    <row r="41" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>6418</v>
+        <v>5582</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>139</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" s="4">
-        <v>45275.667557870373</v>
+        <v>45240.644803240742</v>
       </c>
       <c r="E41" s="4">
-        <v>45275.708333333336</v>
+        <v>45240.666666666664</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>43</v>
@@ -4407,17 +4488,19 @@
         <v>59</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="L41" s="4">
-        <v>45271.581620370373</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>45236.427824074075</v>
+      </c>
+      <c r="M41" s="4">
+        <v>45240.644259259258</v>
+      </c>
       <c r="N41" s="4">
-        <v>45275.667569444442</v>
+        <v>45240.644293981481</v>
       </c>
       <c r="O41" s="4">
-        <v>45275.667557870373</v>
+        <v>45240.644293981481</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="3" t="s">
@@ -4443,29 +4526,27 @@
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
     </row>
-    <row r="42" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>6434</v>
+        <v>5586</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="4">
-        <v>45274.58625</v>
+        <v>45240.540451388886</v>
       </c>
       <c r="E42" s="4">
-        <v>45275.708333333336</v>
+        <v>45240.666666666664</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>141</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="3" t="s">
         <v>59</v>
@@ -4474,14 +4555,14 @@
         <v>55</v>
       </c>
       <c r="L42" s="4">
-        <v>45272.381261574075</v>
+        <v>45236.428333333337</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="4">
-        <v>45274.58625</v>
+        <v>45240.540034722224</v>
       </c>
       <c r="O42" s="4">
-        <v>45274.58625</v>
+        <v>45240.540034722224</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="3" t="s">
@@ -4507,42 +4588,50 @@
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
     </row>
-    <row r="43" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>10320</v>
+        <v>5894</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="D43" s="4">
-        <v>45341.386261574073</v>
+        <v>45253.410763888889</v>
       </c>
       <c r="E43" s="4">
-        <v>45345.708333333336</v>
+        <v>45252.999305555553</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="H43" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="J43" s="3" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="L43" s="4">
-        <v>45341.386250000003</v>
+        <v>45245.376006944447</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="4">
-        <v>45341.386261574073</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>45253.410763888889</v>
+      </c>
+      <c r="O43" s="4">
+        <v>45253.410763888889</v>
+      </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="3" t="s">
         <v>39</v>
@@ -4560,8 +4649,12 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="2"/>
+      <c r="AA43" s="3">
+        <v>5886</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
@@ -4569,45 +4662,43 @@
     </row>
     <row r="44" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>6026</v>
+        <v>10304</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D44" s="4">
-        <v>45253.388599537036</v>
+        <v>45341.371423611112</v>
       </c>
       <c r="E44" s="4">
-        <v>45253.666666666664</v>
+        <v>45341.708333333336</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="H44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44" s="2"/>
       <c r="J44" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="K44" s="2"/>
       <c r="L44" s="4">
-        <v>45253.387754629628</v>
+        <v>45341.370648148149</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="4">
-        <v>45253.388599537036</v>
+        <v>45341.371423611112</v>
       </c>
       <c r="O44" s="4">
-        <v>45253.388599537036</v>
+        <v>45341.371423611112</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="3" t="s">
@@ -4633,47 +4724,47 @@
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
     </row>
-    <row r="45" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" ht="138" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>6262</v>
+        <v>8270</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D45" s="4">
-        <v>45268.406099537038</v>
+        <v>45295.550949074073</v>
       </c>
       <c r="E45" s="4">
-        <v>45267.583333333336</v>
+        <v>45295.583333333336</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="G45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I45" s="2"/>
       <c r="J45" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="L45" s="4">
-        <v>45266.373240740744</v>
+        <v>45295.378206018519</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="4">
-        <v>45268.430648148147</v>
+        <v>45295.550949074073</v>
       </c>
       <c r="O45" s="4">
-        <v>45268.405949074076</v>
+        <v>45295.550949074073</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="3" t="s">
@@ -4692,58 +4783,58 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
-      <c r="AB45" s="2"/>
+      <c r="AA45" s="3">
+        <v>8266</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
     </row>
-    <row r="46" spans="1:32" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>7400</v>
+        <v>9456</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D46" s="4">
-        <v>45287.625879629632</v>
+        <v>45323.391689814816</v>
       </c>
       <c r="E46" s="4">
-        <v>45294.333333333336</v>
+        <v>45323.708333333336</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>151</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H46" s="2"/>
       <c r="I46" s="3" t="s">
         <v>152</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="K46" s="2"/>
       <c r="L46" s="4">
-        <v>45287.314699074072</v>
+        <v>45322.366018518522</v>
       </c>
       <c r="M46" s="4">
-        <v>45287.437662037039</v>
+        <v>45322.397997685184</v>
       </c>
       <c r="N46" s="4">
-        <v>45287.647407407407</v>
+        <v>45323.391689814816</v>
       </c>
       <c r="O46" s="4">
-        <v>45287.464317129627</v>
+        <v>45323.391689814816</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="3" t="s">
@@ -4753,7 +4844,7 @@
         <v>47</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
@@ -4762,51 +4853,57 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
-      <c r="AB46" s="2"/>
+      <c r="AA46" s="3">
+        <v>9424</v>
+      </c>
+      <c r="AB46" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
     </row>
-    <row r="47" spans="1:32" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>10308</v>
+        <v>6418</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="D47" s="4">
-        <v>45341.380115740743</v>
+        <v>45275.667557870373</v>
       </c>
       <c r="E47" s="4">
-        <v>45351.708333333336</v>
+        <v>45275.708333333336</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H47" s="2"/>
-      <c r="I47" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="I47" s="2"/>
       <c r="J47" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K47" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="L47" s="4">
-        <v>45341.380104166667</v>
+        <v>45271.581620370373</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="4">
-        <v>45341.380115740743</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>45275.667569444442</v>
+      </c>
+      <c r="O47" s="4">
+        <v>45275.667557870373</v>
+      </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="3" t="s">
         <v>39</v>
@@ -4831,46 +4928,46 @@
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
     </row>
-    <row r="48" spans="1:32" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>10206</v>
+        <v>6434</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="4">
+        <v>45274.58625</v>
+      </c>
+      <c r="E48" s="4">
+        <v>45275.708333333336</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D48" s="4">
-        <v>45340.677384259259</v>
-      </c>
-      <c r="E48" s="4">
-        <v>45341.677083333336</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="I48" s="2"/>
       <c r="J48" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L48" s="4">
-        <v>45337.369791666664</v>
+        <v>45272.381261574075</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="4">
-        <v>45341.377199074072</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>45274.58625</v>
+      </c>
+      <c r="O48" s="4">
+        <v>45274.58625</v>
+      </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="3" t="s">
         <v>39</v>
@@ -4888,58 +4985,52 @@
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
-      <c r="AA48" s="3">
-        <v>10196</v>
-      </c>
-      <c r="AB48" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
     </row>
-    <row r="49" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>5588</v>
+        <v>10320</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" s="4">
-        <v>45238.624085648145</v>
+        <v>45355.482881944445</v>
       </c>
       <c r="E49" s="4">
-        <v>45238.583333333336</v>
+        <v>45352.708333333336</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="3" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="L49" s="4">
-        <v>45236.428761574076</v>
+        <v>45341.386250000003</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="4">
-        <v>45238.624085648145</v>
+        <v>45355.482881944445</v>
       </c>
       <c r="O49" s="4">
-        <v>45238.624085648145</v>
+        <v>45355.482881944445</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="3" t="s">
@@ -4965,49 +5056,47 @@
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
     </row>
-    <row r="50" spans="1:32" ht="207" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>5710</v>
+        <v>6026</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="D50" s="4">
-        <v>45244.590543981481</v>
+        <v>45253.388599537036</v>
       </c>
       <c r="E50" s="4">
-        <v>45244.583333333336</v>
+        <v>45253.666666666664</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L50" s="4">
-        <v>45238.623113425929</v>
-      </c>
-      <c r="M50" s="4">
-        <v>45244.566689814812</v>
-      </c>
+        <v>45253.387754629628</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="4">
-        <v>45244.590543981481</v>
+        <v>45253.388599537036</v>
       </c>
       <c r="O50" s="4">
-        <v>45244.590543981481</v>
+        <v>45253.388599537036</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="3" t="s">
@@ -5026,12 +5115,8 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
-      <c r="AA50" s="3">
-        <v>5702</v>
-      </c>
-      <c r="AB50" s="3" t="s">
-        <v>159</v>
-      </c>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
@@ -5039,55 +5124,55 @@
     </row>
     <row r="51" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>6284</v>
+        <v>6262</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="4">
+        <v>45268.406099537038</v>
+      </c>
+      <c r="E51" s="4">
+        <v>45267.583333333336</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D51" s="4">
-        <v>45272.611342592594</v>
-      </c>
-      <c r="E51" s="4">
-        <v>45275.708333333336</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H51" s="2"/>
-      <c r="I51" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="I51" s="2"/>
       <c r="J51" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="L51" s="4">
-        <v>45266.645532407405</v>
+        <v>45266.373240740744</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="4">
-        <v>45272.611342592594</v>
+        <v>45268.430648148147</v>
       </c>
       <c r="O51" s="4">
-        <v>45272.611342592594</v>
+        <v>45268.405949074076</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
@@ -5096,20 +5181,16 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
-      <c r="AA51" s="3">
-        <v>6278</v>
-      </c>
-      <c r="AB51" s="3" t="s">
-        <v>161</v>
-      </c>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:32" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>5858</v>
+        <v>7400</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>163</v>
@@ -5118,43 +5199,47 @@
         <v>164</v>
       </c>
       <c r="D52" s="4">
-        <v>45260.61010416667</v>
+        <v>45287.625879629632</v>
       </c>
       <c r="E52" s="4">
-        <v>45260.958333333336</v>
+        <v>45294.333333333336</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H52" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="I52" s="3" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="L52" s="4">
-        <v>45243.447083333333</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>45287.314699074072</v>
+      </c>
+      <c r="M52" s="4">
+        <v>45287.437662037039</v>
+      </c>
       <c r="N52" s="4">
-        <v>45260.61010416667</v>
+        <v>45287.647407407407</v>
       </c>
       <c r="O52" s="4">
-        <v>45260.61010416667</v>
+        <v>45287.464317129627</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>39</v>
@@ -5166,58 +5251,52 @@
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
-      <c r="AA52" s="3">
-        <v>5834</v>
-      </c>
-      <c r="AB52" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
     </row>
-    <row r="53" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:32" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>6272</v>
+        <v>10308</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D53" s="4">
-        <v>45272.610590277778</v>
+        <v>45355.48238425926</v>
       </c>
       <c r="E53" s="4">
-        <v>45272.416666666664</v>
+        <v>45351.708333333336</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="K53" s="2"/>
       <c r="L53" s="4">
-        <v>45266.483726851853</v>
+        <v>45341.380104166667</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="4">
-        <v>45272.610590277778</v>
+        <v>45355.48238425926</v>
       </c>
       <c r="O53" s="4">
-        <v>45272.610590277778</v>
+        <v>45355.48238425926</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="3" t="s">
@@ -5236,32 +5315,28 @@
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
-      <c r="AA53" s="3">
-        <v>6266</v>
-      </c>
-      <c r="AB53" s="3" t="s">
-        <v>165</v>
-      </c>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
     </row>
-    <row r="54" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:32" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>8224</v>
+        <v>10206</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D54" s="4">
-        <v>45299.388564814813</v>
+        <v>45341.659895833334</v>
       </c>
       <c r="E54" s="4">
-        <v>45303.677083333336</v>
+        <v>45341.677083333336</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>34</v>
@@ -5271,7 +5346,7 @@
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="3" t="s">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>37</v>
@@ -5280,21 +5355,21 @@
         <v>38</v>
       </c>
       <c r="L54" s="4">
-        <v>45294.384351851855</v>
+        <v>45337.369791666664</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="4">
-        <v>45299.388553240744</v>
+        <v>45341.659895833334</v>
       </c>
       <c r="O54" s="4">
-        <v>45299.388553240744</v>
+        <v>45341.659895833334</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>39</v>
@@ -5307,66 +5382,64 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
       <c r="AA54" s="3">
-        <v>8212</v>
+        <v>10196</v>
       </c>
       <c r="AB54" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
     </row>
-    <row r="55" spans="1:32" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>5904</v>
+        <v>5588</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="D55" s="4">
-        <v>45245.401886574073</v>
+        <v>45238.624085648145</v>
       </c>
       <c r="E55" s="4">
-        <v>45259.958333333336</v>
+        <v>45238.583333333336</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="3" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="L55" s="4">
-        <v>45245.387615740743</v>
-      </c>
-      <c r="M55" s="4">
-        <v>45245.398333333331</v>
-      </c>
+        <v>45236.428761574076</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="4">
-        <v>45245.401886574073</v>
+        <v>45238.624085648145</v>
       </c>
       <c r="O55" s="4">
-        <v>45245.401886574073</v>
+        <v>45238.624085648145</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="S55" s="3" t="s">
         <v>39</v>
@@ -5378,32 +5451,28 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
-      <c r="AA55" s="3">
-        <v>5896</v>
-      </c>
-      <c r="AB55" s="3" t="s">
-        <v>169</v>
-      </c>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
     </row>
-    <row r="56" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:32" ht="207" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>6350</v>
+        <v>5710</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D56" s="4">
-        <v>45267.591435185182</v>
+        <v>45244.590543981481</v>
       </c>
       <c r="E56" s="4">
-        <v>45288.708333333336</v>
+        <v>45244.583333333336</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>34</v>
@@ -5413,30 +5482,32 @@
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="3" t="s">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="L56" s="4">
-        <v>45267.466909722221</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>45238.623113425929</v>
+      </c>
+      <c r="M56" s="4">
+        <v>45244.566689814812</v>
+      </c>
       <c r="N56" s="4">
-        <v>45267.591435185182</v>
+        <v>45244.590543981481</v>
       </c>
       <c r="O56" s="4">
-        <v>45267.591435185182</v>
+        <v>45244.590543981481</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="S56" s="3" t="s">
         <v>39</v>
@@ -5449,31 +5520,31 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
       <c r="AA56" s="3">
-        <v>6324</v>
+        <v>5702</v>
       </c>
       <c r="AB56" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>7370</v>
+        <v>6284</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D57" s="4">
-        <v>45282.488217592596</v>
+        <v>45272.611342592594</v>
       </c>
       <c r="E57" s="4">
-        <v>45289.677083333336</v>
+        <v>45275.708333333336</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>34</v>
@@ -5483,23 +5554,23 @@
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="3" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="L57" s="4">
-        <v>45282.460266203707</v>
+        <v>45266.645532407405</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="4">
-        <v>45282.488206018519</v>
+        <v>45272.611342592594</v>
       </c>
       <c r="O57" s="4">
-        <v>45282.488206018519</v>
+        <v>45272.611342592594</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="3" t="s">
@@ -5519,28 +5590,28 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
       <c r="AA57" s="3">
-        <v>7348</v>
+        <v>6278</v>
       </c>
       <c r="AB57" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
     </row>
-    <row r="58" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>5784</v>
+        <v>5858</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D58" s="4">
-        <v>45243.484039351853</v>
+        <v>45260.61010416667</v>
       </c>
       <c r="E58" s="4">
         <v>45260.958333333336</v>
@@ -5553,25 +5624,23 @@
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="3" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="L58" s="4">
-        <v>45240.64503472222</v>
-      </c>
-      <c r="M58" s="4">
-        <v>45243.469270833331</v>
-      </c>
+        <v>45243.447083333333</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="4">
-        <v>45243.484039351853</v>
+        <v>45260.61010416667</v>
       </c>
       <c r="O58" s="4">
-        <v>45243.484039351853</v>
+        <v>45260.61010416667</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="3" t="s">
@@ -5591,31 +5660,31 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
       <c r="AA58" s="3">
-        <v>5778</v>
+        <v>5834</v>
       </c>
       <c r="AB58" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
     </row>
-    <row r="59" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:32" ht="69" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>7390</v>
+        <v>10956</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D59" s="4">
-        <v>45287.423252314817</v>
+        <v>45363.41673611111</v>
       </c>
       <c r="E59" s="4">
-        <v>45287.666666666664</v>
+        <v>45364.416666666664</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>34</v>
@@ -5625,30 +5694,28 @@
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="4">
-        <v>45286.634016203701</v>
+        <v>45356.457326388889</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="4">
-        <v>45287.423252314817</v>
-      </c>
-      <c r="O59" s="4">
-        <v>45287.423252314817</v>
-      </c>
+        <v>45356.457326388889</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>39</v>
@@ -5661,59 +5728,57 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
       <c r="AA59" s="3">
-        <v>7384</v>
+        <v>10932</v>
       </c>
       <c r="AB59" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
     </row>
-    <row r="60" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:32" ht="69" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>5576</v>
+        <v>10958</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="4">
-        <v>45240.656747685185</v>
+        <v>45356.467638888891</v>
       </c>
       <c r="E60" s="4">
-        <v>45240.666666666664</v>
+        <v>45364.416666666664</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="H60" s="2"/>
       <c r="I60" s="3" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L60" s="4">
-        <v>45236.425787037035</v>
+        <v>45356.457326388889</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="4">
-        <v>45240.656747685185</v>
+        <v>45356.467638888891</v>
       </c>
       <c r="O60" s="4">
-        <v>45240.656747685185</v>
+        <v>45356.467638888891</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="3" t="s">
@@ -5732,8 +5797,12 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
-      <c r="AA60" s="2"/>
-      <c r="AB60" s="2"/>
+      <c r="AA60" s="3">
+        <v>10934</v>
+      </c>
+      <c r="AB60" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
@@ -5741,43 +5810,45 @@
     </row>
     <row r="61" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>5776</v>
+        <v>6272</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="4">
-        <v>45240.546736111108</v>
+        <v>45272.610590277778</v>
       </c>
       <c r="E61" s="4">
-        <v>45240.666666666664</v>
+        <v>45272.416666666664</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+      <c r="I61" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="J61" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L61" s="4">
-        <v>45240.545590277776</v>
+        <v>45266.483726851853</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="4">
-        <v>45240.545752314814</v>
+        <v>45272.610590277778</v>
       </c>
       <c r="O61" s="4">
-        <v>45240.545752314814</v>
+        <v>45272.610590277778</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="3" t="s">
@@ -5796,54 +5867,58 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
-      <c r="AA61" s="2"/>
-      <c r="AB61" s="2"/>
+      <c r="AA61" s="3">
+        <v>6266</v>
+      </c>
+      <c r="AB61" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
     </row>
-    <row r="62" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>5982</v>
+        <v>8224</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="4">
-        <v>45251.480231481481</v>
+        <v>45299.388564814813</v>
       </c>
       <c r="E62" s="4">
-        <v>45251.666666666664</v>
+        <v>45303.677083333336</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="3" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L62" s="4">
-        <v>45251.393159722225</v>
+        <v>45294.384351851855</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="4">
-        <v>45251.480231481481</v>
+        <v>45299.388553240744</v>
       </c>
       <c r="O62" s="4">
-        <v>45251.480231481481</v>
+        <v>45299.388553240744</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" s="3" t="s">
@@ -5862,59 +5937,65 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
-      <c r="AA62" s="2"/>
-      <c r="AB62" s="2"/>
+      <c r="AA62" s="3">
+        <v>8212</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
     </row>
-    <row r="63" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:32" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>5866</v>
+        <v>11254</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="4">
-        <v>45254.652106481481</v>
+        <v>45362.654664351852</v>
       </c>
       <c r="E63" s="4">
-        <v>45254.666666666664</v>
+        <v>45377.677083333336</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
+      <c r="I63" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="J63" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="L63" s="4">
-        <v>45244.42863425926</v>
+        <v>45362.521111111113</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="4">
-        <v>45254.652106481481</v>
+        <v>45362.654652777775</v>
       </c>
       <c r="O63" s="4">
-        <v>45254.652106481481</v>
+        <v>45362.654652777775</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S63" s="3" t="s">
         <v>39</v>
@@ -5926,59 +6007,63 @@
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
-      <c r="AA63" s="2"/>
-      <c r="AB63" s="2"/>
+      <c r="AA63" s="3">
+        <v>11222</v>
+      </c>
+      <c r="AB63" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
     </row>
-    <row r="64" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:32" ht="69" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>6062</v>
+        <v>11010</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="D64" s="4">
-        <v>45273.656631944446</v>
+        <v>45362.3746875</v>
       </c>
       <c r="E64" s="4">
-        <v>45273.708333333336</v>
+        <v>45373.677083333336</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H64" s="2"/>
-      <c r="I64" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="I64" s="2"/>
       <c r="J64" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="L64" s="4">
-        <v>45257.358784722222</v>
+        <v>45358.35015046296</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="4">
-        <v>45273.65662037037</v>
+        <v>45362.374675925923</v>
       </c>
       <c r="O64" s="4">
-        <v>45273.65662037037</v>
+        <v>45362.374675925923</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S64" s="3" t="s">
         <v>39</v>
@@ -5990,57 +6075,67 @@
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
-      <c r="AA64" s="2"/>
-      <c r="AB64" s="2"/>
+      <c r="AA64" s="3">
+        <v>11006</v>
+      </c>
+      <c r="AB64" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
       <c r="AF64" s="2"/>
     </row>
-    <row r="65" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:32" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>10306</v>
+        <v>5904</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="4">
-        <v>45341.376817129632</v>
+        <v>45245.401886574073</v>
       </c>
       <c r="E65" s="4">
-        <v>45341.708333333336</v>
+        <v>45259.958333333336</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
+      <c r="I65" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="J65" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K65" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="L65" s="4">
-        <v>45341.376238425924</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>45245.387615740743</v>
+      </c>
+      <c r="M65" s="4">
+        <v>45245.398333333331</v>
+      </c>
       <c r="N65" s="4">
-        <v>45341.376817129632</v>
+        <v>45245.401886574073</v>
       </c>
       <c r="O65" s="4">
-        <v>45341.376817129632</v>
+        <v>45245.401886574073</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S65" s="3" t="s">
         <v>39</v>
@@ -6052,8 +6147,12 @@
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
-      <c r="AA65" s="2"/>
-      <c r="AB65" s="2"/>
+      <c r="AA65" s="3">
+        <v>5896</v>
+      </c>
+      <c r="AB65" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
@@ -6061,48 +6160,52 @@
     </row>
     <row r="66" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
-        <v>10312</v>
+        <v>6350</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D66" s="4">
-        <v>45341.382557870369</v>
+        <v>45267.591435185182</v>
       </c>
       <c r="E66" s="4">
-        <v>45345.708333333336</v>
+        <v>45288.708333333336</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="3" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K66" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="L66" s="4">
-        <v>45341.382557870369</v>
+        <v>45267.466909722221</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="4">
-        <v>45341.382557870369</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>45267.591435185182</v>
+      </c>
+      <c r="O66" s="4">
+        <v>45267.591435185182</v>
+      </c>
       <c r="P66" s="2"/>
       <c r="Q66" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>39</v>
@@ -6114,8 +6217,12 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
-      <c r="AA66" s="2"/>
-      <c r="AB66" s="2"/>
+      <c r="AA66" s="3">
+        <v>6324</v>
+      </c>
+      <c r="AB66" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
@@ -6123,55 +6230,55 @@
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
-        <v>9100</v>
+        <v>7370</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D67" s="4">
-        <v>45310.586006944446</v>
+        <v>45282.488217592596</v>
       </c>
       <c r="E67" s="4">
-        <v>45310.708333333336</v>
+        <v>45289.677083333336</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="3" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="L67" s="4">
-        <v>45310.422303240739</v>
+        <v>45282.460266203707</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="4">
-        <v>45310.585995370369</v>
+        <v>45282.488206018519</v>
       </c>
       <c r="O67" s="4">
-        <v>45310.585995370369</v>
+        <v>45282.488206018519</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
@@ -6180,52 +6287,60 @@
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
-      <c r="AA67" s="2"/>
-      <c r="AB67" s="2"/>
+      <c r="AA67" s="3">
+        <v>7348</v>
+      </c>
+      <c r="AB67" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="AC67" s="2"/>
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
       <c r="AF67" s="2"/>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
-        <v>5480</v>
+        <v>5784</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="D68" s="4">
-        <v>45236.352812500001</v>
+        <v>45243.484039351853</v>
       </c>
       <c r="E68" s="4">
-        <v>45229.666666666664</v>
+        <v>45260.958333333336</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
+      <c r="I68" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="J68" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="L68" s="4">
-        <v>45229.648576388892</v>
+        <v>45240.64503472222</v>
       </c>
       <c r="M68" s="4">
-        <v>45229.648738425924</v>
+        <v>45243.469270833331</v>
       </c>
       <c r="N68" s="4">
-        <v>45236.352812500001</v>
+        <v>45243.484039351853</v>
       </c>
       <c r="O68" s="4">
-        <v>45236.352800925924</v>
+        <v>45243.484039351853</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" s="3" t="s">
@@ -6244,63 +6359,65 @@
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
-      <c r="AA68" s="2"/>
-      <c r="AB68" s="2"/>
+      <c r="AA68" s="3">
+        <v>5778</v>
+      </c>
+      <c r="AB68" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
     </row>
-    <row r="69" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
-        <v>6068</v>
+        <v>7390</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D69" s="4">
-        <v>45258.57203703704</v>
+        <v>45287.423252314817</v>
       </c>
       <c r="E69" s="4">
-        <v>45258.708333333336</v>
+        <v>45287.666666666664</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H69" s="2"/>
       <c r="I69" s="3" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="L69" s="4">
-        <v>45257.51494212963</v>
+        <v>45286.634016203701</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="4">
-        <v>45295.362858796296</v>
+        <v>45287.423252314817</v>
       </c>
       <c r="O69" s="4">
-        <v>45258.57203703704</v>
+        <v>45287.423252314817</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S69" s="3" t="s">
         <v>39</v>
@@ -6313,31 +6430,31 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
       <c r="AA69" s="3">
-        <v>6066</v>
+        <v>7384</v>
       </c>
       <c r="AB69" s="3" t="s">
-        <v>65</v>
+        <v>198</v>
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
       <c r="AF69" s="2"/>
     </row>
-    <row r="70" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
-        <v>7826</v>
+        <v>5576</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D70" s="4">
-        <v>45289.486655092594</v>
+        <v>45240.656747685185</v>
       </c>
       <c r="E70" s="4">
-        <v>45289.708333333336</v>
+        <v>45240.666666666664</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>43</v>
@@ -6345,25 +6462,27 @@
       <c r="G70" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H70" s="2"/>
+      <c r="H70" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="I70" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>59</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="L70" s="4">
-        <v>45288.425509259258</v>
+        <v>45236.425787037035</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="4">
-        <v>45289.486655092594</v>
+        <v>45240.656747685185</v>
       </c>
       <c r="O70" s="4">
-        <v>45289.486655092594</v>
+        <v>45240.656747685185</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" s="3" t="s">
@@ -6391,54 +6510,50 @@
     </row>
     <row r="71" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
-        <v>5494</v>
+        <v>5776</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D71" s="4">
-        <v>45236.351886574077</v>
+        <v>45240.546736111108</v>
       </c>
       <c r="E71" s="4">
-        <v>45232.666666666664</v>
+        <v>45240.666666666664</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>202</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
       <c r="J71" s="3" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L71" s="4">
-        <v>45230.990231481483</v>
+        <v>45240.545590277776</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="4">
-        <v>45236.351875</v>
+        <v>45240.545752314814</v>
       </c>
       <c r="O71" s="4">
-        <v>45236.351875</v>
+        <v>45240.545752314814</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="S71" s="3" t="s">
         <v>39</v>
@@ -6457,21 +6572,21 @@
       <c r="AE71" s="2"/>
       <c r="AF71" s="2"/>
     </row>
-    <row r="72" spans="1:32" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
-        <v>5528</v>
+        <v>5982</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="4">
-        <v>45238.488055555557</v>
+        <v>45251.480231481481</v>
       </c>
       <c r="E72" s="4">
-        <v>45233.666666666664</v>
+        <v>45251.666666666664</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>43</v>
@@ -6479,34 +6594,32 @@
       <c r="G72" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="H72" s="2"/>
       <c r="I72" s="3" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L72" s="4">
-        <v>45232.624826388892</v>
+        <v>45251.393159722225</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="4">
-        <v>45238.488055555557</v>
+        <v>45251.480231481481</v>
       </c>
       <c r="O72" s="4">
-        <v>45238.488055555557</v>
+        <v>45251.480231481481</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>39</v>
@@ -6527,49 +6640,43 @@
     </row>
     <row r="73" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
-        <v>8330</v>
+        <v>5866</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D73" s="4">
-        <v>45301.659826388888</v>
+        <v>45254.652106481481</v>
       </c>
       <c r="E73" s="4">
-        <v>45303.708333333336</v>
+        <v>45254.666666666664</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H73" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I73" s="3" t="s">
-        <v>208</v>
-      </c>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
       <c r="J73" s="3" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="L73" s="4">
-        <v>45300.423032407409</v>
-      </c>
-      <c r="M73" s="4">
-        <v>45300.423043981478</v>
-      </c>
+        <v>45244.42863425926</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="4">
-        <v>45301.659826388888</v>
+        <v>45254.652106481481</v>
       </c>
       <c r="O73" s="4">
-        <v>45301.659826388888</v>
+        <v>45254.652106481481</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" s="3" t="s">
@@ -6595,51 +6702,45 @@
       <c r="AE73" s="2"/>
       <c r="AF73" s="2"/>
     </row>
-    <row r="74" spans="1:32" ht="69" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
-        <v>8344</v>
+        <v>6062</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>210</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" s="4">
-        <v>45309.654780092591</v>
+        <v>45273.656631944446</v>
       </c>
       <c r="E74" s="4">
-        <v>45307.708333333336</v>
+        <v>45273.708333333336</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H74" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="H74" s="2"/>
       <c r="I74" s="3" t="s">
-        <v>208</v>
+        <v>44</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="L74" s="4">
-        <v>45301.594282407408</v>
-      </c>
-      <c r="M74" s="4">
-        <v>45301.594293981485</v>
-      </c>
+        <v>45257.358784722222</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="4">
-        <v>45309.654768518521</v>
+        <v>45273.65662037037</v>
       </c>
       <c r="O74" s="4">
-        <v>45309.654768518521</v>
+        <v>45273.65662037037</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" s="3" t="s">
@@ -6667,48 +6768,42 @@
     </row>
     <row r="75" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
-        <v>5668</v>
+        <v>11326</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D75" s="4">
-        <v>45239.381562499999</v>
+        <v>45363.580451388887</v>
       </c>
       <c r="E75" s="4">
-        <v>45240.958333333336</v>
+        <v>45373.708333333336</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H75" s="2"/>
-      <c r="I75" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="I75" s="2"/>
       <c r="J75" s="3" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="L75" s="4">
-        <v>45238.521006944444</v>
-      </c>
-      <c r="M75" s="4">
-        <v>45238.551539351851</v>
-      </c>
+        <v>45363.580451388887</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="4">
-        <v>45239.381562499999</v>
-      </c>
-      <c r="O75" s="4">
-        <v>45239.381562499999</v>
-      </c>
+        <v>45363.580451388887</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="3" t="s">
         <v>39</v>
@@ -6726,59 +6821,51 @@
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
-      <c r="AA75" s="3">
-        <v>5666</v>
-      </c>
-      <c r="AB75" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
       <c r="AC75" s="2"/>
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
     </row>
-    <row r="76" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
-        <v>8282</v>
+        <v>11320</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="D76" s="4">
-        <v>45323.68246527778</v>
+        <v>45363.577719907407</v>
       </c>
       <c r="E76" s="4">
-        <v>45323.416666666664</v>
+        <v>45366.708333333336</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H76" s="2"/>
-      <c r="I76" s="3" t="s">
-        <v>214</v>
-      </c>
+      <c r="I76" s="2"/>
       <c r="J76" s="3" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="L76" s="4">
-        <v>45295.593842592592</v>
-      </c>
-      <c r="M76" s="4">
-        <v>45317.357511574075</v>
-      </c>
+        <v>45363.577708333331</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="4">
-        <v>45323.68246527778</v>
-      </c>
-      <c r="O76" s="4">
-        <v>45323.68246527778</v>
-      </c>
+        <v>45363.577719907407</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="3" t="s">
         <v>39</v>
@@ -6796,12 +6883,8 @@
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
-      <c r="AA76" s="3">
-        <v>8276</v>
-      </c>
-      <c r="AB76" s="3" t="s">
-        <v>213</v>
-      </c>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="2"/>
       <c r="AC76" s="2"/>
       <c r="AD76" s="2"/>
       <c r="AE76" s="2"/>
@@ -6809,46 +6892,40 @@
     </row>
     <row r="77" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
-        <v>8168</v>
+        <v>11334</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D77" s="4">
-        <v>45294.353472222225</v>
+        <v>45363.586122685185</v>
       </c>
       <c r="E77" s="4">
-        <v>45289.708333333336</v>
+        <v>45370.708333333336</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H77" s="2"/>
-      <c r="I77" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="I77" s="2"/>
       <c r="J77" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="K77" s="2"/>
       <c r="L77" s="4">
-        <v>45289.495023148149</v>
+        <v>45363.586122685185</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="4">
-        <v>45294.353472222225</v>
-      </c>
-      <c r="O77" s="4">
-        <v>45294.353472222225</v>
-      </c>
+        <v>45363.586122685185</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="3" t="s">
         <v>39</v>
@@ -6873,47 +6950,43 @@
       <c r="AE77" s="2"/>
       <c r="AF77" s="2"/>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
-        <v>8292</v>
+        <v>10306</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>215</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D78" s="4">
-        <v>45301.367615740739</v>
+        <v>45341.558078703703</v>
       </c>
       <c r="E78" s="4">
-        <v>45296.708333333336</v>
+        <v>45341.708333333336</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H78" s="2"/>
-      <c r="I78" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="I78" s="2"/>
       <c r="J78" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K78" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="K78" s="2"/>
       <c r="L78" s="4">
-        <v>45296.411064814813</v>
+        <v>45341.376238425924</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="4">
-        <v>45301.367615740739</v>
+        <v>45341.558078703703</v>
       </c>
       <c r="O78" s="4">
-        <v>45301.367615740739</v>
+        <v>45341.558078703703</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" s="3" t="s">
@@ -6941,44 +7014,42 @@
     </row>
     <row r="79" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
-        <v>9192</v>
+        <v>10312</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="D79" s="4">
-        <v>45324.477997685186</v>
+        <v>45359.708483796298</v>
       </c>
       <c r="E79" s="4">
-        <v>45324.708333333336</v>
+        <v>45359.708333333336</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H79" s="2"/>
       <c r="I79" s="3" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="4">
-        <v>45317.382627314815</v>
+        <v>45341.382557870369</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="4">
-        <v>45324.477997685186</v>
-      </c>
-      <c r="O79" s="4">
-        <v>45324.477997685186</v>
-      </c>
+        <v>45345.662187499998</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="3" t="s">
         <v>39</v>
@@ -7003,49 +7074,47 @@
       <c r="AE79" s="2"/>
       <c r="AF79" s="2"/>
     </row>
-    <row r="80" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
-        <v>5616</v>
+        <v>9100</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="D80" s="4">
-        <v>45238.623865740738</v>
+        <v>45310.586006944446</v>
       </c>
       <c r="E80" s="4">
-        <v>45238.666666666664</v>
+        <v>45310.708333333336</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H80" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="J80" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L80" s="4">
-        <v>45237.544305555559</v>
-      </c>
-      <c r="M80" s="4">
-        <v>45238.589108796295</v>
-      </c>
+        <v>45310.422303240739</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="4">
-        <v>45238.623865740738</v>
+        <v>45341.600312499999</v>
       </c>
       <c r="O80" s="4">
-        <v>45238.623865740738</v>
+        <v>45310.585995370369</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" s="3" t="s">
@@ -7055,7 +7124,7 @@
         <v>47</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
@@ -7071,21 +7140,19 @@
       <c r="AE80" s="2"/>
       <c r="AF80" s="2"/>
     </row>
-    <row r="81" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
-        <v>6414</v>
+        <v>5480</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>223</v>
-      </c>
+      <c r="C81" s="2"/>
       <c r="D81" s="4">
-        <v>45273.655694444446</v>
+        <v>45236.352812500001</v>
       </c>
       <c r="E81" s="4">
-        <v>45273.708333333336</v>
+        <v>45229.666666666664</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>43</v>
@@ -7093,32 +7160,32 @@
       <c r="G81" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L81" s="4">
-        <v>45271.579606481479</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>45229.648576388892</v>
+      </c>
+      <c r="M81" s="4">
+        <v>45229.648738425924</v>
+      </c>
       <c r="N81" s="4">
-        <v>45273.655682870369</v>
+        <v>45236.352812500001</v>
       </c>
       <c r="O81" s="4">
-        <v>45273.655682870369</v>
+        <v>45236.352800925924</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R81" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>39</v>
@@ -7137,45 +7204,49 @@
       <c r="AE81" s="2"/>
       <c r="AF81" s="2"/>
     </row>
-    <row r="82" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
-        <v>6226</v>
+        <v>6068</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C82" s="2"/>
       <c r="D82" s="4">
-        <v>45265.388067129628</v>
+        <v>45258.57203703704</v>
       </c>
       <c r="E82" s="4">
-        <v>45265.708333333336</v>
+        <v>45258.708333333336</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="I82" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J82" s="3" t="s">
         <v>59</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L82" s="4">
-        <v>45265.377754629626</v>
+        <v>45257.51494212963</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="4">
-        <v>45265.388067129628</v>
+        <v>45295.362858796296</v>
       </c>
       <c r="O82" s="4">
-        <v>45265.388067129628</v>
+        <v>45258.57203703704</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="3" t="s">
@@ -7194,8 +7265,12 @@
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
-      <c r="AA82" s="2"/>
-      <c r="AB82" s="2"/>
+      <c r="AA82" s="3">
+        <v>6066</v>
+      </c>
+      <c r="AB82" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="AC82" s="2"/>
       <c r="AD82" s="2"/>
       <c r="AE82" s="2"/>
@@ -7203,40 +7278,46 @@
     </row>
     <row r="83" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
-        <v>10316</v>
+        <v>7826</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C83" s="2"/>
       <c r="D83" s="4">
-        <v>45341.385381944441</v>
+        <v>45289.486655092594</v>
       </c>
       <c r="E83" s="4">
-        <v>45345.708333333336</v>
+        <v>45289.708333333336</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
+      <c r="I83" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="J83" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="L83" s="4">
-        <v>45341.385381944441</v>
+        <v>45288.425509259258</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="4">
-        <v>45341.385381944441</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>45289.486655092594</v>
+      </c>
+      <c r="O83" s="4">
+        <v>45289.486655092594</v>
+      </c>
       <c r="P83" s="2"/>
       <c r="Q83" s="3" t="s">
         <v>39</v>
@@ -7261,45 +7342,49 @@
       <c r="AE83" s="2"/>
       <c r="AF83" s="2"/>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
-        <v>5436</v>
+        <v>5494</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C84" s="2"/>
+      <c r="C84" s="3" t="s">
+        <v>228</v>
+      </c>
       <c r="D84" s="4">
-        <v>45236.352337962962</v>
+        <v>45236.351886574077</v>
       </c>
       <c r="E84" s="4">
-        <v>45226.666666666664</v>
+        <v>45232.666666666664</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="J84" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L84" s="4">
-        <v>45226.384328703702</v>
-      </c>
-      <c r="M84" s="4">
-        <v>45226.384560185186</v>
-      </c>
+        <v>45230.990231481483</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="4">
-        <v>45236.352349537039</v>
+        <v>45236.351875</v>
       </c>
       <c r="O84" s="4">
-        <v>45236.352337962962</v>
+        <v>45236.351875</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="3" t="s">
@@ -7325,56 +7410,50 @@
       <c r="AE84" s="2"/>
       <c r="AF84" s="2"/>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
-        <v>5434</v>
+        <v>11330</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D85" s="4">
-        <v>45232.58457175926</v>
+        <v>45363.583784722221</v>
       </c>
       <c r="E85" s="4">
-        <v>45226.666666666664</v>
+        <v>45370.708333333336</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="H85" s="2"/>
-      <c r="I85" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="I85" s="2"/>
       <c r="J85" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="K85" s="2"/>
       <c r="L85" s="4">
-        <v>45225.682604166665</v>
-      </c>
-      <c r="M85" s="4">
-        <v>45225.682824074072</v>
-      </c>
+        <v>45363.583252314813</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="4">
-        <v>45232.584594907406</v>
+        <v>45363.583784722221</v>
       </c>
       <c r="O85" s="4">
-        <v>45232.584560185183</v>
+        <v>45363.583784722221</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R85" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="S85" s="3" t="s">
         <v>39</v>
@@ -7393,57 +7472,59 @@
       <c r="AE85" s="2"/>
       <c r="AF85" s="2"/>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:32" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
-        <v>5438</v>
+        <v>5528</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D86" s="4">
-        <v>45226.408252314817</v>
+        <v>45238.488055555557</v>
       </c>
       <c r="E86" s="4">
-        <v>45226.666666666664</v>
+        <v>45233.666666666664</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H86" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="I86" s="3" t="s">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L86" s="4">
-        <v>45226.386759259258</v>
+        <v>45232.624826388892</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="4">
-        <v>45226.411516203705</v>
+        <v>45238.488055555557</v>
       </c>
       <c r="O86" s="4">
-        <v>45226.408252314817</v>
+        <v>45238.488055555557</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R86" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S86" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
@@ -7461,52 +7542,48 @@
     </row>
     <row r="87" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
-        <v>5484</v>
+        <v>11322</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D87" s="4">
-        <v>45236.351435185185</v>
+        <v>45363.578668981485</v>
       </c>
       <c r="E87" s="4">
-        <v>45233.666666666664</v>
+        <v>45366.708333333336</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H87" s="2"/>
-      <c r="I87" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="I87" s="2"/>
       <c r="J87" s="3" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="L87" s="4">
-        <v>45230.396655092591</v>
+        <v>45363.578668981485</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="4">
-        <v>45236.351458333331</v>
-      </c>
-      <c r="O87" s="4">
-        <v>45236.351435185185</v>
-      </c>
+        <v>45363.578668981485</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R87" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="S87" s="3" t="s">
         <v>39</v>
@@ -7525,52 +7602,58 @@
       <c r="AE87" s="2"/>
       <c r="AF87" s="2"/>
     </row>
-    <row r="88" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
-        <v>5600</v>
+        <v>8330</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D88" s="4">
-        <v>45238.48982638889</v>
+        <v>45301.659826388888</v>
       </c>
       <c r="E88" s="4">
-        <v>45237.666666666664</v>
+        <v>45303.708333333336</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="G88" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H88" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
+      <c r="I88" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="J88" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K88" s="2"/>
+      <c r="K88" s="3" t="s">
+        <v>240</v>
+      </c>
       <c r="L88" s="4">
-        <v>45236.43074074074</v>
+        <v>45300.423032407409</v>
       </c>
       <c r="M88" s="4">
-        <v>45237.546701388892</v>
+        <v>45300.423043981478</v>
       </c>
       <c r="N88" s="4">
-        <v>45238.489814814813</v>
+        <v>45301.659826388888</v>
       </c>
       <c r="O88" s="4">
-        <v>45238.489814814813</v>
+        <v>45301.659826388888</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R88" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="S88" s="3" t="s">
         <v>39</v>
@@ -7589,54 +7672,58 @@
       <c r="AE88" s="2"/>
       <c r="AF88" s="2"/>
     </row>
-    <row r="89" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:32" ht="69" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
-        <v>5956</v>
+        <v>8344</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>241</v>
+      </c>
       <c r="D89" s="4">
-        <v>45254.379849537036</v>
+        <v>45309.654780092591</v>
       </c>
       <c r="E89" s="4">
-        <v>45247.666666666664</v>
+        <v>45307.708333333336</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="G89" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H89" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H89" s="2"/>
       <c r="I89" s="3" t="s">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="L89" s="4">
-        <v>45247.558148148149</v>
+        <v>45301.594282407408</v>
       </c>
       <c r="M89" s="4">
-        <v>45247.558344907404</v>
+        <v>45301.594293981485</v>
       </c>
       <c r="N89" s="4">
-        <v>45253.846817129626</v>
+        <v>45309.654768518521</v>
       </c>
       <c r="O89" s="4">
-        <v>45253.846666666665</v>
+        <v>45309.654768518521</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R89" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>39</v>
@@ -7657,50 +7744,54 @@
     </row>
     <row r="90" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
-        <v>5514</v>
+        <v>5668</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="D90" s="4">
-        <v>45232.58792824074</v>
+        <v>45239.381562499999</v>
       </c>
       <c r="E90" s="4">
-        <v>45232.416666666664</v>
+        <v>45240.958333333336</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="I90" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="H90" s="2"/>
+      <c r="I90" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="J90" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K90" s="2"/>
+      <c r="K90" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="L90" s="4">
-        <v>45232.375324074077</v>
+        <v>45238.521006944444</v>
       </c>
       <c r="M90" s="4">
-        <v>45232.375428240739</v>
+        <v>45238.551539351851</v>
       </c>
       <c r="N90" s="4">
-        <v>45232.58798611111</v>
+        <v>45239.381562499999</v>
       </c>
       <c r="O90" s="4">
-        <v>45232.58792824074</v>
+        <v>45239.381562499999</v>
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R90" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="S90" s="3" t="s">
         <v>39</v>
@@ -7712,8 +7803,12 @@
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
-      <c r="AA90" s="2"/>
-      <c r="AB90" s="2"/>
+      <c r="AA90" s="3">
+        <v>5666</v>
+      </c>
+      <c r="AB90" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="AC90" s="2"/>
       <c r="AD90" s="2"/>
       <c r="AE90" s="2"/>
@@ -7721,43 +7816,45 @@
     </row>
     <row r="91" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
-        <v>5872</v>
+        <v>8282</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="4">
-        <v>45264.612835648149</v>
+        <v>45323.68246527778</v>
       </c>
       <c r="E91" s="4">
-        <v>45264.666666666664</v>
+        <v>45323.416666666664</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="J91" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L91" s="4">
-        <v>45244.437974537039</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>45295.593842592592</v>
+      </c>
+      <c r="M91" s="4">
+        <v>45317.357511574075</v>
+      </c>
       <c r="N91" s="4">
-        <v>45264.612835648149</v>
+        <v>45323.68246527778</v>
       </c>
       <c r="O91" s="4">
-        <v>45264.612835648149</v>
+        <v>45323.68246527778</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" s="3" t="s">
@@ -7776,8 +7873,12 @@
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
-      <c r="AA91" s="2"/>
-      <c r="AB91" s="2"/>
+      <c r="AA91" s="3">
+        <v>8276</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="AC91" s="2"/>
       <c r="AD91" s="2"/>
       <c r="AE91" s="2"/>
@@ -7785,54 +7886,52 @@
     </row>
     <row r="92" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
-        <v>5442</v>
+        <v>8168</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D92" s="4">
-        <v>45232.588067129633</v>
+        <v>45294.353472222225</v>
       </c>
       <c r="E92" s="4">
-        <v>45226.666666666664</v>
+        <v>45289.708333333336</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>232</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H92" s="2"/>
       <c r="I92" s="3" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K92" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="L92" s="4">
-        <v>45226.485949074071</v>
-      </c>
-      <c r="M92" s="4">
-        <v>45226.507372685184</v>
-      </c>
+        <v>45289.495023148149</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="4">
-        <v>45232.588090277779</v>
+        <v>45294.353472222225</v>
       </c>
       <c r="O92" s="4">
-        <v>45232.588067129633</v>
+        <v>45294.353472222225</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R92" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="S92" s="3" t="s">
         <v>39</v>
@@ -7853,17 +7952,19 @@
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
-        <v>5470</v>
+        <v>8292</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C93" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>248</v>
+      </c>
       <c r="D93" s="4">
-        <v>45236.352569444447</v>
+        <v>45301.367615740739</v>
       </c>
       <c r="E93" s="4">
-        <v>45229.666666666664</v>
+        <v>45296.708333333336</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>43</v>
@@ -7871,34 +7972,32 @@
       <c r="G93" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H93" s="3" t="s">
+      <c r="H93" s="2"/>
+      <c r="I93" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K93" s="2"/>
+      <c r="K93" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="L93" s="4">
-        <v>45229.409432870372</v>
-      </c>
-      <c r="M93" s="4">
-        <v>45229.451192129629</v>
-      </c>
+        <v>45296.411064814813</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="4">
-        <v>45236.352569444447</v>
+        <v>45301.367615740739</v>
       </c>
       <c r="O93" s="4">
-        <v>45236.352569444447</v>
+        <v>45301.367615740739</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R93" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="S93" s="3" t="s">
         <v>39</v>
@@ -7917,19 +8016,21 @@
       <c r="AE93" s="2"/>
       <c r="AF93" s="2"/>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
-        <v>5566</v>
+        <v>9192</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="D94" s="4">
-        <v>45238.489050925928</v>
+        <v>45324.477997685186</v>
       </c>
       <c r="E94" s="4">
-        <v>45237.666666666664</v>
+        <v>45324.708333333336</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>43</v>
@@ -7938,29 +8039,29 @@
         <v>35</v>
       </c>
       <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
+      <c r="I94" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="J94" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="K94" s="2"/>
       <c r="L94" s="4">
-        <v>45236.41914351852</v>
+        <v>45317.382627314815</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="4">
-        <v>45238.489085648151</v>
+        <v>45324.477997685186</v>
       </c>
       <c r="O94" s="4">
-        <v>45238.489050925928</v>
+        <v>45324.477997685186</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R94" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>39</v>
@@ -7979,21 +8080,21 @@
       <c r="AE94" s="2"/>
       <c r="AF94" s="2"/>
     </row>
-    <row r="95" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
-        <v>8320</v>
+        <v>5616</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D95" s="4">
-        <v>45300.408136574071</v>
+        <v>45238.623865740738</v>
       </c>
       <c r="E95" s="4">
-        <v>45299.708333333336</v>
+        <v>45238.666666666664</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>43</v>
@@ -8002,24 +8103,26 @@
         <v>35</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>107</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="I95" s="2"/>
       <c r="J95" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K95" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="L95" s="4">
-        <v>45299.542372685188</v>
-      </c>
-      <c r="M95" s="2"/>
+        <v>45237.544305555559</v>
+      </c>
+      <c r="M95" s="4">
+        <v>45238.589108796295</v>
+      </c>
       <c r="N95" s="4">
-        <v>45300.408125000002</v>
+        <v>45238.623865740738</v>
       </c>
       <c r="O95" s="4">
-        <v>45300.408125000002</v>
+        <v>45238.623865740738</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" s="3" t="s">
@@ -8045,19 +8148,21 @@
       <c r="AE95" s="2"/>
       <c r="AF95" s="2"/>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
-        <v>5976</v>
+        <v>6414</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C96" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>254</v>
+      </c>
       <c r="D96" s="4">
-        <v>45253.844537037039</v>
+        <v>45273.655694444446</v>
       </c>
       <c r="E96" s="4">
-        <v>45250.666666666664</v>
+        <v>45273.708333333336</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>43</v>
@@ -8066,31 +8171,31 @@
         <v>35</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="3" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>55</v>
       </c>
       <c r="L96" s="4">
-        <v>45250.593993055554</v>
+        <v>45271.579606481479</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="4">
-        <v>45253.844571759262</v>
+        <v>45273.655682870369</v>
       </c>
       <c r="O96" s="4">
-        <v>45253.844537037039</v>
+        <v>45273.655682870369</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R96" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="S96" s="3" t="s">
         <v>39</v>
@@ -8109,19 +8214,19 @@
       <c r="AE96" s="2"/>
       <c r="AF96" s="2"/>
     </row>
-    <row r="97" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
-        <v>6098</v>
+        <v>6226</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="4">
-        <v>45267.378935185188</v>
+        <v>45265.388067129628</v>
       </c>
       <c r="E97" s="4">
-        <v>45267.708333333336</v>
+        <v>45265.708333333336</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>43</v>
@@ -8129,25 +8234,25 @@
       <c r="G97" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H97" s="2"/>
-      <c r="I97" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="H97" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I97" s="2"/>
       <c r="J97" s="3" t="s">
         <v>59</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L97" s="4">
-        <v>45258.37572916667</v>
+        <v>45265.377754629626</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="4">
-        <v>45268.430671296293</v>
+        <v>45265.388067129628</v>
       </c>
       <c r="O97" s="4">
-        <v>45267.378935185188</v>
+        <v>45265.388067129628</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" s="3" t="s">
@@ -8173,45 +8278,45 @@
       <c r="AE97" s="2"/>
       <c r="AF97" s="2"/>
     </row>
-    <row r="98" spans="1:32" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
-        <v>8878</v>
+        <v>10316</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>248</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="C98" s="2"/>
       <c r="D98" s="4">
-        <v>45307.600590277776</v>
+        <v>45355.48265046296</v>
       </c>
       <c r="E98" s="4">
-        <v>45309.708333333336</v>
+        <v>45352.708333333336</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
+      <c r="I98" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="J98" s="3" t="s">
         <v>59</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L98" s="4">
-        <v>45307.462129629632</v>
+        <v>45341.385381944441</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="4">
-        <v>45307.600590277776</v>
+        <v>45355.48265046296</v>
       </c>
       <c r="O98" s="4">
-        <v>45307.600590277776</v>
+        <v>45355.48265046296</v>
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" s="3" t="s">
@@ -8230,28 +8335,30 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
-      <c r="AA98" s="2"/>
-      <c r="AB98" s="2"/>
+      <c r="AA98" s="3">
+        <v>10366</v>
+      </c>
+      <c r="AB98" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="AC98" s="2"/>
       <c r="AD98" s="2"/>
       <c r="AE98" s="2"/>
       <c r="AF98" s="2"/>
     </row>
-    <row r="99" spans="1:32" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
-        <v>8882</v>
+        <v>5436</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>250</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="C99" s="2"/>
       <c r="D99" s="4">
-        <v>45310.364861111113</v>
+        <v>45236.352337962962</v>
       </c>
       <c r="E99" s="4">
-        <v>45309.708333333336</v>
+        <v>45226.666666666664</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>43</v>
@@ -8260,31 +8367,31 @@
         <v>35</v>
       </c>
       <c r="H99" s="2"/>
-      <c r="I99" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="I99" s="2"/>
       <c r="J99" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L99" s="4">
-        <v>45307.466273148151</v>
-      </c>
-      <c r="M99" s="2"/>
+        <v>45226.384328703702</v>
+      </c>
+      <c r="M99" s="4">
+        <v>45226.384560185186</v>
+      </c>
       <c r="N99" s="4">
-        <v>45310.364849537036</v>
+        <v>45236.352349537039</v>
       </c>
       <c r="O99" s="4">
-        <v>45310.364849537036</v>
+        <v>45236.352337962962</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R99" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S99" s="3" t="s">
         <v>39</v>
@@ -8303,49 +8410,49 @@
       <c r="AE99" s="2"/>
       <c r="AF99" s="2"/>
     </row>
-    <row r="100" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
-        <v>5570</v>
+        <v>5434</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D100" s="4">
-        <v>45238.489710648151</v>
+        <v>45232.58457175926</v>
       </c>
       <c r="E100" s="4">
-        <v>45237.666666666664</v>
+        <v>45226.666666666664</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I100" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="H100" s="2"/>
+      <c r="I100" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="J100" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L100" s="4">
-        <v>45236.423032407409</v>
+        <v>45225.682604166665</v>
       </c>
       <c r="M100" s="4">
-        <v>45237.360682870371</v>
+        <v>45225.682824074072</v>
       </c>
       <c r="N100" s="4">
-        <v>45238.489710648151</v>
+        <v>45232.584594907406</v>
       </c>
       <c r="O100" s="4">
-        <v>45238.489710648151</v>
+        <v>45232.584560185183</v>
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" s="3" t="s">
@@ -8371,49 +8478,47 @@
       <c r="AE100" s="2"/>
       <c r="AF100" s="2"/>
     </row>
-    <row r="101" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
-        <v>5818</v>
+        <v>5438</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D101" s="4">
-        <v>45244.379641203705</v>
+        <v>45226.408252314817</v>
       </c>
       <c r="E101" s="4">
-        <v>45244.666666666664</v>
+        <v>45226.666666666664</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I101" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="H101" s="2"/>
+      <c r="I101" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="J101" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L101" s="4">
-        <v>45243.348634259259</v>
-      </c>
-      <c r="M101" s="4">
-        <v>45244.379618055558</v>
-      </c>
+        <v>45226.386759259258</v>
+      </c>
+      <c r="M101" s="2"/>
       <c r="N101" s="4">
-        <v>45244.446145833332</v>
+        <v>45226.411516203705</v>
       </c>
       <c r="O101" s="4">
-        <v>45244.379641203705</v>
+        <v>45226.408252314817</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" s="3" t="s">
@@ -8423,7 +8528,7 @@
         <v>47</v>
       </c>
       <c r="S101" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
@@ -8439,45 +8544,47 @@
       <c r="AE101" s="2"/>
       <c r="AF101" s="2"/>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
-        <v>5980</v>
+        <v>5484</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="D102" s="4">
-        <v>45254.422569444447</v>
+        <v>45236.351435185185</v>
       </c>
       <c r="E102" s="4">
-        <v>45251.666666666664</v>
+        <v>45233.666666666664</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I102" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="H102" s="2"/>
+      <c r="I102" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="J102" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K102" s="2"/>
+      <c r="K102" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="L102" s="4">
-        <v>45251.344490740739</v>
+        <v>45230.396655092591</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="4">
-        <v>45254.422569444447</v>
+        <v>45236.351458333331</v>
       </c>
       <c r="O102" s="4">
-        <v>45254.422569444447</v>
+        <v>45236.351435185185</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" s="3" t="s">
@@ -8505,52 +8612,50 @@
     </row>
     <row r="103" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
-        <v>6090</v>
+        <v>5600</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D103" s="4">
-        <v>45258.407430555555</v>
+        <v>45238.48982638889</v>
       </c>
       <c r="E103" s="4">
-        <v>45258.708333333336</v>
+        <v>45237.666666666664</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>257</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K103" s="2"/>
       <c r="L103" s="4">
-        <v>45258.342488425929</v>
-      </c>
-      <c r="M103" s="2"/>
+        <v>45236.43074074074</v>
+      </c>
+      <c r="M103" s="4">
+        <v>45237.546701388892</v>
+      </c>
       <c r="N103" s="4">
-        <v>45258.407430555555</v>
+        <v>45238.489814814813</v>
       </c>
       <c r="O103" s="4">
-        <v>45258.407430555555</v>
+        <v>45238.489814814813</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R103" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S103" s="3" t="s">
         <v>39</v>
@@ -8569,57 +8674,57 @@
       <c r="AE103" s="2"/>
       <c r="AF103" s="2"/>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
-        <v>6058</v>
+        <v>5956</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="4">
-        <v>45268.541574074072</v>
+        <v>45254.379849537036</v>
       </c>
       <c r="E104" s="4">
-        <v>45268.708333333336</v>
+        <v>45247.666666666664</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="3" t="s">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L104" s="4">
-        <v>45254.656701388885</v>
+        <v>45247.558148148149</v>
       </c>
       <c r="M104" s="4">
-        <v>45268.541550925926</v>
+        <v>45247.558344907404</v>
       </c>
       <c r="N104" s="4">
-        <v>45273.663321759261</v>
+        <v>45253.846817129626</v>
       </c>
       <c r="O104" s="4">
-        <v>45268.541574074072</v>
+        <v>45253.846666666665</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R104" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S104" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
@@ -8635,6 +8740,1046 @@
       <c r="AE104" s="2"/>
       <c r="AF104" s="2"/>
     </row>
+    <row r="105" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>5514</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="4">
+        <v>45232.58792824074</v>
+      </c>
+      <c r="E105" s="4">
+        <v>45232.416666666664</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="I105" s="2"/>
+      <c r="J105" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K105" s="2"/>
+      <c r="L105" s="4">
+        <v>45232.375324074077</v>
+      </c>
+      <c r="M105" s="4">
+        <v>45232.375428240739</v>
+      </c>
+      <c r="N105" s="4">
+        <v>45232.58798611111</v>
+      </c>
+      <c r="O105" s="4">
+        <v>45232.58792824074</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R105" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S105" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="2"/>
+      <c r="X105" s="2"/>
+      <c r="Y105" s="2"/>
+      <c r="Z105" s="2"/>
+      <c r="AA105" s="2"/>
+      <c r="AB105" s="2"/>
+      <c r="AC105" s="2"/>
+      <c r="AD105" s="2"/>
+      <c r="AE105" s="2"/>
+      <c r="AF105" s="2"/>
+    </row>
+    <row r="106" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>5872</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="4">
+        <v>45264.612835648149</v>
+      </c>
+      <c r="E106" s="4">
+        <v>45264.666666666664</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I106" s="2"/>
+      <c r="J106" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L106" s="4">
+        <v>45244.437974537039</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="4">
+        <v>45264.612835648149</v>
+      </c>
+      <c r="O106" s="4">
+        <v>45264.612835648149</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R106" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S106" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="2"/>
+      <c r="Y106" s="2"/>
+      <c r="Z106" s="2"/>
+      <c r="AA106" s="2"/>
+      <c r="AB106" s="2"/>
+      <c r="AC106" s="2"/>
+      <c r="AD106" s="2"/>
+      <c r="AE106" s="2"/>
+      <c r="AF106" s="2"/>
+    </row>
+    <row r="107" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>5442</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D107" s="4">
+        <v>45232.588067129633</v>
+      </c>
+      <c r="E107" s="4">
+        <v>45226.666666666664</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K107" s="2"/>
+      <c r="L107" s="4">
+        <v>45226.485949074071</v>
+      </c>
+      <c r="M107" s="4">
+        <v>45226.507372685184</v>
+      </c>
+      <c r="N107" s="4">
+        <v>45232.588090277779</v>
+      </c>
+      <c r="O107" s="4">
+        <v>45232.588067129633</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R107" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S107" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="2"/>
+      <c r="X107" s="2"/>
+      <c r="Y107" s="2"/>
+      <c r="Z107" s="2"/>
+      <c r="AA107" s="2"/>
+      <c r="AB107" s="2"/>
+      <c r="AC107" s="2"/>
+      <c r="AD107" s="2"/>
+      <c r="AE107" s="2"/>
+      <c r="AF107" s="2"/>
+    </row>
+    <row r="108" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>5470</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="4">
+        <v>45236.352569444447</v>
+      </c>
+      <c r="E108" s="4">
+        <v>45229.666666666664</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K108" s="2"/>
+      <c r="L108" s="4">
+        <v>45229.409432870372</v>
+      </c>
+      <c r="M108" s="4">
+        <v>45229.451192129629</v>
+      </c>
+      <c r="N108" s="4">
+        <v>45236.352569444447</v>
+      </c>
+      <c r="O108" s="4">
+        <v>45236.352569444447</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R108" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S108" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="X108" s="2"/>
+      <c r="Y108" s="2"/>
+      <c r="Z108" s="2"/>
+      <c r="AA108" s="2"/>
+      <c r="AB108" s="2"/>
+      <c r="AC108" s="2"/>
+      <c r="AD108" s="2"/>
+      <c r="AE108" s="2"/>
+      <c r="AF108" s="2"/>
+    </row>
+    <row r="109" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>11328</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D109" s="4">
+        <v>45363.58189814815</v>
+      </c>
+      <c r="E109" s="4">
+        <v>45371.708333333336</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K109" s="2"/>
+      <c r="L109" s="4">
+        <v>45363.58189814815</v>
+      </c>
+      <c r="M109" s="2"/>
+      <c r="N109" s="4">
+        <v>45363.58189814815</v>
+      </c>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R109" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S109" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="2"/>
+      <c r="X109" s="2"/>
+      <c r="Y109" s="2"/>
+      <c r="Z109" s="2"/>
+      <c r="AA109" s="2"/>
+      <c r="AB109" s="2"/>
+      <c r="AC109" s="2"/>
+      <c r="AD109" s="2"/>
+      <c r="AE109" s="2"/>
+      <c r="AF109" s="2"/>
+    </row>
+    <row r="110" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>5566</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="4">
+        <v>45238.489050925928</v>
+      </c>
+      <c r="E110" s="4">
+        <v>45237.666666666664</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L110" s="4">
+        <v>45236.41914351852</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" s="4">
+        <v>45238.489085648151</v>
+      </c>
+      <c r="O110" s="4">
+        <v>45238.489050925928</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R110" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S110" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="2"/>
+      <c r="X110" s="2"/>
+      <c r="Y110" s="2"/>
+      <c r="Z110" s="2"/>
+      <c r="AA110" s="2"/>
+      <c r="AB110" s="2"/>
+      <c r="AC110" s="2"/>
+      <c r="AD110" s="2"/>
+      <c r="AE110" s="2"/>
+      <c r="AF110" s="2"/>
+    </row>
+    <row r="111" spans="1:32" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>8320</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D111" s="4">
+        <v>45300.408136574071</v>
+      </c>
+      <c r="E111" s="4">
+        <v>45299.708333333336</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K111" s="2"/>
+      <c r="L111" s="4">
+        <v>45299.542372685188</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" s="4">
+        <v>45300.408125000002</v>
+      </c>
+      <c r="O111" s="4">
+        <v>45300.408125000002</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R111" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S111" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
+      <c r="W111" s="2"/>
+      <c r="X111" s="2"/>
+      <c r="Y111" s="2"/>
+      <c r="Z111" s="2"/>
+      <c r="AA111" s="2"/>
+      <c r="AB111" s="2"/>
+      <c r="AC111" s="2"/>
+      <c r="AD111" s="2"/>
+      <c r="AE111" s="2"/>
+      <c r="AF111" s="2"/>
+    </row>
+    <row r="112" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>5976</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="4">
+        <v>45253.844537037039</v>
+      </c>
+      <c r="E112" s="4">
+        <v>45250.666666666664</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I112" s="2"/>
+      <c r="J112" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L112" s="4">
+        <v>45250.593993055554</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" s="4">
+        <v>45253.844571759262</v>
+      </c>
+      <c r="O112" s="4">
+        <v>45253.844537037039</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R112" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S112" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T112" s="2"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="2"/>
+      <c r="W112" s="2"/>
+      <c r="X112" s="2"/>
+      <c r="Y112" s="2"/>
+      <c r="Z112" s="2"/>
+      <c r="AA112" s="2"/>
+      <c r="AB112" s="2"/>
+      <c r="AC112" s="2"/>
+      <c r="AD112" s="2"/>
+      <c r="AE112" s="2"/>
+      <c r="AF112" s="2"/>
+    </row>
+    <row r="113" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>6098</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="4">
+        <v>45267.378935185188</v>
+      </c>
+      <c r="E113" s="4">
+        <v>45267.708333333336</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H113" s="2"/>
+      <c r="I113" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L113" s="4">
+        <v>45258.37572916667</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" s="4">
+        <v>45268.430671296293</v>
+      </c>
+      <c r="O113" s="4">
+        <v>45267.378935185188</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R113" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S113" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="2"/>
+      <c r="W113" s="2"/>
+      <c r="X113" s="2"/>
+      <c r="Y113" s="2"/>
+      <c r="Z113" s="2"/>
+      <c r="AA113" s="2"/>
+      <c r="AB113" s="2"/>
+      <c r="AC113" s="2"/>
+      <c r="AD113" s="2"/>
+      <c r="AE113" s="2"/>
+      <c r="AF113" s="2"/>
+    </row>
+    <row r="114" spans="1:32" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>8878</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D114" s="4">
+        <v>45307.600590277776</v>
+      </c>
+      <c r="E114" s="4">
+        <v>45309.708333333336</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L114" s="4">
+        <v>45307.462129629632</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" s="4">
+        <v>45307.600590277776</v>
+      </c>
+      <c r="O114" s="4">
+        <v>45307.600590277776</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R114" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S114" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T114" s="2"/>
+      <c r="U114" s="2"/>
+      <c r="V114" s="2"/>
+      <c r="W114" s="2"/>
+      <c r="X114" s="2"/>
+      <c r="Y114" s="2"/>
+      <c r="Z114" s="2"/>
+      <c r="AA114" s="2"/>
+      <c r="AB114" s="2"/>
+      <c r="AC114" s="2"/>
+      <c r="AD114" s="2"/>
+      <c r="AE114" s="2"/>
+      <c r="AF114" s="2"/>
+    </row>
+    <row r="115" spans="1:32" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>8882</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D115" s="4">
+        <v>45310.364861111113</v>
+      </c>
+      <c r="E115" s="4">
+        <v>45309.708333333336</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H115" s="2"/>
+      <c r="I115" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L115" s="4">
+        <v>45307.466273148151</v>
+      </c>
+      <c r="M115" s="2"/>
+      <c r="N115" s="4">
+        <v>45310.364849537036</v>
+      </c>
+      <c r="O115" s="4">
+        <v>45310.364849537036</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R115" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S115" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2"/>
+      <c r="V115" s="2"/>
+      <c r="W115" s="2"/>
+      <c r="X115" s="2"/>
+      <c r="Y115" s="2"/>
+      <c r="Z115" s="2"/>
+      <c r="AA115" s="2"/>
+      <c r="AB115" s="2"/>
+      <c r="AC115" s="2"/>
+      <c r="AD115" s="2"/>
+      <c r="AE115" s="2"/>
+      <c r="AF115" s="2"/>
+    </row>
+    <row r="116" spans="1:32" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>5570</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D116" s="4">
+        <v>45238.489710648151</v>
+      </c>
+      <c r="E116" s="4">
+        <v>45237.666666666664</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I116" s="2"/>
+      <c r="J116" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L116" s="4">
+        <v>45236.423032407409</v>
+      </c>
+      <c r="M116" s="4">
+        <v>45237.360682870371</v>
+      </c>
+      <c r="N116" s="4">
+        <v>45238.489710648151</v>
+      </c>
+      <c r="O116" s="4">
+        <v>45238.489710648151</v>
+      </c>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R116" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S116" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2"/>
+      <c r="V116" s="2"/>
+      <c r="W116" s="2"/>
+      <c r="X116" s="2"/>
+      <c r="Y116" s="2"/>
+      <c r="Z116" s="2"/>
+      <c r="AA116" s="2"/>
+      <c r="AB116" s="2"/>
+      <c r="AC116" s="2"/>
+      <c r="AD116" s="2"/>
+      <c r="AE116" s="2"/>
+      <c r="AF116" s="2"/>
+    </row>
+    <row r="117" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>5818</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D117" s="4">
+        <v>45244.379641203705</v>
+      </c>
+      <c r="E117" s="4">
+        <v>45244.666666666664</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I117" s="2"/>
+      <c r="J117" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L117" s="4">
+        <v>45243.348634259259</v>
+      </c>
+      <c r="M117" s="4">
+        <v>45244.379618055558</v>
+      </c>
+      <c r="N117" s="4">
+        <v>45244.446145833332</v>
+      </c>
+      <c r="O117" s="4">
+        <v>45244.379641203705</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R117" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S117" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2"/>
+      <c r="V117" s="2"/>
+      <c r="W117" s="2"/>
+      <c r="X117" s="2"/>
+      <c r="Y117" s="2"/>
+      <c r="Z117" s="2"/>
+      <c r="AA117" s="2"/>
+      <c r="AB117" s="2"/>
+      <c r="AC117" s="2"/>
+      <c r="AD117" s="2"/>
+      <c r="AE117" s="2"/>
+      <c r="AF117" s="2"/>
+    </row>
+    <row r="118" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>5980</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D118" s="4">
+        <v>45254.422569444447</v>
+      </c>
+      <c r="E118" s="4">
+        <v>45251.666666666664</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I118" s="2"/>
+      <c r="J118" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K118" s="2"/>
+      <c r="L118" s="4">
+        <v>45251.344490740739</v>
+      </c>
+      <c r="M118" s="2"/>
+      <c r="N118" s="4">
+        <v>45254.422569444447</v>
+      </c>
+      <c r="O118" s="4">
+        <v>45254.422569444447</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R118" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S118" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T118" s="2"/>
+      <c r="U118" s="2"/>
+      <c r="V118" s="2"/>
+      <c r="W118" s="2"/>
+      <c r="X118" s="2"/>
+      <c r="Y118" s="2"/>
+      <c r="Z118" s="2"/>
+      <c r="AA118" s="2"/>
+      <c r="AB118" s="2"/>
+      <c r="AC118" s="2"/>
+      <c r="AD118" s="2"/>
+      <c r="AE118" s="2"/>
+      <c r="AF118" s="2"/>
+    </row>
+    <row r="119" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <v>6090</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D119" s="4">
+        <v>45258.407430555555</v>
+      </c>
+      <c r="E119" s="4">
+        <v>45258.708333333336</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="I119" s="2"/>
+      <c r="J119" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L119" s="4">
+        <v>45258.342488425929</v>
+      </c>
+      <c r="M119" s="2"/>
+      <c r="N119" s="4">
+        <v>45258.407430555555</v>
+      </c>
+      <c r="O119" s="4">
+        <v>45258.407430555555</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R119" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S119" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2"/>
+      <c r="V119" s="2"/>
+      <c r="W119" s="2"/>
+      <c r="X119" s="2"/>
+      <c r="Y119" s="2"/>
+      <c r="Z119" s="2"/>
+      <c r="AA119" s="2"/>
+      <c r="AB119" s="2"/>
+      <c r="AC119" s="2"/>
+      <c r="AD119" s="2"/>
+      <c r="AE119" s="2"/>
+      <c r="AF119" s="2"/>
+    </row>
+    <row r="120" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>6058</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="4">
+        <v>45268.541574074072</v>
+      </c>
+      <c r="E120" s="4">
+        <v>45268.708333333336</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H120" s="2"/>
+      <c r="I120" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L120" s="4">
+        <v>45254.656701388885</v>
+      </c>
+      <c r="M120" s="4">
+        <v>45268.541550925926</v>
+      </c>
+      <c r="N120" s="4">
+        <v>45273.663321759261</v>
+      </c>
+      <c r="O120" s="4">
+        <v>45268.541574074072</v>
+      </c>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R120" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S120" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T120" s="2"/>
+      <c r="U120" s="2"/>
+      <c r="V120" s="2"/>
+      <c r="W120" s="2"/>
+      <c r="X120" s="2"/>
+      <c r="Y120" s="2"/>
+      <c r="Z120" s="2"/>
+      <c r="AA120" s="2"/>
+      <c r="AB120" s="2"/>
+      <c r="AC120" s="2"/>
+      <c r="AD120" s="2"/>
+      <c r="AE120" s="2"/>
+      <c r="AF120" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
